--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\Codegen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Enums" sheetId="5" r:id="rId5"/>
     <sheet name="EnumsLister" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="302">
   <si>
     <t>ClassName</t>
   </si>
@@ -860,6 +855,81 @@
   </si>
   <si>
     <t>ListerPropertyNameBody</t>
+  </si>
+  <si>
+    <t>CourtInfo</t>
+  </si>
+  <si>
+    <t>LPRegisteredDateRecordId</t>
+  </si>
+  <si>
+    <t>EmailInfo</t>
+  </si>
+  <si>
+    <t>CreditRatingInfo</t>
+  </si>
+  <si>
+    <t>BankruptcyInvestigationInfo</t>
+  </si>
+  <si>
+    <t>LiquidatedOrInsolventEntityInfoBase</t>
+  </si>
+  <si>
+    <t>LegalTransactionType</t>
+  </si>
+  <si>
+    <t>InfluenceType</t>
+  </si>
+  <si>
+    <t>LiquidatedOrInsolventEntityMgmtRecordInfo</t>
+  </si>
+  <si>
+    <t>CharterCapitalTableRecord</t>
+  </si>
+  <si>
+    <t>EnumsLister</t>
+  </si>
+  <si>
+    <t>RatingAgencyInfo</t>
+  </si>
+  <si>
+    <t>EconomicActivityType</t>
+  </si>
+  <si>
+    <t>CharterCapitalTableTotalsRecord</t>
+  </si>
+  <si>
+    <t>CourtDecisionInfo</t>
+  </si>
+  <si>
+    <t>LicenseQualificationInfo</t>
+  </si>
+  <si>
+    <t>IPOSharesPurchaseInfo</t>
+  </si>
+  <si>
+    <t>SecondaryMarketSharesPurchaseInfo</t>
+  </si>
+  <si>
+    <t>LegalTransactionInfo</t>
+  </si>
+  <si>
+    <t>PowerOfAttorneySharesPurchaseInfo</t>
+  </si>
+  <si>
+    <t>SignificantOrDecisiveInfulenceInfo</t>
+  </si>
+  <si>
+    <t>SignificantOwnershipAcquisitionWaysInfo</t>
+  </si>
+  <si>
+    <t>TotalOwnershipSummaryInfo</t>
+  </si>
+  <si>
+    <t>ImperfectBusinessReputationInfo</t>
+  </si>
+  <si>
+    <t>PowerOfAttorneyInfo</t>
   </si>
 </sst>
 </file>
@@ -911,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1843,11 +1913,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="77" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1874,8 +1952,8 @@
         <v>Appx2OwnershipStructLPEditFormFactoryBasic</v>
       </c>
       <c r="G1" t="str">
-        <f>"public class " &amp;F1&amp; " : " &amp; B1 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A1&amp; " &gt;(); } }"</f>
-        <v>public class Appx2OwnershipStructLPEditFormFactoryBasic : IAppx2OwnershipStructLPEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;Appx2OwnershipStructLP &gt;(); } }</v>
+        <f>"public class " &amp;F1&amp; " : " &amp; B1 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;" &amp;A1&amp; " &gt;(); } }"</f>
+        <v>public class Appx2OwnershipStructLPEditFormFactoryBasic : IAppx2OwnershipStructLPEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;Appx2OwnershipStructLP &gt;(); } }</v>
       </c>
       <c r="H1" t="str">
         <f>"cont.RegisterInstance&lt;" &amp; B1 &amp; "&gt;(new " &amp; F1 &amp; "(), new ContainerControlledLifetimeManager());"</f>
@@ -1911,8 +1989,8 @@
         <v>RegLicAppx14NewSvcEditFormFactoryBasic</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G32" si="5">"public class " &amp;F2&amp; " : " &amp; B2 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A2&amp; " &gt;(); } }"</f>
-        <v>public class RegLicAppx14NewSvcEditFormFactoryBasic : IRegLicAppx14NewSvcEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx14NewSvc &gt;(); } }</v>
+        <f t="shared" ref="G2:G65" si="5">"public class " &amp;F2&amp; " : " &amp; B2 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;" &amp;A2&amp; " &gt;(); } }"</f>
+        <v>public class RegLicAppx14NewSvcEditFormFactoryBasic : IRegLicAppx14NewSvcEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx14NewSvc &gt;(); } }</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H32" si="6">"cont.RegisterInstance&lt;" &amp; B2 &amp; "&gt;(new " &amp; F2 &amp; "(), new ContainerControlledLifetimeManager());"</f>
@@ -1949,7 +2027,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="5"/>
-        <v>public class RegLicAppx2LPQuestEditFormFactoryBasic : IRegLicAppx2LPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx2LPQuest &gt;(); } }</v>
+        <v>public class RegLicAppx2LPQuestEditFormFactoryBasic : IRegLicAppx2LPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx2LPQuest &gt;(); } }</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="6"/>
@@ -1986,7 +2064,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="5"/>
-        <v>public class RegLicAppx4PhysPQuestEditFormFactoryBasic : IRegLicAppx4PhysPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx4PhysPQuest &gt;(); } }</v>
+        <v>public class RegLicAppx4PhysPQuestEditFormFactoryBasic : IRegLicAppx4PhysPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx4PhysPQuest &gt;(); } }</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="6"/>
@@ -2023,7 +2101,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="5"/>
-        <v>public class RegLicAppx7ShareAcqIntentEditFormFactoryBasic : IRegLicAppx7ShareAcqIntentEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx7ShareAcqIntent &gt;(); } }</v>
+        <v>public class RegLicAppx7ShareAcqIntentEditFormFactoryBasic : IRegLicAppx7ShareAcqIntentEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx7ShareAcqIntent &gt;(); } }</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="6"/>
@@ -2060,7 +2138,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="5"/>
-        <v>public class AttachmentInfoEditFormFactoryBasic : IAttachmentInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;AttachmentInfo &gt;(); } }</v>
+        <v>public class AttachmentInfoEditFormFactoryBasic : IAttachmentInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;AttachmentInfo &gt;(); } }</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="6"/>
@@ -2097,7 +2175,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="5"/>
-        <v>public class BankingLicensedActivityInfoEditFormFactoryBasic : IBankingLicensedActivityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankingLicensedActivityInfo &gt;(); } }</v>
+        <v>public class BankingLicensedActivityInfoEditFormFactoryBasic : IBankingLicensedActivityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankingLicensedActivityInfo &gt;(); } }</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="6"/>
@@ -2134,7 +2212,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="5"/>
-        <v>public class BankingLicenseInfoEditFormFactoryBasic : IBankingLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankingLicenseInfo &gt;(); } }</v>
+        <v>public class BankingLicenseInfoEditFormFactoryBasic : IBankingLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankingLicenseInfo &gt;(); } }</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="6"/>
@@ -2171,7 +2249,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="5"/>
-        <v>public class CommonOwnershipInfoEditFormFactoryBasic : ICommonOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CommonOwnershipInfo &gt;(); } }</v>
+        <v>public class CommonOwnershipInfoEditFormFactoryBasic : ICommonOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CommonOwnershipInfo &gt;(); } }</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="6"/>
@@ -2208,7 +2286,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="5"/>
-        <v>public class ContactInfoEditFormFactoryBasic : IContactInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ContactInfo &gt;(); } }</v>
+        <v>public class ContactInfoEditFormFactoryBasic : IContactInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ContactInfo &gt;(); } }</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="6"/>
@@ -2245,7 +2323,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="5"/>
-        <v>public class CouncilBodyInfoEditFormFactoryBasic : ICouncilBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CouncilBodyInfo &gt;(); } }</v>
+        <v>public class CouncilBodyInfoEditFormFactoryBasic : ICouncilBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CouncilBodyInfo &gt;(); } }</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="6"/>
@@ -2282,7 +2360,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="5"/>
-        <v>public class CouncilMemberInfoEditFormFactoryBasic : ICouncilMemberInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CouncilMemberInfo &gt;(); } }</v>
+        <v>public class CouncilMemberInfoEditFormFactoryBasic : ICouncilMemberInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CouncilMemberInfo &gt;(); } }</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="6"/>
@@ -2319,7 +2397,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="5"/>
-        <v>public class CurrencyAmountEditFormFactoryBasic : ICurrencyAmountEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CurrencyAmount &gt;(); } }</v>
+        <v>public class CurrencyAmountEditFormFactoryBasic : ICurrencyAmountEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CurrencyAmount &gt;(); } }</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="6"/>
@@ -2356,7 +2434,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="5"/>
-        <v>public class GenericPersonIDEditFormFactoryBasic : IGenericPersonIDEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonID &gt;(); } }</v>
+        <v>public class GenericPersonIDEditFormFactoryBasic : IGenericPersonIDEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;GenericPersonID &gt;(); } }</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="6"/>
@@ -2393,7 +2471,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="5"/>
-        <v>public class GenericPersonIDShareEditFormFactoryBasic : IGenericPersonIDShareEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonIDShare &gt;(); } }</v>
+        <v>public class GenericPersonIDShareEditFormFactoryBasic : IGenericPersonIDShareEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;GenericPersonIDShare &gt;(); } }</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="6"/>
@@ -2430,7 +2508,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="5"/>
-        <v>public class GenericPersonInfoEditFormFactoryBasic : IGenericPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonInfo &gt;(); } }</v>
+        <v>public class GenericPersonInfoEditFormFactoryBasic : IGenericPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;GenericPersonInfo &gt;(); } }</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="6"/>
@@ -2467,7 +2545,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="5"/>
-        <v>public class LegalPersonShareInfoEditFormFactoryBasic : ILegalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LegalPersonShareInfo &gt;(); } }</v>
+        <v>public class LegalPersonShareInfoEditFormFactoryBasic : ILegalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LegalPersonShareInfo &gt;(); } }</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="6"/>
@@ -2504,7 +2582,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="5"/>
-        <v>public class OwnershipStructureEditFormFactoryBasic : IOwnershipStructureEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipStructure &gt;(); } }</v>
+        <v>public class OwnershipStructureEditFormFactoryBasic : IOwnershipStructureEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;OwnershipStructure &gt;(); } }</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="6"/>
@@ -2541,7 +2619,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="5"/>
-        <v>public class OwnershipSummaryInfoEditFormFactoryBasic : IOwnershipSummaryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipSummaryInfo &gt;(); } }</v>
+        <v>public class OwnershipSummaryInfoEditFormFactoryBasic : IOwnershipSummaryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;OwnershipSummaryInfo &gt;(); } }</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="6"/>
@@ -2578,7 +2656,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="5"/>
-        <v>public class OwnershipVotesInfoEditFormFactoryBasic : IOwnershipVotesInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipVotesInfo &gt;(); } }</v>
+        <v>public class OwnershipVotesInfoEditFormFactoryBasic : IOwnershipVotesInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;OwnershipVotesInfo &gt;(); } }</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="6"/>
@@ -2615,7 +2693,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="5"/>
-        <v>public class PersonsAssociationEditFormFactoryBasic : IPersonsAssociationEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PersonsAssociation &gt;(); } }</v>
+        <v>public class PersonsAssociationEditFormFactoryBasic : IPersonsAssociationEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PersonsAssociation &gt;(); } }</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="6"/>
@@ -2652,7 +2730,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="5"/>
-        <v>public class PhoneInfoEditFormFactoryBasic : IPhoneInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhoneInfo &gt;(); } }</v>
+        <v>public class PhoneInfoEditFormFactoryBasic : IPhoneInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PhoneInfo &gt;(); } }</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="6"/>
@@ -2689,7 +2767,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="5"/>
-        <v>public class PhysicalPersonShareInfoEditFormFactoryBasic : IPhysicalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhysicalPersonShareInfo &gt;(); } }</v>
+        <v>public class PhysicalPersonShareInfoEditFormFactoryBasic : IPhysicalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PhysicalPersonShareInfo &gt;(); } }</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="6"/>
@@ -2726,7 +2804,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="5"/>
-        <v>public class PurchasedVoteInfoEditFormFactoryBasic : IPurchasedVoteInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PurchasedVoteInfo &gt;(); } }</v>
+        <v>public class PurchasedVoteInfoEditFormFactoryBasic : IPurchasedVoteInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PurchasedVoteInfo &gt;(); } }</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="6"/>
@@ -2763,7 +2841,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="5"/>
-        <v>public class SignatoryInfoEditFormFactoryBasic : ISignatoryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;SignatoryInfo &gt;(); } }</v>
+        <v>public class SignatoryInfoEditFormFactoryBasic : ISignatoryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;SignatoryInfo &gt;(); } }</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="6"/>
@@ -2800,7 +2878,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="5"/>
-        <v>public class TotalOwnershipDetailsInfoEditFormFactoryBasic : ITotalOwnershipDetailsInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;TotalOwnershipDetailsInfo &gt;(); } }</v>
+        <v>public class TotalOwnershipDetailsInfoEditFormFactoryBasic : ITotalOwnershipDetailsInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;TotalOwnershipDetailsInfo &gt;(); } }</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="6"/>
@@ -2837,7 +2915,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="5"/>
-        <v>public class BankInfoEditFormFactoryBasic : IBankInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankInfo &gt;(); } }</v>
+        <v>public class BankInfoEditFormFactoryBasic : IBankInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankInfo &gt;(); } }</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="6"/>
@@ -2874,7 +2952,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
-        <v>public class CountryInfoEditFormFactoryBasic : ICountryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CountryInfo &gt;(); } }</v>
+        <v>public class CountryInfoEditFormFactoryBasic : ICountryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CountryInfo &gt;(); } }</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="6"/>
@@ -2911,7 +2989,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="5"/>
-        <v>public class LegalPersonInfoEditFormFactoryBasic : ILegalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LegalPersonInfo &gt;(); } }</v>
+        <v>public class LegalPersonInfoEditFormFactoryBasic : ILegalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LegalPersonInfo &gt;(); } }</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="6"/>
@@ -2948,7 +3026,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="5"/>
-        <v>public class LocationInfoEditFormFactoryBasic : ILocationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LocationInfo &gt;(); } }</v>
+        <v>public class LocationInfoEditFormFactoryBasic : ILocationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LocationInfo &gt;(); } }</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="6"/>
@@ -2985,7 +3063,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
-        <v>public class PhysicalPersonInfoEditFormFactoryBasic : IPhysicalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhysicalPersonInfo &gt;(); } }</v>
+        <v>public class PhysicalPersonInfoEditFormFactoryBasic : IPhysicalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PhysicalPersonInfo &gt;(); } }</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="6"/>
@@ -3022,7 +3100,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="5"/>
-        <v>public class RegistrarAuthorityEditFormFactoryBasic : IRegistrarAuthorityEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegistrarAuthority &gt;(); } }</v>
+        <v>public class RegistrarAuthorityEditFormFactoryBasic : IRegistrarAuthorityEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegistrarAuthority &gt;(); } }</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="6"/>
@@ -3058,15 +3136,15 @@
         <v>BreachOfLawRecordInfoEditFormFactoryBasic</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:G50" si="13">"public class " &amp;F33&amp; " : " &amp; B33 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A33&amp; " &gt;(); } }"</f>
-        <v>public class BreachOfLawRecordInfoEditFormFactoryBasic : IBreachOfLawRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BreachOfLawRecordInfo &gt;(); } }</v>
+        <f t="shared" si="5"/>
+        <v>public class BreachOfLawRecordInfoEditFormFactoryBasic : IBreachOfLawRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BreachOfLawRecordInfo &gt;(); } }</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:H50" si="14">"cont.RegisterInstance&lt;" &amp; B33 &amp; "&gt;(new " &amp; F33 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <f t="shared" ref="H33:H50" si="13">"cont.RegisterInstance&lt;" &amp; B33 &amp; "&gt;(new " &amp; F33 &amp; "(), new ContainerControlledLifetimeManager());"</f>
         <v>cont.RegisterInstance&lt;IBreachOfLawRecordInfoEditFormFactory&gt;(new BreachOfLawRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33:I50" si="15">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D33 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <f t="shared" ref="I33:I50" si="14">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D33 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BreachOfLawRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3095,15 +3173,15 @@
         <v>EducationRecordInfoEditFormFactoryBasic</v>
       </c>
       <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>public class EducationRecordInfoEditFormFactoryBasic : IEducationRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;EducationRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="13"/>
-        <v>public class EducationRecordInfoEditFormFactoryBasic : IEducationRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;EducationRecordInfo &gt;(); } }</v>
-      </c>
-      <c r="H34" t="str">
+        <v>cont.RegisterInstance&lt;IEducationRecordInfoEditFormFactory&gt;(new EducationRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I34" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IEducationRecordInfoEditFormFactory&gt;(new EducationRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EducationRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3132,15 +3210,15 @@
         <v>EmploymentRecordInfoEditFormFactoryBasic</v>
       </c>
       <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>public class EmploymentRecordInfoEditFormFactoryBasic : IEmploymentRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;EmploymentRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="13"/>
-        <v>public class EmploymentRecordInfoEditFormFactoryBasic : IEmploymentRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;EmploymentRecordInfo &gt;(); } }</v>
-      </c>
-      <c r="H35" t="str">
+        <v>cont.RegisterInstance&lt;IEmploymentRecordInfoEditFormFactory&gt;(new EmploymentRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IEmploymentRecordInfoEditFormFactory&gt;(new EmploymentRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EmploymentRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3169,15 +3247,15 @@
         <v>FinancialGuaranteeInfoEditFormFactoryBasic</v>
       </c>
       <c r="G36" t="str">
+        <f t="shared" si="5"/>
+        <v>public class FinancialGuaranteeInfoEditFormFactoryBasic : IFinancialGuaranteeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;FinancialGuaranteeInfo &gt;(); } }</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="13"/>
-        <v>public class FinancialGuaranteeInfoEditFormFactoryBasic : IFinancialGuaranteeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;FinancialGuaranteeInfo &gt;(); } }</v>
-      </c>
-      <c r="H36" t="str">
+        <v>cont.RegisterInstance&lt;IFinancialGuaranteeInfoEditFormFactory&gt;(new FinancialGuaranteeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IFinancialGuaranteeInfoEditFormFactory&gt;(new FinancialGuaranteeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.FinancialGuaranteeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3206,15 +3284,15 @@
         <v>IncomeOriginInfoEditFormFactoryBasic</v>
       </c>
       <c r="G37" t="str">
+        <f t="shared" si="5"/>
+        <v>public class IncomeOriginInfoEditFormFactoryBasic : IIncomeOriginInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;IncomeOriginInfo &gt;(); } }</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="13"/>
-        <v>public class IncomeOriginInfoEditFormFactoryBasic : IIncomeOriginInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IncomeOriginInfo &gt;(); } }</v>
-      </c>
-      <c r="H37" t="str">
+        <v>cont.RegisterInstance&lt;IIncomeOriginInfoEditFormFactory&gt;(new IncomeOriginInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IIncomeOriginInfoEditFormFactory&gt;(new IncomeOriginInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IncomeOriginInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3243,15 +3321,15 @@
         <v>IndebtnessInfoEditFormFactoryBasic</v>
       </c>
       <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>public class IndebtnessInfoEditFormFactoryBasic : IIndebtnessInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;IndebtnessInfo &gt;(); } }</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="13"/>
-        <v>public class IndebtnessInfoEditFormFactoryBasic : IIndebtnessInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IndebtnessInfo &gt;(); } }</v>
-      </c>
-      <c r="H38" t="str">
+        <v>cont.RegisterInstance&lt;IIndebtnessInfoEditFormFactory&gt;(new IndebtnessInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IIndebtnessInfoEditFormFactory&gt;(new IndebtnessInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IndebtnessInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3280,15 +3358,15 @@
         <v>IndebtnessInfoBaseEditFormFactoryBasic</v>
       </c>
       <c r="G39" t="str">
+        <f t="shared" si="5"/>
+        <v>public class IndebtnessInfoBaseEditFormFactoryBasic : IIndebtnessInfoBaseEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;IndebtnessInfoBase &gt;(); } }</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="13"/>
-        <v>public class IndebtnessInfoBaseEditFormFactoryBasic : IIndebtnessInfoBaseEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IndebtnessInfoBase &gt;(); } }</v>
-      </c>
-      <c r="H39" t="str">
+        <v>cont.RegisterInstance&lt;IIndebtnessInfoBaseEditFormFactory&gt;(new IndebtnessInfoBaseEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IIndebtnessInfoBaseEditFormFactory&gt;(new IndebtnessInfoBaseEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IndebtnessInfoBase_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3317,15 +3395,15 @@
         <v>LiquidatedEntityOwnershipInfoEditFormFactoryBasic</v>
       </c>
       <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LiquidatedEntityOwnershipInfoEditFormFactoryBasic : ILiquidatedEntityOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LiquidatedEntityOwnershipInfo &gt;(); } }</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="13"/>
-        <v>public class LiquidatedEntityOwnershipInfoEditFormFactoryBasic : ILiquidatedEntityOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LiquidatedEntityOwnershipInfo &gt;(); } }</v>
-      </c>
-      <c r="H40" t="str">
+        <v>cont.RegisterInstance&lt;ILiquidatedEntityOwnershipInfoEditFormFactory&gt;(new LiquidatedEntityOwnershipInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;ILiquidatedEntityOwnershipInfoEditFormFactory&gt;(new LiquidatedEntityOwnershipInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LiquidatedEntityOwnershipInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3354,15 +3432,15 @@
         <v>LoanInfoEditFormFactoryBasic</v>
       </c>
       <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LoanInfoEditFormFactoryBasic : ILoanInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LoanInfo &gt;(); } }</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="13"/>
-        <v>public class LoanInfoEditFormFactoryBasic : ILoanInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LoanInfo &gt;(); } }</v>
-      </c>
-      <c r="H41" t="str">
+        <v>cont.RegisterInstance&lt;ILoanInfoEditFormFactory&gt;(new LoanInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;ILoanInfoEditFormFactory&gt;(new LoanInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LoanInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3391,15 +3469,15 @@
         <v>PaymentDeadlineInfoEditFormFactoryBasic</v>
       </c>
       <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PaymentDeadlineInfoEditFormFactoryBasic : IPaymentDeadlineInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PaymentDeadlineInfo &gt;(); } }</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="13"/>
-        <v>public class PaymentDeadlineInfoEditFormFactoryBasic : IPaymentDeadlineInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PaymentDeadlineInfo &gt;(); } }</v>
-      </c>
-      <c r="H42" t="str">
+        <v>cont.RegisterInstance&lt;IPaymentDeadlineInfoEditFormFactory&gt;(new PaymentDeadlineInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IPaymentDeadlineInfoEditFormFactory&gt;(new PaymentDeadlineInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PaymentDeadlineInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3428,15 +3506,15 @@
         <v>PaymentModeInfoEditFormFactoryBasic</v>
       </c>
       <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PaymentModeInfoEditFormFactoryBasic : IPaymentModeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PaymentModeInfo &gt;(); } }</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="13"/>
-        <v>public class PaymentModeInfoEditFormFactoryBasic : IPaymentModeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PaymentModeInfo &gt;(); } }</v>
-      </c>
-      <c r="H43" t="str">
+        <v>cont.RegisterInstance&lt;IPaymentModeInfoEditFormFactory&gt;(new PaymentModeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IPaymentModeInfoEditFormFactory&gt;(new PaymentModeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PaymentModeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3465,15 +3543,15 @@
         <v>ProfessionLicenseInfoEditFormFactoryBasic</v>
       </c>
       <c r="G44" t="str">
+        <f t="shared" si="5"/>
+        <v>public class ProfessionLicenseInfoEditFormFactoryBasic : IProfessionLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ProfessionLicenseInfo &gt;(); } }</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="13"/>
-        <v>public class ProfessionLicenseInfoEditFormFactoryBasic : IProfessionLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ProfessionLicenseInfo &gt;(); } }</v>
-      </c>
-      <c r="H44" t="str">
+        <v>cont.RegisterInstance&lt;IProfessionLicenseInfoEditFormFactory&gt;(new ProfessionLicenseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IProfessionLicenseInfoEditFormFactory&gt;(new ProfessionLicenseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ProfessionLicenseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3502,15 +3580,15 @@
         <v>SharesAcquisitionInfoEditFormFactoryBasic</v>
       </c>
       <c r="G45" t="str">
+        <f t="shared" si="5"/>
+        <v>public class SharesAcquisitionInfoEditFormFactoryBasic : ISharesAcquisitionInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;SharesAcquisitionInfo &gt;(); } }</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="13"/>
-        <v>public class SharesAcquisitionInfoEditFormFactoryBasic : ISharesAcquisitionInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;SharesAcquisitionInfo &gt;(); } }</v>
-      </c>
-      <c r="H45" t="str">
+        <v>cont.RegisterInstance&lt;ISharesAcquisitionInfoEditFormFactory&gt;(new SharesAcquisitionInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I45" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;ISharesAcquisitionInfoEditFormFactory&gt;(new SharesAcquisitionInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SharesAcquisitionInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3539,15 +3617,15 @@
         <v>BankAccountInfoEditFormFactoryBasic</v>
       </c>
       <c r="G46" t="str">
+        <f t="shared" si="5"/>
+        <v>public class BankAccountInfoEditFormFactoryBasic : IBankAccountInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankAccountInfo &gt;(); } }</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="13"/>
-        <v>public class BankAccountInfoEditFormFactoryBasic : IBankAccountInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankAccountInfo &gt;(); } }</v>
-      </c>
-      <c r="H46" t="str">
+        <v>cont.RegisterInstance&lt;IBankAccountInfoEditFormFactory&gt;(new BankAccountInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IBankAccountInfoEditFormFactory&gt;(new BankAccountInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankAccountInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3576,15 +3654,15 @@
         <v>ProfessionLicensingBodyInfoEditFormFactoryBasic</v>
       </c>
       <c r="G47" t="str">
+        <f t="shared" si="5"/>
+        <v>public class ProfessionLicensingBodyInfoEditFormFactoryBasic : IProfessionLicensingBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ProfessionLicensingBodyInfo &gt;(); } }</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="13"/>
-        <v>public class ProfessionLicensingBodyInfoEditFormFactoryBasic : IProfessionLicensingBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ProfessionLicensingBodyInfo &gt;(); } }</v>
-      </c>
-      <c r="H47" t="str">
+        <v>cont.RegisterInstance&lt;IProfessionLicensingBodyInfoEditFormFactory&gt;(new ProfessionLicensingBodyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IProfessionLicensingBodyInfoEditFormFactory&gt;(new ProfessionLicensingBodyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ProfessionLicensingBodyInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3613,15 +3691,15 @@
         <v>PublicationInfoEditFormFactoryBasic</v>
       </c>
       <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PublicationInfoEditFormFactoryBasic : IPublicationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PublicationInfo &gt;(); } }</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="13"/>
-        <v>public class PublicationInfoEditFormFactoryBasic : IPublicationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PublicationInfo &gt;(); } }</v>
-      </c>
-      <c r="H48" t="str">
+        <v>cont.RegisterInstance&lt;IPublicationInfoEditFormFactory&gt;(new PublicationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IPublicationInfoEditFormFactory&gt;(new PublicationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PublicationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3650,15 +3728,15 @@
         <v>PublishingHouseInfoEditFormFactoryBasic</v>
       </c>
       <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PublishingHouseInfoEditFormFactoryBasic : IPublishingHouseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PublishingHouseInfo &gt;(); } }</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="13"/>
-        <v>public class PublishingHouseInfoEditFormFactoryBasic : IPublishingHouseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PublishingHouseInfo &gt;(); } }</v>
-      </c>
-      <c r="H49" t="str">
+        <v>cont.RegisterInstance&lt;IPublishingHouseInfoEditFormFactory&gt;(new PublishingHouseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IPublishingHouseInfoEditFormFactory&gt;(new PublishingHouseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PublishingHouseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3687,15 +3765,15 @@
         <v>UniversityOrCollegeInfoEditFormFactoryBasic</v>
       </c>
       <c r="G50" t="str">
+        <f t="shared" si="5"/>
+        <v>public class UniversityOrCollegeInfoEditFormFactoryBasic : IUniversityOrCollegeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;UniversityOrCollegeInfo &gt;(); } }</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="13"/>
-        <v>public class UniversityOrCollegeInfoEditFormFactoryBasic : IUniversityOrCollegeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;UniversityOrCollegeInfo &gt;(); } }</v>
-      </c>
-      <c r="H50" t="str">
+        <v>cont.RegisterInstance&lt;IUniversityOrCollegeInfoEditFormFactory&gt;(new UniversityOrCollegeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="14"/>
-        <v>cont.RegisterInstance&lt;IUniversityOrCollegeInfoEditFormFactory&gt;(new UniversityOrCollegeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="15"/>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.UniversityOrCollegeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
@@ -3724,8 +3802,8 @@
         <v>FinancialOversightAuthorityInfoEditFormFactoryBasic</v>
       </c>
       <c r="G51" t="str">
-        <f>"public class " &amp;F51&amp; " : " &amp; B51 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A51&amp; " &gt;(); } }"</f>
-        <v>public class FinancialOversightAuthorityInfoEditFormFactoryBasic : IFinancialOversightAuthorityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;FinancialOversightAuthorityInfo &gt;(); } }</v>
+        <f t="shared" si="5"/>
+        <v>public class FinancialOversightAuthorityInfoEditFormFactoryBasic : IFinancialOversightAuthorityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;FinancialOversightAuthorityInfo &gt;(); } }</v>
       </c>
       <c r="H51" t="str">
         <f>"cont.RegisterInstance&lt;" &amp; B51 &amp; "&gt;(new " &amp; F51 &amp; "(), new ContainerControlledLifetimeManager());"</f>
@@ -3734,6 +3812,1523 @@
       <c r="I51" t="str">
         <f>"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D51 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.FinancialOversightAuthorityInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" ref="B52:B92" si="15">"I"&amp; TRIM(A52) &amp; "EditFormFactory"</f>
+        <v>ICourtInfoEditFormFactory</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:C92" si="16">"public interface I"&amp; TRIM(A52) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
+        <v>public interface ICourtInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ref="D52:D92" si="17">A52&amp; "_Editor"</f>
+        <v>CourtInfo_Editor</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ref="E52:E92" si="18">"public class " &amp; D52 &amp; " : GenericTypeEditor&lt;"&amp;A52&amp;"&gt; { private " &amp; B52 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B52 &amp; "&gt;(); return _fact; } }  }"</f>
+        <v>public class CourtInfo_Editor : GenericTypeEditor&lt;CourtInfo&gt; { private ICourtInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICourtInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ref="F52:F92" si="19">A52&amp; "EditFormFactoryBasic"</f>
+        <v>CourtInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CourtInfoEditFormFactoryBasic : ICourtInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CourtInfo &gt;(); } }</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" ref="H52:H92" si="20">"cont.RegisterInstance&lt;" &amp; B52 &amp; "&gt;(new " &amp; F52 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <v>cont.RegisterInstance&lt;ICourtInfoEditFormFactory&gt;(new CourtInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" ref="I52:I92" si="21">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D52 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CourtInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="15"/>
+        <v>ILPRegisteredDateRecordIdEditFormFactory</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILPRegisteredDateRecordIdEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="17"/>
+        <v>LPRegisteredDateRecordId_Editor</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LPRegisteredDateRecordId_Editor : GenericTypeEditor&lt;LPRegisteredDateRecordId&gt; { private ILPRegisteredDateRecordIdEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILPRegisteredDateRecordIdEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="19"/>
+        <v>LPRegisteredDateRecordIdEditFormFactoryBasic</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LPRegisteredDateRecordIdEditFormFactoryBasic : ILPRegisteredDateRecordIdEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LPRegisteredDateRecordId &gt;(); } }</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILPRegisteredDateRecordIdEditFormFactory&gt;(new LPRegisteredDateRecordIdEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LPRegisteredDateRecordId_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="15"/>
+        <v>IEmailInfoEditFormFactory</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IEmailInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="17"/>
+        <v>EmailInfo_Editor</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="18"/>
+        <v>public class EmailInfo_Editor : GenericTypeEditor&lt;EmailInfo&gt; { private IEmailInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IEmailInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="19"/>
+        <v>EmailInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="5"/>
+        <v>public class EmailInfoEditFormFactoryBasic : IEmailInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;EmailInfo &gt;(); } }</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IEmailInfoEditFormFactory&gt;(new EmailInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EmailInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="15"/>
+        <v>IIndebtnessInfoBaseEditFormFactory</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IIndebtnessInfoBaseEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="17"/>
+        <v>IndebtnessInfoBase_Editor</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="18"/>
+        <v>public class IndebtnessInfoBase_Editor : GenericTypeEditor&lt;IndebtnessInfoBase&gt; { private IIndebtnessInfoBaseEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IIndebtnessInfoBaseEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="19"/>
+        <v>IndebtnessInfoBaseEditFormFactoryBasic</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="5"/>
+        <v>public class IndebtnessInfoBaseEditFormFactoryBasic : IIndebtnessInfoBaseEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;IndebtnessInfoBase &gt;(); } }</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IIndebtnessInfoBaseEditFormFactory&gt;(new IndebtnessInfoBaseEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IndebtnessInfoBase_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="15"/>
+        <v>ICreditRatingInfoEditFormFactory</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICreditRatingInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="17"/>
+        <v>CreditRatingInfo_Editor</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CreditRatingInfo_Editor : GenericTypeEditor&lt;CreditRatingInfo&gt; { private ICreditRatingInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICreditRatingInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="19"/>
+        <v>CreditRatingInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CreditRatingInfoEditFormFactoryBasic : ICreditRatingInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CreditRatingInfo &gt;(); } }</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICreditRatingInfoEditFormFactory&gt;(new CreditRatingInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CreditRatingInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="15"/>
+        <v>IRegLicAppx12HeadCandidateApplEditFormFactory</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRegLicAppx12HeadCandidateApplEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="17"/>
+        <v>RegLicAppx12HeadCandidateAppl_Editor</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RegLicAppx12HeadCandidateAppl_Editor : GenericTypeEditor&lt;RegLicAppx12HeadCandidateAppl&gt; { private IRegLicAppx12HeadCandidateApplEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx12HeadCandidateApplEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="19"/>
+        <v>RegLicAppx12HeadCandidateApplEditFormFactoryBasic</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegLicAppx12HeadCandidateApplEditFormFactoryBasic : IRegLicAppx12HeadCandidateApplEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx12HeadCandidateAppl &gt;(); } }</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx12HeadCandidateApplEditFormFactory&gt;(new RegLicAppx12HeadCandidateApplEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx12HeadCandidateAppl_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="15"/>
+        <v>IBankruptcyInvestigationInfoEditFormFactory</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IBankruptcyInvestigationInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="17"/>
+        <v>BankruptcyInvestigationInfo_Editor</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="18"/>
+        <v>public class BankruptcyInvestigationInfo_Editor : GenericTypeEditor&lt;BankruptcyInvestigationInfo&gt; { private IBankruptcyInvestigationInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankruptcyInvestigationInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="19"/>
+        <v>BankruptcyInvestigationInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="5"/>
+        <v>public class BankruptcyInvestigationInfoEditFormFactoryBasic : IBankruptcyInvestigationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankruptcyInvestigationInfo &gt;(); } }</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IBankruptcyInvestigationInfoEditFormFactory&gt;(new BankruptcyInvestigationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankruptcyInvestigationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="15"/>
+        <v>ILiquidatedOrInsolventEntityInfoBaseEditFormFactory</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILiquidatedOrInsolventEntityInfoBaseEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="17"/>
+        <v>LiquidatedOrInsolventEntityInfoBase_Editor</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LiquidatedOrInsolventEntityInfoBase_Editor : GenericTypeEditor&lt;LiquidatedOrInsolventEntityInfoBase&gt; { private ILiquidatedOrInsolventEntityInfoBaseEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILiquidatedOrInsolventEntityInfoBaseEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="19"/>
+        <v>LiquidatedOrInsolventEntityInfoBaseEditFormFactoryBasic</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LiquidatedOrInsolventEntityInfoBaseEditFormFactoryBasic : ILiquidatedOrInsolventEntityInfoBaseEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LiquidatedOrInsolventEntityInfoBase &gt;(); } }</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILiquidatedOrInsolventEntityInfoBaseEditFormFactory&gt;(new LiquidatedOrInsolventEntityInfoBaseEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LiquidatedOrInsolventEntityInfoBase_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="15"/>
+        <v>IRegLicAppx9BankingLicenseApplEditFormFactory</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRegLicAppx9BankingLicenseApplEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="17"/>
+        <v>RegLicAppx9BankingLicenseAppl_Editor</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RegLicAppx9BankingLicenseAppl_Editor : GenericTypeEditor&lt;RegLicAppx9BankingLicenseAppl&gt; { private IRegLicAppx9BankingLicenseApplEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx9BankingLicenseApplEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="19"/>
+        <v>RegLicAppx9BankingLicenseApplEditFormFactoryBasic</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegLicAppx9BankingLicenseApplEditFormFactoryBasic : IRegLicAppx9BankingLicenseApplEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx9BankingLicenseAppl &gt;(); } }</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx9BankingLicenseApplEditFormFactory&gt;(new RegLicAppx9BankingLicenseApplEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx9BankingLicenseAppl_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="15"/>
+        <v>IManagementPositionEditFormFactory</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IManagementPositionEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="17"/>
+        <v>ManagementPosition_Editor</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="18"/>
+        <v>public class ManagementPosition_Editor : GenericTypeEditor&lt;ManagementPosition&gt; { private IManagementPositionEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IManagementPositionEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="19"/>
+        <v>ManagementPositionEditFormFactoryBasic</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="5"/>
+        <v>public class ManagementPositionEditFormFactoryBasic : IManagementPositionEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ManagementPosition &gt;(); } }</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IManagementPositionEditFormFactory&gt;(new ManagementPositionEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ManagementPosition_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="15"/>
+        <v>IInsolvencyStatusEditFormFactory</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IInsolvencyStatusEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="17"/>
+        <v>InsolvencyStatus_Editor</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="18"/>
+        <v>public class InsolvencyStatus_Editor : GenericTypeEditor&lt;InsolvencyStatus&gt; { private IInsolvencyStatusEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IInsolvencyStatusEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="19"/>
+        <v>InsolvencyStatusEditFormFactoryBasic</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="5"/>
+        <v>public class InsolvencyStatusEditFormFactoryBasic : IInsolvencyStatusEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;InsolvencyStatus &gt;(); } }</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IInsolvencyStatusEditFormFactory&gt;(new InsolvencyStatusEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.InsolvencyStatus_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="15"/>
+        <v>IWellKnownCreditRatingAgencyTypeEditFormFactory</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IWellKnownCreditRatingAgencyTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="17"/>
+        <v>WellKnownCreditRatingAgencyType_Editor</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="18"/>
+        <v>public class WellKnownCreditRatingAgencyType_Editor : GenericTypeEditor&lt;WellKnownCreditRatingAgencyType&gt; { private IWellKnownCreditRatingAgencyTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IWellKnownCreditRatingAgencyTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="19"/>
+        <v>WellKnownCreditRatingAgencyTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="5"/>
+        <v>public class WellKnownCreditRatingAgencyTypeEditFormFactoryBasic : IWellKnownCreditRatingAgencyTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;WellKnownCreditRatingAgencyType &gt;(); } }</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IWellKnownCreditRatingAgencyTypeEditFormFactory&gt;(new WellKnownCreditRatingAgencyTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.WellKnownCreditRatingAgencyType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="15"/>
+        <v>ILongTermCreditRatingTypeEditFormFactory</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILongTermCreditRatingTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="17"/>
+        <v>LongTermCreditRatingType_Editor</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LongTermCreditRatingType_Editor : GenericTypeEditor&lt;LongTermCreditRatingType&gt; { private ILongTermCreditRatingTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILongTermCreditRatingTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="19"/>
+        <v>LongTermCreditRatingTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LongTermCreditRatingTypeEditFormFactoryBasic : ILongTermCreditRatingTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LongTermCreditRatingType &gt;(); } }</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILongTermCreditRatingTypeEditFormFactory&gt;(new LongTermCreditRatingTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LongTermCreditRatingType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="15"/>
+        <v>IShortTermCreditRatingTypeEditFormFactory</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IShortTermCreditRatingTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="17"/>
+        <v>ShortTermCreditRatingType_Editor</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="18"/>
+        <v>public class ShortTermCreditRatingType_Editor : GenericTypeEditor&lt;ShortTermCreditRatingType&gt; { private IShortTermCreditRatingTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IShortTermCreditRatingTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="19"/>
+        <v>ShortTermCreditRatingTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="5"/>
+        <v>public class ShortTermCreditRatingTypeEditFormFactoryBasic : IShortTermCreditRatingTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ShortTermCreditRatingType &gt;(); } }</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IShortTermCreditRatingTypeEditFormFactory&gt;(new ShortTermCreditRatingTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ShortTermCreditRatingType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="15"/>
+        <v>IBankruptcyCaseResolutionTypeEditFormFactory</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IBankruptcyCaseResolutionTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="17"/>
+        <v>BankruptcyCaseResolutionType_Editor</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="18"/>
+        <v>public class BankruptcyCaseResolutionType_Editor : GenericTypeEditor&lt;BankruptcyCaseResolutionType&gt; { private IBankruptcyCaseResolutionTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankruptcyCaseResolutionTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="19"/>
+        <v>BankruptcyCaseResolutionTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G92" si="22">"public class " &amp;F66&amp; " : " &amp; B66 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;" &amp;A66&amp; " &gt;(); } }"</f>
+        <v>public class BankruptcyCaseResolutionTypeEditFormFactoryBasic : IBankruptcyCaseResolutionTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankruptcyCaseResolutionType &gt;(); } }</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IBankruptcyCaseResolutionTypeEditFormFactory&gt;(new BankruptcyCaseResolutionTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankruptcyCaseResolutionType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="15"/>
+        <v>ICourtInstanceTypeEditFormFactory</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICourtInstanceTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="17"/>
+        <v>CourtInstanceType_Editor</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CourtInstanceType_Editor : GenericTypeEditor&lt;CourtInstanceType&gt; { private ICourtInstanceTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICourtInstanceTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="19"/>
+        <v>CourtInstanceTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="22"/>
+        <v>public class CourtInstanceTypeEditFormFactoryBasic : ICourtInstanceTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CourtInstanceType &gt;(); } }</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICourtInstanceTypeEditFormFactory&gt;(new CourtInstanceTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CourtInstanceType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="15"/>
+        <v>ICourtDecisionTypeEditFormFactory</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICourtDecisionTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="17"/>
+        <v>CourtDecisionType_Editor</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CourtDecisionType_Editor : GenericTypeEditor&lt;CourtDecisionType&gt; { private ICourtDecisionTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICourtDecisionTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="19"/>
+        <v>CourtDecisionTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="22"/>
+        <v>public class CourtDecisionTypeEditFormFactoryBasic : ICourtDecisionTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CourtDecisionType &gt;(); } }</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICourtDecisionTypeEditFormFactory&gt;(new CourtDecisionTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CourtDecisionType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="15"/>
+        <v>IBankAssociatedPeronsCode315pEditFormFactory</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IBankAssociatedPeronsCode315pEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="17"/>
+        <v>BankAssociatedPeronsCode315p_Editor</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="18"/>
+        <v>public class BankAssociatedPeronsCode315p_Editor : GenericTypeEditor&lt;BankAssociatedPeronsCode315p&gt; { private IBankAssociatedPeronsCode315pEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankAssociatedPeronsCode315pEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="19"/>
+        <v>BankAssociatedPeronsCode315pEditFormFactoryBasic</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="22"/>
+        <v>public class BankAssociatedPeronsCode315pEditFormFactoryBasic : IBankAssociatedPeronsCode315pEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;BankAssociatedPeronsCode315p &gt;(); } }</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IBankAssociatedPeronsCode315pEditFormFactory&gt;(new BankAssociatedPeronsCode315pEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankAssociatedPeronsCode315p_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="15"/>
+        <v>ILegalTransactionTypeEditFormFactory</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILegalTransactionTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="17"/>
+        <v>LegalTransactionType_Editor</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LegalTransactionType_Editor : GenericTypeEditor&lt;LegalTransactionType&gt; { private ILegalTransactionTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILegalTransactionTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="19"/>
+        <v>LegalTransactionTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="22"/>
+        <v>public class LegalTransactionTypeEditFormFactoryBasic : ILegalTransactionTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LegalTransactionType &gt;(); } }</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILegalTransactionTypeEditFormFactory&gt;(new LegalTransactionTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LegalTransactionType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="15"/>
+        <v>IInfluenceTypeEditFormFactory</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IInfluenceTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="17"/>
+        <v>InfluenceType_Editor</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="18"/>
+        <v>public class InfluenceType_Editor : GenericTypeEditor&lt;InfluenceType&gt; { private IInfluenceTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IInfluenceTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="19"/>
+        <v>InfluenceTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="22"/>
+        <v>public class InfluenceTypeEditFormFactoryBasic : IInfluenceTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;InfluenceType &gt;(); } }</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IInfluenceTypeEditFormFactory&gt;(new InfluenceTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.InfluenceType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="15"/>
+        <v>ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="17"/>
+        <v>LiquidatedOrInsolventEntityMgmtRecordInfo_Editor</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LiquidatedOrInsolventEntityMgmtRecordInfo_Editor : GenericTypeEditor&lt;LiquidatedOrInsolventEntityMgmtRecordInfo&gt; { private ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="19"/>
+        <v>LiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="22"/>
+        <v>public class LiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactoryBasic : ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LiquidatedOrInsolventEntityMgmtRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactory&gt;(new LiquidatedOrInsolventEntityMgmtRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LiquidatedOrInsolventEntityMgmtRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="15"/>
+        <v>ICharterCapitalTableRecordEditFormFactory</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICharterCapitalTableRecordEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="17"/>
+        <v>CharterCapitalTableRecord_Editor</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CharterCapitalTableRecord_Editor : GenericTypeEditor&lt;CharterCapitalTableRecord&gt; { private ICharterCapitalTableRecordEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICharterCapitalTableRecordEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="19"/>
+        <v>CharterCapitalTableRecordEditFormFactoryBasic</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="22"/>
+        <v>public class CharterCapitalTableRecordEditFormFactoryBasic : ICharterCapitalTableRecordEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CharterCapitalTableRecord &gt;(); } }</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICharterCapitalTableRecordEditFormFactory&gt;(new CharterCapitalTableRecordEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CharterCapitalTableRecord_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="15"/>
+        <v>IRegLicAppx6EquityFormationTableEditFormFactory</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRegLicAppx6EquityFormationTableEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="17"/>
+        <v>RegLicAppx6EquityFormationTable_Editor</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RegLicAppx6EquityFormationTable_Editor : GenericTypeEditor&lt;RegLicAppx6EquityFormationTable&gt; { private IRegLicAppx6EquityFormationTableEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx6EquityFormationTableEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="19"/>
+        <v>RegLicAppx6EquityFormationTableEditFormFactoryBasic</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="22"/>
+        <v>public class RegLicAppx6EquityFormationTableEditFormFactoryBasic : IRegLicAppx6EquityFormationTableEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx6EquityFormationTable &gt;(); } }</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx6EquityFormationTableEditFormFactory&gt;(new RegLicAppx6EquityFormationTableEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx6EquityFormationTable_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="15"/>
+        <v>IEnumsListerEditFormFactory</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IEnumsListerEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="17"/>
+        <v>EnumsLister_Editor</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="18"/>
+        <v>public class EnumsLister_Editor : GenericTypeEditor&lt;EnumsLister&gt; { private IEnumsListerEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IEnumsListerEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="19"/>
+        <v>EnumsListerEditFormFactoryBasic</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="22"/>
+        <v>public class EnumsListerEditFormFactoryBasic : IEnumsListerEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;EnumsLister &gt;(); } }</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IEnumsListerEditFormFactory&gt;(new EnumsListerEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EnumsLister_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="15"/>
+        <v>IRatingAgencyInfoEditFormFactory</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRatingAgencyInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="17"/>
+        <v>RatingAgencyInfo_Editor</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RatingAgencyInfo_Editor : GenericTypeEditor&lt;RatingAgencyInfo&gt; { private IRatingAgencyInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRatingAgencyInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="19"/>
+        <v>RatingAgencyInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="22"/>
+        <v>public class RatingAgencyInfoEditFormFactoryBasic : IRatingAgencyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RatingAgencyInfo &gt;(); } }</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRatingAgencyInfoEditFormFactory&gt;(new RatingAgencyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RatingAgencyInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="15"/>
+        <v>IEconomicActivityTypeEditFormFactory</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IEconomicActivityTypeEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="17"/>
+        <v>EconomicActivityType_Editor</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="18"/>
+        <v>public class EconomicActivityType_Editor : GenericTypeEditor&lt;EconomicActivityType&gt; { private IEconomicActivityTypeEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IEconomicActivityTypeEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="19"/>
+        <v>EconomicActivityTypeEditFormFactoryBasic</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="22"/>
+        <v>public class EconomicActivityTypeEditFormFactoryBasic : IEconomicActivityTypeEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;EconomicActivityType &gt;(); } }</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IEconomicActivityTypeEditFormFactory&gt;(new EconomicActivityTypeEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EconomicActivityType_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="15"/>
+        <v>ICharterCapitalTableTotalsRecordEditFormFactory</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICharterCapitalTableTotalsRecordEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="17"/>
+        <v>CharterCapitalTableTotalsRecord_Editor</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CharterCapitalTableTotalsRecord_Editor : GenericTypeEditor&lt;CharterCapitalTableTotalsRecord&gt; { private ICharterCapitalTableTotalsRecordEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICharterCapitalTableTotalsRecordEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="19"/>
+        <v>CharterCapitalTableTotalsRecordEditFormFactoryBasic</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="22"/>
+        <v>public class CharterCapitalTableTotalsRecordEditFormFactoryBasic : ICharterCapitalTableTotalsRecordEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CharterCapitalTableTotalsRecord &gt;(); } }</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICharterCapitalTableTotalsRecordEditFormFactory&gt;(new CharterCapitalTableTotalsRecordEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CharterCapitalTableTotalsRecord_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="15"/>
+        <v>ICourtDecisionInfoEditFormFactory</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ICourtDecisionInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="17"/>
+        <v>CourtDecisionInfo_Editor</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="18"/>
+        <v>public class CourtDecisionInfo_Editor : GenericTypeEditor&lt;CourtDecisionInfo&gt; { private ICourtDecisionInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICourtDecisionInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="19"/>
+        <v>CourtDecisionInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="22"/>
+        <v>public class CourtDecisionInfoEditFormFactoryBasic : ICourtDecisionInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;CourtDecisionInfo &gt;(); } }</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ICourtDecisionInfoEditFormFactory&gt;(new CourtDecisionInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CourtDecisionInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="15"/>
+        <v>ILicenseQualificationInfoEditFormFactory</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILicenseQualificationInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="17"/>
+        <v>LicenseQualificationInfo_Editor</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LicenseQualificationInfo_Editor : GenericTypeEditor&lt;LicenseQualificationInfo&gt; { private ILicenseQualificationInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILicenseQualificationInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="19"/>
+        <v>LicenseQualificationInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="22"/>
+        <v>public class LicenseQualificationInfoEditFormFactoryBasic : ILicenseQualificationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LicenseQualificationInfo &gt;(); } }</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILicenseQualificationInfoEditFormFactory&gt;(new LicenseQualificationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LicenseQualificationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="15"/>
+        <v>IIPOSharesPurchaseInfoEditFormFactory</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IIPOSharesPurchaseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="17"/>
+        <v>IPOSharesPurchaseInfo_Editor</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="18"/>
+        <v>public class IPOSharesPurchaseInfo_Editor : GenericTypeEditor&lt;IPOSharesPurchaseInfo&gt; { private IIPOSharesPurchaseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IIPOSharesPurchaseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="19"/>
+        <v>IPOSharesPurchaseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="22"/>
+        <v>public class IPOSharesPurchaseInfoEditFormFactoryBasic : IIPOSharesPurchaseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;IPOSharesPurchaseInfo &gt;(); } }</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IIPOSharesPurchaseInfoEditFormFactory&gt;(new IPOSharesPurchaseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IPOSharesPurchaseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="15"/>
+        <v>ISecondaryMarketSharesPurchaseInfoEditFormFactory</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ISecondaryMarketSharesPurchaseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="17"/>
+        <v>SecondaryMarketSharesPurchaseInfo_Editor</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="18"/>
+        <v>public class SecondaryMarketSharesPurchaseInfo_Editor : GenericTypeEditor&lt;SecondaryMarketSharesPurchaseInfo&gt; { private ISecondaryMarketSharesPurchaseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ISecondaryMarketSharesPurchaseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="19"/>
+        <v>SecondaryMarketSharesPurchaseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="22"/>
+        <v>public class SecondaryMarketSharesPurchaseInfoEditFormFactoryBasic : ISecondaryMarketSharesPurchaseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;SecondaryMarketSharesPurchaseInfo &gt;(); } }</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ISecondaryMarketSharesPurchaseInfoEditFormFactory&gt;(new SecondaryMarketSharesPurchaseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SecondaryMarketSharesPurchaseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="15"/>
+        <v>IRegLicAppx17EquityChangeTableEditFormFactory</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRegLicAppx17EquityChangeTableEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="17"/>
+        <v>RegLicAppx17EquityChangeTable_Editor</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RegLicAppx17EquityChangeTable_Editor : GenericTypeEditor&lt;RegLicAppx17EquityChangeTable&gt; { private IRegLicAppx17EquityChangeTableEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx17EquityChangeTableEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="19"/>
+        <v>RegLicAppx17EquityChangeTableEditFormFactoryBasic</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="22"/>
+        <v>public class RegLicAppx17EquityChangeTableEditFormFactoryBasic : IRegLicAppx17EquityChangeTableEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx17EquityChangeTable &gt;(); } }</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx17EquityChangeTableEditFormFactory&gt;(new RegLicAppx17EquityChangeTableEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx17EquityChangeTable_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="15"/>
+        <v>IAppx3OwnershipStructPPEditFormFactory</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IAppx3OwnershipStructPPEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="17"/>
+        <v>Appx3OwnershipStructPP_Editor</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="18"/>
+        <v>public class Appx3OwnershipStructPP_Editor : GenericTypeEditor&lt;Appx3OwnershipStructPP&gt; { private IAppx3OwnershipStructPPEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IAppx3OwnershipStructPPEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="19"/>
+        <v>Appx3OwnershipStructPPEditFormFactoryBasic</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="22"/>
+        <v>public class Appx3OwnershipStructPPEditFormFactoryBasic : IAppx3OwnershipStructPPEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;Appx3OwnershipStructPP &gt;(); } }</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IAppx3OwnershipStructPPEditFormFactory&gt;(new Appx3OwnershipStructPPEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.Appx3OwnershipStructPP_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="15"/>
+        <v>IRegLicAppx3MemberCandidateApplEditFormFactory</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IRegLicAppx3MemberCandidateApplEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="17"/>
+        <v>RegLicAppx3MemberCandidateAppl_Editor</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="18"/>
+        <v>public class RegLicAppx3MemberCandidateAppl_Editor : GenericTypeEditor&lt;RegLicAppx3MemberCandidateAppl&gt; { private IRegLicAppx3MemberCandidateApplEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx3MemberCandidateApplEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="19"/>
+        <v>RegLicAppx3MemberCandidateApplEditFormFactoryBasic</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="22"/>
+        <v>public class RegLicAppx3MemberCandidateApplEditFormFactoryBasic : IRegLicAppx3MemberCandidateApplEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;RegLicAppx3MemberCandidateAppl &gt;(); } }</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx3MemberCandidateApplEditFormFactory&gt;(new RegLicAppx3MemberCandidateApplEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx3MemberCandidateAppl_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="15"/>
+        <v>ILegalTransactionInfoEditFormFactory</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ILegalTransactionInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="17"/>
+        <v>LegalTransactionInfo_Editor</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="18"/>
+        <v>public class LegalTransactionInfo_Editor : GenericTypeEditor&lt;LegalTransactionInfo&gt; { private ILegalTransactionInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILegalTransactionInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="19"/>
+        <v>LegalTransactionInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="22"/>
+        <v>public class LegalTransactionInfoEditFormFactoryBasic : ILegalTransactionInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;LegalTransactionInfo &gt;(); } }</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ILegalTransactionInfoEditFormFactory&gt;(new LegalTransactionInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LegalTransactionInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="15"/>
+        <v>IPowerOfAttorneySharesPurchaseInfoEditFormFactory</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IPowerOfAttorneySharesPurchaseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="17"/>
+        <v>PowerOfAttorneySharesPurchaseInfo_Editor</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="18"/>
+        <v>public class PowerOfAttorneySharesPurchaseInfo_Editor : GenericTypeEditor&lt;PowerOfAttorneySharesPurchaseInfo&gt; { private IPowerOfAttorneySharesPurchaseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPowerOfAttorneySharesPurchaseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="19"/>
+        <v>PowerOfAttorneySharesPurchaseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="22"/>
+        <v>public class PowerOfAttorneySharesPurchaseInfoEditFormFactoryBasic : IPowerOfAttorneySharesPurchaseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PowerOfAttorneySharesPurchaseInfo &gt;(); } }</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IPowerOfAttorneySharesPurchaseInfoEditFormFactory&gt;(new PowerOfAttorneySharesPurchaseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PowerOfAttorneySharesPurchaseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="15"/>
+        <v>ISignificantOrDecisiveInfulenceInfoEditFormFactory</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ISignificantOrDecisiveInfulenceInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="17"/>
+        <v>SignificantOrDecisiveInfulenceInfo_Editor</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="18"/>
+        <v>public class SignificantOrDecisiveInfulenceInfo_Editor : GenericTypeEditor&lt;SignificantOrDecisiveInfulenceInfo&gt; { private ISignificantOrDecisiveInfulenceInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ISignificantOrDecisiveInfulenceInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="19"/>
+        <v>SignificantOrDecisiveInfulenceInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="22"/>
+        <v>public class SignificantOrDecisiveInfulenceInfoEditFormFactoryBasic : ISignificantOrDecisiveInfulenceInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;SignificantOrDecisiveInfulenceInfo &gt;(); } }</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ISignificantOrDecisiveInfulenceInfoEditFormFactory&gt;(new SignificantOrDecisiveInfulenceInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SignificantOrDecisiveInfulenceInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="15"/>
+        <v>ISignificantOwnershipAcquisitionWaysInfoEditFormFactory</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ISignificantOwnershipAcquisitionWaysInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="17"/>
+        <v>SignificantOwnershipAcquisitionWaysInfo_Editor</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="18"/>
+        <v>public class SignificantOwnershipAcquisitionWaysInfo_Editor : GenericTypeEditor&lt;SignificantOwnershipAcquisitionWaysInfo&gt; { private ISignificantOwnershipAcquisitionWaysInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ISignificantOwnershipAcquisitionWaysInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="19"/>
+        <v>SignificantOwnershipAcquisitionWaysInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="22"/>
+        <v>public class SignificantOwnershipAcquisitionWaysInfoEditFormFactoryBasic : ISignificantOwnershipAcquisitionWaysInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;SignificantOwnershipAcquisitionWaysInfo &gt;(); } }</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ISignificantOwnershipAcquisitionWaysInfoEditFormFactory&gt;(new SignificantOwnershipAcquisitionWaysInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SignificantOwnershipAcquisitionWaysInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="15"/>
+        <v>ITotalOwnershipSummaryInfoEditFormFactory</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface ITotalOwnershipSummaryInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="17"/>
+        <v>TotalOwnershipSummaryInfo_Editor</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="18"/>
+        <v>public class TotalOwnershipSummaryInfo_Editor : GenericTypeEditor&lt;TotalOwnershipSummaryInfo&gt; { private ITotalOwnershipSummaryInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ITotalOwnershipSummaryInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="19"/>
+        <v>TotalOwnershipSummaryInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="22"/>
+        <v>public class TotalOwnershipSummaryInfoEditFormFactoryBasic : ITotalOwnershipSummaryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;TotalOwnershipSummaryInfo &gt;(); } }</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;ITotalOwnershipSummaryInfoEditFormFactory&gt;(new TotalOwnershipSummaryInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.TotalOwnershipSummaryInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="15"/>
+        <v>IImperfectBusinessReputationInfoEditFormFactory</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IImperfectBusinessReputationInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="17"/>
+        <v>ImperfectBusinessReputationInfo_Editor</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="18"/>
+        <v>public class ImperfectBusinessReputationInfo_Editor : GenericTypeEditor&lt;ImperfectBusinessReputationInfo&gt; { private IImperfectBusinessReputationInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IImperfectBusinessReputationInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="19"/>
+        <v>ImperfectBusinessReputationInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="22"/>
+        <v>public class ImperfectBusinessReputationInfoEditFormFactoryBasic : IImperfectBusinessReputationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;ImperfectBusinessReputationInfo &gt;(); } }</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IImperfectBusinessReputationInfoEditFormFactory&gt;(new ImperfectBusinessReputationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ImperfectBusinessReputationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="15"/>
+        <v>IPowerOfAttorneyInfoEditFormFactory</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="16"/>
+        <v>public interface IPowerOfAttorneyInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="17"/>
+        <v>PowerOfAttorneyInfo_Editor</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="18"/>
+        <v>public class PowerOfAttorneyInfo_Editor : GenericTypeEditor&lt;PowerOfAttorneyInfo&gt; { private IPowerOfAttorneyInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPowerOfAttorneyInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="19"/>
+        <v>PowerOfAttorneyInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="22"/>
+        <v>public class PowerOfAttorneyInfoEditFormFactoryBasic : IPowerOfAttorneyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new SimpleObjectForm&lt;PowerOfAttorneyInfo &gt;(); } }</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="20"/>
+        <v>cont.RegisterInstance&lt;IPowerOfAttorneyInfoEditFormFactory&gt;(new PowerOfAttorneyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="21"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PowerOfAttorneyInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
   </sheetData>
@@ -5497,9 +7092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="302">
   <si>
     <t>ClassName</t>
   </si>
@@ -1251,7 +1251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1915,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+    <sheetView topLeftCell="C53" workbookViewId="0">
       <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
@@ -6096,7 +6096,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7090,9 +7090,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7142,7 +7144,7 @@
         <v>250</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B30" si="0">"List"&amp;TRIM(A3)</f>
+        <f t="shared" ref="B3:B32" si="0">"List"&amp;TRIM(A3)</f>
         <v>ListOwnershipType</v>
       </c>
       <c r="C3" t="str">
@@ -7150,11 +7152,11 @@
         <v>public List&lt;EnumType&gt; ListOwnershipType() { return EnumType.GetEnumList(typeof(OwnershipType)); }</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D30" si="2">A3&amp;"List"</f>
+        <f t="shared" ref="D3:D32" si="2">A3&amp;"List"</f>
         <v>OwnershipTypeList</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E30" si="3">"public static List&lt;EnumType&gt; "&amp;D3 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A3&amp;")); }}"</f>
+        <f t="shared" ref="E3:E32" si="3">"public static List&lt;EnumType&gt; "&amp;D3 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A3&amp;")); }}"</f>
         <v>public static List&lt;EnumType&gt; OwnershipTypeList { get { return EnumType.GetEnumList(typeof(OwnershipType)); }}</v>
       </c>
     </row>
@@ -7650,7 +7652,7 @@
         <v>ListFinancialInstitutionType</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:C30" si="4">"public List&lt;EnumType&gt; "&amp;B27 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A27&amp;")); }"</f>
+        <f t="shared" ref="C27:C32" si="4">"public List&lt;EnumType&gt; "&amp;B27 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A27&amp;")); }"</f>
         <v>public List&lt;EnumType&gt; ListFinancialInstitutionType() { return EnumType.GetEnumList(typeof(FinancialInstitutionType)); }</v>
       </c>
       <c r="D27" t="str">
@@ -7723,6 +7725,48 @@
       <c r="E30" t="str">
         <f t="shared" si="3"/>
         <v>public static List&lt;EnumType&gt; InstitutionLevelList { get { return EnumType.GetEnumList(typeof(InstitutionLevel)); }}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>ListLegalTransactionType</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="4"/>
+        <v>public List&lt;EnumType&gt; ListLegalTransactionType() { return EnumType.GetEnumList(typeof(LegalTransactionType)); }</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>LegalTransactionTypeList</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; LegalTransactionTypeList { get { return EnumType.GetEnumList(typeof(LegalTransactionType)); }}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>ListInfluenceType</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="4"/>
+        <v>public List&lt;EnumType&gt; ListInfluenceType() { return EnumType.GetEnumList(typeof(InfluenceType)); }</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>InfluenceTypeList</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; InfluenceTypeList { get { return EnumType.GetEnumList(typeof(InfluenceType)); }}</v>
       </c>
     </row>
   </sheetData>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="XSDTypeTransls" sheetId="4" r:id="rId4"/>
     <sheet name="Enums" sheetId="5" r:id="rId5"/>
     <sheet name="EnumsLister" sheetId="6" r:id="rId6"/>
+    <sheet name="WPF_temp_test" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="306">
   <si>
     <t>ClassName</t>
   </si>
@@ -930,6 +931,18 @@
   </si>
   <si>
     <t>PowerOfAttorneyInfo</t>
+  </si>
+  <si>
+    <t>MissingInformationResonInfo</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quCtrl.Content = new </t>
+  </si>
+  <si>
+    <t>(); MessageBox.Show("Press OK to continue...");</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7092,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
@@ -7773,4 +7786,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="str">
+        <f>$B$1&amp;A2&amp;$C$1</f>
+        <v>quCtrl.Content = new BankInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B44" si="0">$B$1&amp;A3&amp;$C$1</f>
+        <v>quCtrl.Content = new BankruptcyInvestigationInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new BreachOfLawRecordInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new ContactInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new CountryInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new CourtDecisionInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new CourtInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new CreditRatingInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new CurrencyAmount(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new EconomicActivityType(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new EmailInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new FinancialOversightAuthorityInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new GenericPersonID(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new GenericPersonInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new ImperfectBusinessReputationInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new IncomeOriginInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new IndebtnessInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new IPOSharesPurchaseInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LegalPersonInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LegalTransactionInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LiquidatedEntityOwnershipInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LoanInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LocationInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new LPRegisteredDateRecordId(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new MissingInformationResonInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new OwnershipStructure(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new OwnershipSummaryInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new OwnershipVotesInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PaymentDeadlineInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PersonsAssociation(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PhoneInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PhysicalPersonInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PowerOfAttorneyInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new PowerOfAttorneySharesPurchaseInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new RatingAgencyInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new RegistrarAuthority(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new RegLicAppx2OwnershipAcqRequestLP(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new SecondaryMarketSharesPurchaseInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new SignatoryInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new SignificantOrDecisiveInfulenceInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new SignificantOwnershipAcquisitionWaysInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new TotalOwnershipDetailsInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>quCtrl.Content = new TotalOwnershipSummaryInfo(); MessageBox.Show("Press OK to continue...");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Enums" sheetId="5" r:id="rId5"/>
     <sheet name="EnumsLister" sheetId="6" r:id="rId6"/>
     <sheet name="WPF_temp_test" sheetId="7" r:id="rId7"/>
+    <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="318">
   <si>
     <t>ClassName</t>
   </si>
@@ -943,6 +944,42 @@
   </si>
   <si>
     <t>(); MessageBox.Show("Press OK to continue...");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NameUkr { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public CountryInfo JurisdictionCountry { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string CourtRegion { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string CourtID { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public CourtInstanceType Instance { get; set; }</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>PropName</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldDecl</t>
+  </si>
+  <si>
+    <t>Accessor</t>
+  </si>
+  <si>
+    <t>public string ShortTermRatingValueOther { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7792,7 +7829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
@@ -8199,4 +8236,332 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TRIM(A2)</f>
+        <v>public string ShortTermRatingValueOther { get; set; }</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>FIND(" ",$B2)</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>FIND(" ",$B2,D2+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <f>FIND(" ",$B2,E2+1)</f>
+        <v>40</v>
+      </c>
+      <c r="G2" t="str">
+        <f>TRIM(MID($B2,C2,D2-C2))</f>
+        <v>public</v>
+      </c>
+      <c r="H2" t="str">
+        <f>TRIM(MID($B2,D2,E2-D2))</f>
+        <v>string</v>
+      </c>
+      <c r="I2" t="str">
+        <f>TRIM(MID($B2,E2,F2-E2))</f>
+        <v>ShortTermRatingValueOther</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"_"&amp;I2</f>
+        <v>_ShortTermRatingValueOther</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
+        <v>private string _ShortTermRatingValueOther;</v>
+      </c>
+      <c r="L2" t="str">
+        <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string ShortTermRatingValueOther { get { return _ShortTermRatingValueOther; } set { _ShortTermRatingValueOther = value; OnPropertyChanged("ShortTermRatingValueOther"); } }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B7" si="0">TRIM(A3)</f>
+        <v>public string NameUkr { get; set; }</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">FIND(" ",$B3)</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:F7" si="2">FIND(" ",$B3,D3+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="3">TRIM(MID($B3,C3,D3-C3))</f>
+        <v>public</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H7" si="4">TRIM(MID($B3,D3,E3-D3))</f>
+        <v>string</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I7" si="5">TRIM(MID($B3,E3,F3-E3))</f>
+        <v>NameUkr</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
+        <v>_NameUkr</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K7" si="7">"private " &amp; H3 &amp; " " &amp; J3 &amp; ";"</f>
+        <v>private string _NameUkr;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L7" si="8">G3&amp; " " &amp;H3&amp; " " &amp;I3 &amp; " { get { return " &amp; J3 &amp; "; } set { " &amp;J3 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I3 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string NameUkr { get { return _NameUkr; } set { _NameUkr = value; OnPropertyChanged("NameUkr"); } }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>public CountryInfo JurisdictionCountry { get; set; }</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>public</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v>CountryInfo</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="5"/>
+        <v>JurisdictionCountry</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="6"/>
+        <v>_JurisdictionCountry</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="7"/>
+        <v>private CountryInfo _JurisdictionCountry;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="8"/>
+        <v>public CountryInfo JurisdictionCountry { get { return _JurisdictionCountry; } set { _JurisdictionCountry = value; OnPropertyChanged("JurisdictionCountry"); } }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>public string CourtRegion { get; set; }</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>public</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>string</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="5"/>
+        <v>CourtRegion</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="6"/>
+        <v>_CourtRegion</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="7"/>
+        <v>private string _CourtRegion;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="8"/>
+        <v>public string CourtRegion { get { return _CourtRegion; } set { _CourtRegion = value; OnPropertyChanged("CourtRegion"); } }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>public string CourtID { get; set; }</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>public</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>string</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>CourtID</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="6"/>
+        <v>_CourtID</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="7"/>
+        <v>private string _CourtID;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="8"/>
+        <v>public string CourtID { get { return _CourtID; } set { _CourtID = value; OnPropertyChanged("CourtID"); } }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>public CourtInstanceType Instance { get; set; }</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>public</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>CourtInstanceType</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="5"/>
+        <v>Instance</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v>_Instance</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="7"/>
+        <v>private CourtInstanceType _Instance;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="8"/>
+        <v>public CourtInstanceType Instance { get { return _Instance; } set { _Instance = value; OnPropertyChanged("Instance"); } }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -979,7 +979,7 @@
     <t>Accessor</t>
   </si>
   <si>
-    <t>public string ShortTermRatingValueOther { get; set; }</t>
+    <t>public bool IsIPNRefused { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B2" t="str">
         <f>TRIM(A2)</f>
-        <v>public string ShortTermRatingValueOther { get; set; }</v>
+        <v>public bool IsIPNRefused { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G2" t="str">
         <f>TRIM(MID($B2,C2,D2-C2))</f>
@@ -8301,23 +8301,23 @@
       </c>
       <c r="H2" t="str">
         <f>TRIM(MID($B2,D2,E2-D2))</f>
-        <v>string</v>
+        <v>bool</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>ShortTermRatingValueOther</v>
+        <v>IsIPNRefused</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_ShortTermRatingValueOther</v>
+        <v>_IsIPNRefused</v>
       </c>
       <c r="K2" t="str">
         <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _ShortTermRatingValueOther;</v>
+        <v>private bool _IsIPNRefused;</v>
       </c>
       <c r="L2" t="str">
         <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string ShortTermRatingValueOther { get { return _ShortTermRatingValueOther; } set { _ShortTermRatingValueOther = value; OnPropertyChanged("ShortTermRatingValueOther"); } }</v>
+        <v>public bool IsIPNRefused { get { return _IsIPNRefused; } set { _IsIPNRefused = value; OnPropertyChanged("IsIPNRefused"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -979,7 +979,7 @@
     <t>Accessor</t>
   </si>
   <si>
-    <t>public bool IsIPNRefused { get; set; }</t>
+    <t>public ContactInfo ContactPerson { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B2" t="str">
         <f>TRIM(A2)</f>
-        <v>public bool IsIPNRefused { get; set; }</v>
+        <v>public ContactInfo ContactPerson { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G2" t="str">
         <f>TRIM(MID($B2,C2,D2-C2))</f>
@@ -8301,23 +8301,23 @@
       </c>
       <c r="H2" t="str">
         <f>TRIM(MID($B2,D2,E2-D2))</f>
-        <v>bool</v>
+        <v>ContactInfo</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>IsIPNRefused</v>
+        <v>ContactPerson</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_IsIPNRefused</v>
+        <v>_ContactPerson</v>
       </c>
       <c r="K2" t="str">
         <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private bool _IsIPNRefused;</v>
+        <v>private ContactInfo _ContactPerson;</v>
       </c>
       <c r="L2" t="str">
         <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public bool IsIPNRefused { get { return _IsIPNRefused; } set { _IsIPNRefused = value; OnPropertyChanged("IsIPNRefused"); } }</v>
+        <v>public ContactInfo ContactPerson { get { return _ContactPerson; } set { _ContactPerson = value; OnPropertyChanged("ContactPerson"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -979,7 +979,7 @@
     <t>Accessor</t>
   </si>
   <si>
-    <t>public ContactInfo ContactPerson { get; set; }</t>
+    <t>public string RepaymentPlans { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B2" t="str">
         <f>TRIM(A2)</f>
-        <v>public ContactInfo ContactPerson { get; set; }</v>
+        <v>public string RepaymentPlans { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" t="str">
         <f>TRIM(MID($B2,C2,D2-C2))</f>
@@ -8301,23 +8301,23 @@
       </c>
       <c r="H2" t="str">
         <f>TRIM(MID($B2,D2,E2-D2))</f>
-        <v>ContactInfo</v>
+        <v>string</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>ContactPerson</v>
+        <v>RepaymentPlans</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_ContactPerson</v>
+        <v>_RepaymentPlans</v>
       </c>
       <c r="K2" t="str">
         <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private ContactInfo _ContactPerson;</v>
+        <v>private string _RepaymentPlans;</v>
       </c>
       <c r="L2" t="str">
         <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public ContactInfo ContactPerson { get { return _ContactPerson; } set { _ContactPerson = value; OnPropertyChanged("ContactPerson"); } }</v>
+        <v>public string RepaymentPlans { get { return _RepaymentPlans; } set { _RepaymentPlans = value; OnPropertyChanged("RepaymentPlans"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -946,9 +946,6 @@
     <t>(); MessageBox.Show("Press OK to continue...");</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string NameUkr { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public CountryInfo JurisdictionCountry { get; set; }</t>
   </si>
   <si>
@@ -979,7 +976,10 @@
     <t>Accessor</t>
   </si>
   <si>
-    <t>public string RepaymentPlans { get; set; }</t>
+    <t xml:space="preserve">        public string DecisionRegistryID { get; set; }</t>
+  </si>
+  <si>
+    <t>public string DecisionTextSummary { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8243,7 +8243,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8253,22 +8253,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M1" s="1"/>
     </row>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B2" t="str">
         <f>TRIM(A2)</f>
-        <v>public string RepaymentPlans { get; set; }</v>
+        <v>public string DecisionTextSummary { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2" t="str">
         <f>TRIM(MID($B2,C2,D2-C2))</f>
@@ -8305,28 +8305,28 @@
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>RepaymentPlans</v>
+        <v>DecisionTextSummary</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_RepaymentPlans</v>
+        <v>_DecisionTextSummary</v>
       </c>
       <c r="K2" t="str">
         <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _RepaymentPlans;</v>
+        <v>private string _DecisionTextSummary;</v>
       </c>
       <c r="L2" t="str">
         <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string RepaymentPlans { get { return _RepaymentPlans; } set { _RepaymentPlans = value; OnPropertyChanged("RepaymentPlans"); } }</v>
+        <v>public string DecisionTextSummary { get { return _DecisionTextSummary; } set { _DecisionTextSummary = value; OnPropertyChanged("DecisionTextSummary"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B7" si="0">TRIM(A3)</f>
-        <v>public string NameUkr { get; set; }</v>
+        <v>public string DecisionRegistryID { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" si="3">TRIM(MID($B3,C3,D3-C3))</f>
@@ -8353,24 +8353,24 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I7" si="5">TRIM(MID($B3,E3,F3-E3))</f>
-        <v>NameUkr</v>
+        <v>DecisionRegistryID</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
-        <v>_NameUkr</v>
+        <v>_DecisionRegistryID</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K7" si="7">"private " &amp; H3 &amp; " " &amp; J3 &amp; ";"</f>
-        <v>private string _NameUkr;</v>
+        <v>private string _DecisionRegistryID;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L7" si="8">G3&amp; " " &amp;H3&amp; " " &amp;I3 &amp; " { get { return " &amp; J3 &amp; "; } set { " &amp;J3 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I3 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string NameUkr { get { return _NameUkr; } set { _NameUkr = value; OnPropertyChanged("NameUkr"); } }</v>
+        <v>public string DecisionRegistryID { get { return _DecisionRegistryID; } set { _DecisionRegistryID = value; OnPropertyChanged("DecisionRegistryID"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -979,7 +979,7 @@
     <t xml:space="preserve">        public string DecisionRegistryID { get; set; }</t>
   </si>
   <si>
-    <t>public string DecisionTextSummary { get; set; }</t>
+    <t>public List&lt;PersonsAssociation&gt; PersonsLinks { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -8243,7 +8243,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B2" t="str">
         <f>TRIM(A2)</f>
-        <v>public string DecisionTextSummary { get; set; }</v>
+        <v>public List&lt;PersonsAssociation&gt; PersonsLinks { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G2" t="str">
         <f>TRIM(MID($B2,C2,D2-C2))</f>
@@ -8301,23 +8301,23 @@
       </c>
       <c r="H2" t="str">
         <f>TRIM(MID($B2,D2,E2-D2))</f>
-        <v>string</v>
+        <v>List&lt;PersonsAssociation&gt;</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>DecisionTextSummary</v>
+        <v>PersonsLinks</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_DecisionTextSummary</v>
+        <v>_PersonsLinks</v>
       </c>
       <c r="K2" t="str">
         <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _DecisionTextSummary;</v>
+        <v>private List&lt;PersonsAssociation&gt; _PersonsLinks;</v>
       </c>
       <c r="L2" t="str">
         <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string DecisionTextSummary { get { return _DecisionTextSummary; } set { _DecisionTextSummary = value; OnPropertyChanged("DecisionTextSummary"); } }</v>
+        <v>public List&lt;PersonsAssociation&gt; PersonsLinks { get { return _PersonsLinks; } set { _PersonsLinks = value; OnPropertyChanged("PersonsLinks"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
@@ -17,11 +17,7 @@
     <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -979,7 +975,7 @@
     <t xml:space="preserve">        public string DecisionRegistryID { get; set; }</t>
   </si>
   <si>
-    <t>public List&lt;PersonsAssociation&gt; PersonsLinks { get; set; }</t>
+    <t>public SignatoryInfo Signatory { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1038,9 +1034,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6145,8 +6138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,7 +8236,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,47 +8270,47 @@
         <v>317</v>
       </c>
       <c r="B2" t="str">
-        <f>TRIM(A2)</f>
-        <v>public List&lt;PersonsAssociation&gt; PersonsLinks { get; set; }</v>
+        <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
+        <v>public SignatoryInfo Signatory { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f>FIND(" ",$B2)</f>
+        <f t="shared" ref="D2:D7" si="1">FIND(" ",$B2)</f>
         <v>7</v>
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G2" t="str">
-        <f>TRIM(MID($B2,C2,D2-C2))</f>
+        <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
         <v>public</v>
       </c>
       <c r="H2" t="str">
-        <f>TRIM(MID($B2,D2,E2-D2))</f>
-        <v>List&lt;PersonsAssociation&gt;</v>
+        <f t="shared" si="2"/>
+        <v>SignatoryInfo</v>
       </c>
       <c r="I2" t="str">
-        <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>PersonsLinks</v>
+        <f t="shared" si="2"/>
+        <v>Signatory</v>
       </c>
       <c r="J2" t="str">
-        <f>"_"&amp;I2</f>
-        <v>_PersonsLinks</v>
+        <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
+        <v>_Signatory</v>
       </c>
       <c r="K2" t="str">
-        <f>"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private List&lt;PersonsAssociation&gt; _PersonsLinks;</v>
+        <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
+        <v>private SignatoryInfo _Signatory;</v>
       </c>
       <c r="L2" t="str">
-        <f>G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public List&lt;PersonsAssociation&gt; PersonsLinks { get { return _PersonsLinks; } set { _PersonsLinks = value; OnPropertyChanged("PersonsLinks"); } }</v>
+        <f t="shared" ref="L2:L7" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public SignatoryInfo Signatory { get { return _Signatory; } set { _Signatory = value; OnPropertyChanged("Signatory"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,46 +8318,46 @@
         <v>316</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B7" si="0">TRIM(A3)</f>
+        <f t="shared" si="0"/>
         <v>public string DecisionRegistryID { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">FIND(" ",$B3)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F7" si="2">FIND(" ",$B3,D3+1)</f>
+        <f t="shared" ref="E3:F7" si="6">FIND(" ",$B3,D3+1)</f>
         <v>14</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G7" si="3">TRIM(MID($B3,C3,D3-C3))</f>
+        <f t="shared" si="2"/>
         <v>public</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H7" si="4">TRIM(MID($B3,D3,E3-D3))</f>
+        <f t="shared" si="2"/>
         <v>string</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I7" si="5">TRIM(MID($B3,E3,F3-E3))</f>
+        <f t="shared" si="2"/>
         <v>DecisionRegistryID</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
+        <f t="shared" si="3"/>
         <v>_DecisionRegistryID</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="7">"private " &amp; H3 &amp; " " &amp; J3 &amp; ";"</f>
+        <f t="shared" si="4"/>
         <v>private string _DecisionRegistryID;</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L7" si="8">G3&amp; " " &amp;H3&amp; " " &amp;I3 &amp; " { get { return " &amp; J3 &amp; "; } set { " &amp;J3 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I3 &amp; CHAR(34) &amp; "); } }"</f>
+        <f t="shared" si="5"/>
         <v>public string DecisionRegistryID { get { return _DecisionRegistryID; } set { _DecisionRegistryID = value; OnPropertyChanged("DecisionRegistryID"); } }</v>
       </c>
     </row>
@@ -8384,35 +8377,35 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>public</v>
       </c>
       <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>CountryInfo</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>JurisdictionCountry</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>_JurisdictionCountry</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>CountryInfo</v>
-      </c>
-      <c r="I4" t="str">
+        <v>private CountryInfo _JurisdictionCountry;</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>JurisdictionCountry</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="6"/>
-        <v>_JurisdictionCountry</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="7"/>
-        <v>private CountryInfo _JurisdictionCountry;</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="8"/>
         <v>public CountryInfo JurisdictionCountry { get { return _JurisdictionCountry; } set { _JurisdictionCountry = value; OnPropertyChanged("JurisdictionCountry"); } }</v>
       </c>
     </row>
@@ -8432,35 +8425,35 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>public</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>string</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>CourtRegion</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>_CourtRegion</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>string</v>
-      </c>
-      <c r="I5" t="str">
+        <v>private string _CourtRegion;</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>CourtRegion</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="6"/>
-        <v>_CourtRegion</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="7"/>
-        <v>private string _CourtRegion;</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="8"/>
         <v>public string CourtRegion { get { return _CourtRegion; } set { _CourtRegion = value; OnPropertyChanged("CourtRegion"); } }</v>
       </c>
     </row>
@@ -8480,35 +8473,35 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>public</v>
       </c>
       <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>string</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>CourtID</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>_CourtID</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>string</v>
-      </c>
-      <c r="I6" t="str">
+        <v>private string _CourtID;</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>CourtID</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="6"/>
-        <v>_CourtID</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="7"/>
-        <v>private string _CourtID;</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="8"/>
         <v>public string CourtID { get { return _CourtID; } set { _CourtID = value; OnPropertyChanged("CourtID"); } }</v>
       </c>
     </row>
@@ -8528,35 +8521,35 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>public</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>CourtInstanceType</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>Instance</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>_Instance</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>CourtInstanceType</v>
-      </c>
-      <c r="I7" t="str">
+        <v>private CourtInstanceType _Instance;</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>Instance</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="6"/>
-        <v>_Instance</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="7"/>
-        <v>private CourtInstanceType _Instance;</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="8"/>
         <v>public CourtInstanceType Instance { get { return _Instance; } set { _Instance = value; OnPropertyChanged("Instance"); } }</v>
       </c>
     </row>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -17,7 +17,6 @@
     <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -975,7 +974,7 @@
     <t xml:space="preserve">        public string DecisionRegistryID { get; set; }</t>
   </si>
   <si>
-    <t>public SignatoryInfo Signatory { get; set; }</t>
+    <t>public bool IsWorkingOrIdle { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8236,7 +8235,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8271,7 +8270,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public SignatoryInfo Signatory { get; set; }</v>
+        <v>public bool IsWorkingOrIdle { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8282,11 +8281,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -8294,23 +8293,23 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>SignatoryInfo</v>
+        <v>bool</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="2"/>
-        <v>Signatory</v>
+        <v>IsWorkingOrIdle</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_Signatory</v>
+        <v>_IsWorkingOrIdle</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private SignatoryInfo _Signatory;</v>
+        <v>private bool _IsWorkingOrIdle;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L7" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public SignatoryInfo Signatory { get { return _Signatory; } set { _Signatory = value; OnPropertyChanged("Signatory"); } }</v>
+        <v>public bool IsWorkingOrIdle { get { return _IsWorkingOrIdle; } set { _IsWorkingOrIdle = value; OnPropertyChanged("IsWorkingOrIdle"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="EnumsLister" sheetId="6" r:id="rId6"/>
     <sheet name="WPF_temp_test" sheetId="7" r:id="rId7"/>
     <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
+    <sheet name="Parse_fromDataRow" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="345">
   <si>
     <t>ClassName</t>
   </si>
@@ -941,18 +942,6 @@
     <t>(); MessageBox.Show("Press OK to continue...");</t>
   </si>
   <si>
-    <t xml:space="preserve">        public CountryInfo JurisdictionCountry { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public string CourtRegion { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public string CourtID { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public CourtInstanceType Instance { get; set; }</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -971,10 +960,103 @@
     <t>Accessor</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string DecisionRegistryID { get; set; }</t>
-  </si>
-  <si>
-    <t>public bool IsWorkingOrIdle { get; set; }</t>
+    <t>BankOperationLimitType</t>
+  </si>
+  <si>
+    <t>BankBranchStatusType</t>
+  </si>
+  <si>
+    <t>WorkingHoursDayType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NCKS { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string DEPCODE { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string KNB { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NAMEF { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public DateTime D_OPEN { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public DateTime? D_CLOSE { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NKB { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string KOB { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string KK { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string TP { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string KOF { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NF { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string KOP { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string NP { get; set; }</t>
+  </si>
+  <si>
+    <t>NCKS</t>
+  </si>
+  <si>
+    <t>DEPCODE</t>
+  </si>
+  <si>
+    <t>KNB</t>
+  </si>
+  <si>
+    <t>NAMEF</t>
+  </si>
+  <si>
+    <t>D_OPEN</t>
+  </si>
+  <si>
+    <t>D_CLOSE</t>
+  </si>
+  <si>
+    <t>NKB</t>
+  </si>
+  <si>
+    <t>KOB</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>KOF</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>KOP</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>FieldNm</t>
+  </si>
+  <si>
+    <t>ParseCode</t>
   </si>
 </sst>
 </file>
@@ -7132,10 +7214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+      <selection activeCell="E33" sqref="E33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7809,6 +7891,69 @@
       <c r="E32" t="str">
         <f t="shared" si="3"/>
         <v>public static List&lt;EnumType&gt; InfluenceTypeList { get { return EnumType.GetEnumList(typeof(InfluenceType)); }}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ref="B33:B35" si="5">"List"&amp;TRIM(A33)</f>
+        <v>ListBankOperationLimitType</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C35" si="6">"public List&lt;EnumType&gt; "&amp;B33 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A33&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListBankOperationLimitType() { return EnumType.GetEnumList(typeof(BankOperationLimitType)); }</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D35" si="7">A33&amp;"List"</f>
+        <v>BankOperationLimitTypeList</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E35" si="8">"public static List&lt;EnumType&gt; "&amp;D33 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A33&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; BankOperationLimitTypeList { get { return EnumType.GetEnumList(typeof(BankOperationLimitType)); }}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="5"/>
+        <v>ListBankBranchStatusType</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="6"/>
+        <v>public List&lt;EnumType&gt; ListBankBranchStatusType() { return EnumType.GetEnumList(typeof(BankBranchStatusType)); }</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="7"/>
+        <v>BankBranchStatusTypeList</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="8"/>
+        <v>public static List&lt;EnumType&gt; BankBranchStatusTypeList { get { return EnumType.GetEnumList(typeof(BankBranchStatusType)); }}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="5"/>
+        <v>ListWorkingHoursDayType</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="6"/>
+        <v>public List&lt;EnumType&gt; ListWorkingHoursDayType() { return EnumType.GetEnumList(typeof(WorkingHoursDayType)); }</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>WorkingHoursDayTypeList</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="8"/>
+        <v>public static List&lt;EnumType&gt; WorkingHoursDayTypeList { get { return EnumType.GetEnumList(typeof(WorkingHoursDayType)); }}</v>
       </c>
     </row>
   </sheetData>
@@ -8232,60 +8377,61 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public bool IsWorkingOrIdle { get; set; }</v>
+        <v>public string NCKS { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D7" si="1">FIND(" ",$B2)</f>
+        <f t="shared" ref="D2:D15" si="1">FIND(" ",$B2)</f>
         <v>7</v>
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -8293,23 +8439,23 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>bool</v>
+        <v>string</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="2"/>
-        <v>IsWorkingOrIdle</v>
+        <v>NCKS</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_IsWorkingOrIdle</v>
+        <v>_NCKS</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private bool _IsWorkingOrIdle;</v>
+        <v>private string _NCKS;</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L7" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public bool IsWorkingOrIdle { get { return _IsWorkingOrIdle; } set { _IsWorkingOrIdle = value; OnPropertyChanged("IsWorkingOrIdle"); } }</v>
+        <f t="shared" ref="L2:L15" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string NCKS { get { return _NCKS; } set { _NCKS = value; OnPropertyChanged("NCKS"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8318,7 +8464,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public string DecisionRegistryID { get; set; }</v>
+        <v>public string DEPCODE { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8333,7 +8479,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -8345,28 +8491,28 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>DecisionRegistryID</v>
+        <v>DEPCODE</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>_DecisionRegistryID</v>
+        <v>_DEPCODE</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>private string _DecisionRegistryID;</v>
+        <v>private string _DEPCODE;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>public string DecisionRegistryID { get { return _DecisionRegistryID; } set { _DecisionRegistryID = value; OnPropertyChanged("DecisionRegistryID"); } }</v>
+        <v>public string DEPCODE { get { return _DEPCODE; } set { _DEPCODE = value; OnPropertyChanged("DEPCODE"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public CountryInfo JurisdictionCountry { get; set; }</v>
+        <v>public string KNB { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8377,11 +8523,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -8389,32 +8535,32 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>CountryInfo</v>
+        <v>string</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>JurisdictionCountry</v>
+        <v>KNB</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>_JurisdictionCountry</v>
+        <v>_KNB</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>private CountryInfo _JurisdictionCountry;</v>
+        <v>private string _KNB;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>public CountryInfo JurisdictionCountry { get { return _JurisdictionCountry; } set { _JurisdictionCountry = value; OnPropertyChanged("JurisdictionCountry"); } }</v>
+        <v>public string KNB { get { return _KNB; } set { _KNB = value; OnPropertyChanged("KNB"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>public string CourtRegion { get; set; }</v>
+        <v>public string NAMEF { get; set; }</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8429,7 +8575,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -8441,28 +8587,28 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>CourtRegion</v>
+        <v>NAMEF</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>_CourtRegion</v>
+        <v>_NAMEF</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>private string _CourtRegion;</v>
+        <v>private string _NAMEF;</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>public string CourtRegion { get { return _CourtRegion; } set { _CourtRegion = value; OnPropertyChanged("CourtRegion"); } }</v>
+        <v>public string NAMEF { get { return _NAMEF; } set { _NAMEF = value; OnPropertyChanged("NAMEF"); } }</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>public string CourtID { get; set; }</v>
+        <v>public DateTime D_OPEN { get; set; }</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8473,11 +8619,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -8485,32 +8631,32 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>DateTime</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>CourtID</v>
+        <v>D_OPEN</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>_CourtID</v>
+        <v>_D_OPEN</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>private string _CourtID;</v>
+        <v>private DateTime _D_OPEN;</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>public string CourtID { get { return _CourtID; } set { _CourtID = value; OnPropertyChanged("CourtID"); } }</v>
+        <v>public DateTime D_OPEN { get { return _D_OPEN; } set { _D_OPEN = value; OnPropertyChanged("D_OPEN"); } }</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>public CourtInstanceType Instance { get; set; }</v>
+        <v>public DateTime? D_CLOSE { get; set; }</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8521,11 +8667,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -8533,23 +8679,557 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>CourtInstanceType</v>
+        <v>DateTime?</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>Instance</v>
+        <v>D_CLOSE</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>_Instance</v>
+        <v>_D_CLOSE</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>private CourtInstanceType _Instance;</v>
+        <v>private DateTime? _D_CLOSE;</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>public CourtInstanceType Instance { get { return _Instance; } set { _Instance = value; OnPropertyChanged("Instance"); } }</v>
+        <v>public DateTime? D_CLOSE { get { return _D_CLOSE; } set { _D_CLOSE = value; OnPropertyChanged("D_CLOSE"); } }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:B15" si="7">TRIM(A8)</f>
+        <v>public string NKB { get; set; }</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E15" si="8">FIND(" ",$B8,D8+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="9">FIND(" ",$B8,E8+1)</f>
+        <v>18</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G15" si="10">TRIM(MID($B8,C8,D8-C8))</f>
+        <v>public</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:H15" si="11">TRIM(MID($B8,D8,E8-D8))</f>
+        <v>string</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I15" si="12">TRIM(MID($B8,E8,F8-E8))</f>
+        <v>NKB</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8:J15" si="13">"_"&amp;I8</f>
+        <v>_NKB</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ref="K8:K15" si="14">"private " &amp; H8 &amp; " " &amp; J8 &amp; ";"</f>
+        <v>private string _NKB;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>public string NKB { get { return _NKB; } set { _NKB = value; OnPropertyChanged("NKB"); } }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="7"/>
+        <v>public string KOB { get; set; }</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="12"/>
+        <v>KOB</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="13"/>
+        <v>_KOB</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _KOB;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>public string KOB { get { return _KOB; } set { _KOB = value; OnPropertyChanged("KOB"); } }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="7"/>
+        <v>public string KK { get; set; }</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="12"/>
+        <v>KK</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="13"/>
+        <v>_KK</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _KK;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>public string KK { get { return _KK; } set { _KK = value; OnPropertyChanged("KK"); } }</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="7"/>
+        <v>public string TP { get; set; }</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="12"/>
+        <v>TP</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="13"/>
+        <v>_TP</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _TP;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>public string TP { get { return _TP; } set { _TP = value; OnPropertyChanged("TP"); } }</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="7"/>
+        <v>public string KOF { get; set; }</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="12"/>
+        <v>KOF</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="13"/>
+        <v>_KOF</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _KOF;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>public string KOF { get { return _KOF; } set { _KOF = value; OnPropertyChanged("KOF"); } }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="7"/>
+        <v>public string NF { get; set; }</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="12"/>
+        <v>NF</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="13"/>
+        <v>_NF</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _NF;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>public string NF { get { return _NF; } set { _NF = value; OnPropertyChanged("NF"); } }</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="7"/>
+        <v>public string KOP { get; set; }</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="12"/>
+        <v>KOP</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="13"/>
+        <v>_KOP</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _KOP;</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>public string KOP { get { return _KOP; } set { _KOP = value; OnPropertyChanged("KOP"); } }</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="7"/>
+        <v>public string NP { get; set; }</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="10"/>
+        <v>public</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="12"/>
+        <v>NP</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="13"/>
+        <v>_NP</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="14"/>
+        <v>private string _NP;</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>public string NP { get { return _NP; } set { _NP = value; OnPropertyChanged("NP"); } }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"rslt." &amp;A2 &amp; " = dr[" &amp; CHAR(34) &amp; A2 &amp; CHAR(34) &amp; "] as string;"</f>
+        <v>rslt.NCKS = dr["NCKS"] as string;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B15" si="0">"rslt." &amp;A3 &amp; " = dr[" &amp; CHAR(34) &amp; A3 &amp; CHAR(34) &amp; "] as string;"</f>
+        <v>rslt.DEPCODE = dr["DEPCODE"] as string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.KNB = dr["KNB"] as string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.NAMEF = dr["NAMEF"] as string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.D_OPEN = dr["D_OPEN"] as string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.D_CLOSE = dr["D_CLOSE"] as string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.NKB = dr["NKB"] as string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.KOB = dr["KOB"] as string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.KK = dr["KK"] as string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.TP = dr["TP"] as string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.KOF = dr["KOF"] as string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.NF = dr["NF"] as string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.KOP = dr["KOP"] as string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>rslt.NP = dr["NP"] as string;</v>
       </c>
     </row>
   </sheetData>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="349">
   <si>
     <t>ClassName</t>
   </si>
@@ -1057,6 +1057,18 @@
   </si>
   <si>
     <t>ParseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string ParentCode { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public bool IsChecked { get; set; }</t>
+  </si>
+  <si>
+    <t>FinancialService</t>
+  </si>
+  <si>
+    <t>BankingActivity</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6217,15 +6229,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -6245,7 +6265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -6270,8 +6290,19 @@
         <f>F2&amp;E2 &amp;","</f>
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L2" t="str">
+        <f>C2</f>
+        <v>None</v>
+      </c>
+      <c r="M2" t="str">
+        <f>D2</f>
+        <v>Не вказано</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -6297,13 +6328,24 @@
         <f t="shared" ref="G3:G17" si="2">F3&amp;E3 &amp;","</f>
         <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]PayDocsIssuance = 1,</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L17" si="3">C3</f>
+        <v>PayDocsIssuance</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M18" si="4">D3</f>
+        <v>п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B28" si="3">B3+1</f>
+        <f t="shared" ref="B4:B28" si="5">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -6324,13 +6366,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]Trust = 2,</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>Trust</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="4"/>
+        <v>п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -6351,13 +6404,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]CurrencyExchange = 3,</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>CurrencyExchange</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -6378,13 +6442,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]FinanceAssetsLiabilities = 4,</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>347</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>FinanceAssetsLiabilities</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -6405,13 +6480,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]FinancialLeasing = 5,</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>FinancialLeasing</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -6432,13 +6518,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]Lending = 6,</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>Lending</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -6459,13 +6556,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]Guarantees = 7,</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>Guarantees</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -6486,13 +6594,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]FundsTransfer = 8,</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>FundsTransfer</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>п.8 переказ коштів (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -6513,13 +6632,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]InsuranceAndPensionSavings = 9,</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>InsuranceAndPensionSavings</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -6540,13 +6670,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]StockExchangeActivities = 10,</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>StockExchangeActivities</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -6567,13 +6708,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]Factoring = 11,</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>Factoring</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>п.11 факторинг (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>169</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -6594,13 +6746,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]FinAssetsAdministeringGroupsPurchase = 12,</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>FinAssetsAdministeringGroupsPurchase</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>169</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C15" t="s">
@@ -6621,13 +6784,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]ConstructionAssetsManagement = 13,</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>ConstructionAssetsManagement</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>169</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -6648,13 +6822,24 @@
         <f t="shared" si="2"/>
         <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]MortgageSecuritiesMngtIssue = 14,</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>MortgageSecuritiesMngtIssue</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>169</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -6675,8 +6860,19 @@
         <f t="shared" si="2"/>
         <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]OtherFinBankServices = 15,</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>OtherFinBankServices</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -6701,13 +6897,24 @@
         <f>F18&amp;E18 &amp;","</f>
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>348</v>
+      </c>
+      <c r="K18" t="str">
+        <f>C18</f>
+        <v>None</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>Не вказано</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -6717,24 +6924,35 @@
         <v>208</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E28" si="4">C19&amp; " = " &amp;B19</f>
+        <f t="shared" ref="E19:E28" si="6">C19&amp; " = " &amp;B19</f>
         <v>DepositsTaking = 1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19:F28" si="5">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F19:F28" si="7">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G28" si="6">F19&amp;E19 &amp;","</f>
+        <f t="shared" ref="G19:G28" si="8">F19&amp;E19 &amp;","</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K28" si="9">C19</f>
+        <v>DepositsTaking</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ref="M19:M28" si="10">D19</f>
+        <v>п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -6744,24 +6962,35 @@
         <v>209</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>AccountsMgmt = 2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="9"/>
+        <v>AccountsMgmt</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="10"/>
+        <v>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -6771,24 +7000,35 @@
         <v>210</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>DepositedFundsPlacement = 3</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>348</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="9"/>
+        <v>DepositedFundsPlacement</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="10"/>
+        <v>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -6798,24 +7038,35 @@
         <v>211</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Investments = 4</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="9"/>
+        <v>Investments</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="10"/>
+        <v>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -6825,24 +7076,35 @@
         <v>212</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ProprietarySecuritiesIssue = 5</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="9"/>
+        <v>ProprietarySecuritiesIssue</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="10"/>
+        <v>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C24" t="s">
@@ -6852,24 +7114,35 @@
         <v>213</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Lotteries = 6</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>348</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="9"/>
+        <v>Lotteries</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="10"/>
+        <v>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -6879,24 +7152,35 @@
         <v>214</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>SafeCustody = 7</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>348</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="9"/>
+        <v>SafeCustody</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="10"/>
+        <v>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C26" t="s">
@@ -6910,20 +7194,31 @@
         <v>CashCollectionTransportation = 8</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="9"/>
+        <v>CashCollectionTransportation</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="10"/>
+        <v>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>170</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C27" t="s">
@@ -6937,20 +7232,31 @@
         <v>SecuritiesCustody = 9</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>348</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>SecuritiesCustody</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="10"/>
+        <v>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C28" t="s">
@@ -6960,19 +7266,30 @@
         <v>217</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ConsultancyOnBankFinServices = 10</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>348</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>ConsultancyOnBankFinServices</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="10"/>
+        <v>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -6986,19 +7303,19 @@
         <v>228</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E37" si="7">C29&amp; " = " &amp;B29</f>
+        <f t="shared" ref="E29:E37" si="11">C29&amp; " = " &amp;B29</f>
         <v>BankControllers = 521</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29:F37" si="8">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F29:F37" si="12">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("Контролери банку")]</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G37" si="9">F29&amp;E29 &amp;","</f>
+        <f t="shared" ref="G29:G37" si="13">F29&amp;E29 &amp;","</f>
         <v>[Description("Контролери банку")]BankControllers = 521,</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>237</v>
       </c>
@@ -7012,19 +7329,19 @@
         <v>229</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>SignificantOwners = 522</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]SignificantOwners = 522,</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -7038,19 +7355,19 @@
         <v>230</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>BankMgrsEtc = 523</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]BankMgrsEtc = 523,</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -7064,15 +7381,15 @@
         <v>231</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Affiliated = 524</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]Affiliated = 524,</v>
       </c>
     </row>
@@ -7090,15 +7407,15 @@
         <v>232</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>AffiliatedSignOwners = 525</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]AffiliatedSignOwners = 525,</v>
       </c>
     </row>
@@ -7116,15 +7433,15 @@
         <v>233</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>AffiliatedMgrsEtc = 526</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]AffiliatedMgrsEtc = 526,</v>
       </c>
     </row>
@@ -7142,15 +7459,15 @@
         <v>234</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>AssocPersonsArt52pp16 = 527</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]AssocPersonsArt52pp16 = 527,</v>
       </c>
     </row>
@@ -7168,15 +7485,15 @@
         <v>235</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Art52MgrsSignOwnersLPs = 528</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]Art52MgrsSignOwnersLPs = 528,</v>
       </c>
     </row>
@@ -7194,15 +7511,15 @@
         <v>236</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>AnyPersonInfluencingArt52 = 529</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]AnyPersonInfluencingArt52 = 529,</v>
       </c>
     </row>
@@ -8377,10 +8694,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8422,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D15" si="1">FIND(" ",$B2)</f>
+        <f t="shared" ref="D2:D17" si="1">FIND(" ",$B2)</f>
         <v>7</v>
       </c>
       <c r="E2">
@@ -8508,11 +8825,11 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public string KNB { get; set; }</v>
+        <v>public string ParentCode { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8527,7 +8844,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -8539,28 +8856,28 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>KNB</v>
+        <v>ParentCode</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>_KNB</v>
+        <v>_ParentCode</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>private string _KNB;</v>
+        <v>private string _ParentCode;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>public string KNB { get { return _KNB; } set { _KNB = value; OnPropertyChanged("KNB"); } }</v>
+        <v>public string ParentCode { get { return _ParentCode; } set { _ParentCode = value; OnPropertyChanged("ParentCode"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>public string NAMEF { get; set; }</v>
+        <v>public string KNB { get; set; }</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8575,7 +8892,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -8587,28 +8904,28 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>NAMEF</v>
+        <v>KNB</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>_NAMEF</v>
+        <v>_KNB</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>private string _NAMEF;</v>
+        <v>private string _KNB;</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>public string NAMEF { get { return _NAMEF; } set { _NAMEF = value; OnPropertyChanged("NAMEF"); } }</v>
+        <v>public string KNB { get { return _KNB; } set { _KNB = value; OnPropertyChanged("KNB"); } }</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime D_OPEN { get; set; }</v>
+        <v>public string NAMEF { get; set; }</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8619,11 +8936,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -8631,32 +8948,32 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime</v>
+        <v>string</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>D_OPEN</v>
+        <v>NAMEF</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>_D_OPEN</v>
+        <v>_NAMEF</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>private DateTime _D_OPEN;</v>
+        <v>private string _NAMEF;</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>public DateTime D_OPEN { get { return _D_OPEN; } set { _D_OPEN = value; OnPropertyChanged("D_OPEN"); } }</v>
+        <v>public string NAMEF { get { return _NAMEF; } set { _NAMEF = value; OnPropertyChanged("NAMEF"); } }</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime? D_CLOSE { get; set; }</v>
+        <v>public DateTime D_OPEN { get; set; }</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8667,11 +8984,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -8679,32 +8996,32 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime?</v>
+        <v>DateTime</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>D_CLOSE</v>
+        <v>D_OPEN</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>_D_CLOSE</v>
+        <v>_D_OPEN</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>private DateTime? _D_CLOSE;</v>
+        <v>private DateTime _D_OPEN;</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>public DateTime? D_CLOSE { get { return _D_CLOSE; } set { _D_CLOSE = value; OnPropertyChanged("D_CLOSE"); } }</v>
+        <v>public DateTime D_OPEN { get { return _D_OPEN; } set { _D_OPEN = value; OnPropertyChanged("D_OPEN"); } }</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:B15" si="7">TRIM(A8)</f>
-        <v>public string NKB { get; set; }</v>
+        <v>public DateTime? D_CLOSE { get; set; }</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8715,11 +9032,11 @@
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E15" si="8">FIND(" ",$B8,D8+1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F15" si="9">FIND(" ",$B8,E8+1)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ref="G8:G15" si="10">TRIM(MID($B8,C8,D8-C8))</f>
@@ -8727,32 +9044,32 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ref="H8:H15" si="11">TRIM(MID($B8,D8,E8-D8))</f>
-        <v>string</v>
+        <v>DateTime?</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" ref="I8:I15" si="12">TRIM(MID($B8,E8,F8-E8))</f>
-        <v>NKB</v>
+        <v>D_CLOSE</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ref="J8:J15" si="13">"_"&amp;I8</f>
-        <v>_NKB</v>
+        <v>_D_CLOSE</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:K15" si="14">"private " &amp; H8 &amp; " " &amp; J8 &amp; ";"</f>
-        <v>private string _NKB;</v>
+        <v>private DateTime? _D_CLOSE;</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>public string NKB { get { return _NKB; } set { _NKB = value; OnPropertyChanged("NKB"); } }</v>
+        <v>public DateTime? D_CLOSE { get { return _D_CLOSE; } set { _D_CLOSE = value; OnPropertyChanged("D_CLOSE"); } }</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="7"/>
-        <v>public string KOB { get; set; }</v>
+        <v>public string NKB { get; set; }</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8779,28 +9096,28 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="12"/>
-        <v>KOB</v>
+        <v>NKB</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="13"/>
-        <v>_KOB</v>
+        <v>_NKB</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="14"/>
-        <v>private string _KOB;</v>
+        <v>private string _NKB;</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
-        <v>public string KOB { get { return _KOB; } set { _KOB = value; OnPropertyChanged("KOB"); } }</v>
+        <v>public string NKB { get { return _NKB; } set { _NKB = value; OnPropertyChanged("NKB"); } }</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="7"/>
-        <v>public string KK { get; set; }</v>
+        <v>public string KOB { get; set; }</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8815,7 +9132,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="10"/>
@@ -8827,28 +9144,28 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="12"/>
-        <v>KK</v>
+        <v>KOB</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="13"/>
-        <v>_KK</v>
+        <v>_KOB</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="14"/>
-        <v>private string _KK;</v>
+        <v>private string _KOB;</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
-        <v>public string KK { get { return _KK; } set { _KK = value; OnPropertyChanged("KK"); } }</v>
+        <v>public string KOB { get { return _KOB; } set { _KOB = value; OnPropertyChanged("KOB"); } }</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="7"/>
-        <v>public string TP { get; set; }</v>
+        <v>public string KK { get; set; }</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -8875,28 +9192,28 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="12"/>
-        <v>TP</v>
+        <v>KK</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="13"/>
-        <v>_TP</v>
+        <v>_KK</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="14"/>
-        <v>private string _TP;</v>
+        <v>private string _KK;</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
-        <v>public string TP { get { return _TP; } set { _TP = value; OnPropertyChanged("TP"); } }</v>
+        <v>public string KK { get { return _KK; } set { _KK = value; OnPropertyChanged("KK"); } }</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="7"/>
-        <v>public string KOF { get; set; }</v>
+        <v>public string TP { get; set; }</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8911,7 +9228,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="10"/>
@@ -8923,28 +9240,28 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="12"/>
-        <v>KOF</v>
+        <v>TP</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="13"/>
-        <v>_KOF</v>
+        <v>_TP</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="14"/>
-        <v>private string _KOF;</v>
+        <v>private string _TP;</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
-        <v>public string KOF { get { return _KOF; } set { _KOF = value; OnPropertyChanged("KOF"); } }</v>
+        <v>public string TP { get { return _TP; } set { _TP = value; OnPropertyChanged("TP"); } }</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="7"/>
-        <v>public string NF { get; set; }</v>
+        <v>public string KOF { get; set; }</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8959,7 +9276,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="10"/>
@@ -8971,28 +9288,28 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="12"/>
-        <v>NF</v>
+        <v>KOF</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="13"/>
-        <v>_NF</v>
+        <v>_KOF</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="14"/>
-        <v>private string _NF;</v>
+        <v>private string _KOF;</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
-        <v>public string NF { get { return _NF; } set { _NF = value; OnPropertyChanged("NF"); } }</v>
+        <v>public string KOF { get { return _KOF; } set { _KOF = value; OnPropertyChanged("KOF"); } }</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="7"/>
-        <v>public string KOP { get; set; }</v>
+        <v>public string NF { get; set; }</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9007,7 +9324,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="10"/>
@@ -9019,28 +9336,28 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="12"/>
-        <v>KOP</v>
+        <v>NF</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="13"/>
-        <v>_KOP</v>
+        <v>_NF</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="14"/>
-        <v>private string _KOP;</v>
+        <v>private string _NF;</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>
-        <v>public string KOP { get { return _KOP; } set { _KOP = value; OnPropertyChanged("KOP"); } }</v>
+        <v>public string NF { get { return _NF; } set { _NF = value; OnPropertyChanged("NF"); } }</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="7"/>
-        <v>public string NP { get; set; }</v>
+        <v>public string KOP { get; set; }</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9055,7 +9372,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="10"/>
@@ -9067,19 +9384,115 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="12"/>
-        <v>NP</v>
+        <v>KOP</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="13"/>
-        <v>_NP</v>
+        <v>_KOP</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="14"/>
+        <v>private string _KOP;</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>public string KOP { get { return _KOP; } set { _KOP = value; OnPropertyChanged("KOP"); } }</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ref="B16:B17" si="15">TRIM(A16)</f>
+        <v>public string NP { get; set; }</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="16">FIND(" ",$B16,D16+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="17">FIND(" ",$B16,E16+1)</f>
+        <v>17</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G17" si="18">TRIM(MID($B16,C16,D16-C16))</f>
+        <v>public</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H17" si="19">TRIM(MID($B16,D16,E16-D16))</f>
+        <v>string</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I17" si="20">TRIM(MID($B16,E16,F16-E16))</f>
+        <v>NP</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="21">"_"&amp;I16</f>
+        <v>_NP</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K17" si="22">"private " &amp; H16 &amp; " " &amp; J16 &amp; ";"</f>
         <v>private string _NP;</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="5"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L17" si="23">G16&amp; " " &amp;H16&amp; " " &amp;I16 &amp; " { get { return " &amp; J16 &amp; "; } set { " &amp;J16 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I16 &amp; CHAR(34) &amp; "); } }"</f>
         <v>public string NP { get { return _NP; } set { _NP = value; OnPropertyChanged("NP"); } }</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="15"/>
+        <v>public bool IsChecked { get; set; }</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="18"/>
+        <v>public</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="19"/>
+        <v>bool</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="20"/>
+        <v>IsChecked</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="21"/>
+        <v>_IsChecked</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="22"/>
+        <v>private bool _IsChecked;</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="23"/>
+        <v>public bool IsChecked { get { return _IsChecked; } set { _IsChecked = value; OnPropertyChanged("IsChecked"); } }</v>
       </c>
     </row>
   </sheetData>
@@ -9093,7 +9506,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="WPF_temp_test" sheetId="7" r:id="rId7"/>
     <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
     <sheet name="Parse_fromDataRow" sheetId="9" r:id="rId9"/>
+    <sheet name="OblastInfos" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="401">
   <si>
     <t>ClassName</t>
   </si>
@@ -1069,6 +1070,162 @@
   </si>
   <si>
     <t>BankingActivity</t>
+  </si>
+  <si>
+    <t>Вінницька</t>
+  </si>
+  <si>
+    <t>Волинська</t>
+  </si>
+  <si>
+    <t>Дніпропетровська</t>
+  </si>
+  <si>
+    <t>Донецька</t>
+  </si>
+  <si>
+    <t>Житомирська</t>
+  </si>
+  <si>
+    <t>Закарпатська</t>
+  </si>
+  <si>
+    <t>Запорізька</t>
+  </si>
+  <si>
+    <t>Івано-Франківська</t>
+  </si>
+  <si>
+    <t>Київська</t>
+  </si>
+  <si>
+    <t>Кіровоградська</t>
+  </si>
+  <si>
+    <t>АР Крим</t>
+  </si>
+  <si>
+    <t>Луганська</t>
+  </si>
+  <si>
+    <t>Львівська</t>
+  </si>
+  <si>
+    <t>Миколаївська</t>
+  </si>
+  <si>
+    <t>Одеська</t>
+  </si>
+  <si>
+    <t>Полтавська</t>
+  </si>
+  <si>
+    <t>Рівненська</t>
+  </si>
+  <si>
+    <t>Сумська</t>
+  </si>
+  <si>
+    <t>Тернопільська</t>
+  </si>
+  <si>
+    <t>Харківська</t>
+  </si>
+  <si>
+    <t>Херсонська</t>
+  </si>
+  <si>
+    <t>Хмельницька</t>
+  </si>
+  <si>
+    <t>Черкаська</t>
+  </si>
+  <si>
+    <t>Чернігівська</t>
+  </si>
+  <si>
+    <t>Чернівецька</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1271,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1387,7 +1545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1874,6 +2032,333 @@
       </c>
       <c r="C29" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A2 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B2 &amp; CHAR(34) &amp; "},"</f>
+        <v>new OblastInfo(){Code= "01", Name = "Вінницька"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C26" si="0">"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A3 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B3 &amp; CHAR(34) &amp; "},"</f>
+        <v>new OblastInfo(){Code= "02", Name = "Волинська"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "03", Name = "Дніпропетровська"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "04", Name = "Донецька"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "05", Name = "Житомирська"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "06", Name = "Закарпатська"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "07", Name = "Запорізька"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "08", Name = "Івано-Франківська"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "09", Name = "Київська"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "10", Name = "Кіровоградська"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "11", Name = "АР Крим"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "12", Name = "Луганська"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "13", Name = "Львівська"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "14", Name = "Миколаївська"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "15", Name = "Одеська"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "16", Name = "Полтавська"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "17", Name = "Рівненська"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "18", Name = "Сумська"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "19", Name = "Тернопільська"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "20", Name = "Харківська"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "21", Name = "Херсонська"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "22", Name = "Хмельницька"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "23", Name = "Черкаська"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "24", Name = "Чернігівська"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>new OblastInfo(){Code= "25", Name = "Чернівецька"},</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,12 +970,6 @@
     <t>WorkingHoursDayType</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string NCKS { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public string DEPCODE { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public string KNB { get; set; } </t>
   </si>
   <si>
@@ -1060,9 +1054,6 @@
     <t>ParseCode</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string ParentCode { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public bool IsChecked { get; set; }</t>
   </si>
   <si>
@@ -1226,6 +1217,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public PersonBusinessReputationInfo MgrBusinessReputation { get; set; }</t>
+  </si>
+  <si>
+    <t>public string MgrPositionOther { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,18 +2055,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C2" t="str">
         <f>"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A2 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B2 &amp; CHAR(34) &amp; "},"</f>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C26" si="0">"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A3 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B3 &amp; CHAR(34) &amp; "},"</f>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -6776,7 +6776,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L2" t="str">
         <f>C2</f>
@@ -6814,7 +6814,7 @@
         <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]PayDocsIssuance = 1,</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L17" si="3">C3</f>
@@ -6852,7 +6852,7 @@
         <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]Trust = 2,</v>
       </c>
       <c r="J4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="3"/>
@@ -6890,7 +6890,7 @@
         <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]CurrencyExchange = 3,</v>
       </c>
       <c r="J5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
@@ -6928,7 +6928,7 @@
         <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]FinanceAssetsLiabilities = 4,</v>
       </c>
       <c r="J6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
@@ -6966,7 +6966,7 @@
         <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]FinancialLeasing = 5,</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
@@ -7004,7 +7004,7 @@
         <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]Lending = 6,</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
@@ -7042,7 +7042,7 @@
         <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]Guarantees = 7,</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
@@ -7080,7 +7080,7 @@
         <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]FundsTransfer = 8,</v>
       </c>
       <c r="J10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="3"/>
@@ -7118,7 +7118,7 @@
         <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]InsuranceAndPensionSavings = 9,</v>
       </c>
       <c r="J11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="3"/>
@@ -7156,7 +7156,7 @@
         <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]StockExchangeActivities = 10,</v>
       </c>
       <c r="J12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="3"/>
@@ -7194,7 +7194,7 @@
         <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]Factoring = 11,</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="3"/>
@@ -7232,7 +7232,7 @@
         <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]FinAssetsAdministeringGroupsPurchase = 12,</v>
       </c>
       <c r="J14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="3"/>
@@ -7270,7 +7270,7 @@
         <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]ConstructionAssetsManagement = 13,</v>
       </c>
       <c r="J15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="3"/>
@@ -7308,7 +7308,7 @@
         <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]MortgageSecuritiesMngtIssue = 14,</v>
       </c>
       <c r="J16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
@@ -7346,7 +7346,7 @@
         <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]OtherFinBankServices = 15,</v>
       </c>
       <c r="J17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="3"/>
@@ -7383,7 +7383,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K18" t="str">
         <f>C18</f>
@@ -7421,7 +7421,7 @@
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
       <c r="J19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K28" si="9">C19</f>
@@ -7459,7 +7459,7 @@
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
       <c r="J20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="9"/>
@@ -7497,7 +7497,7 @@
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
       <c r="J21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="9"/>
@@ -7535,7 +7535,7 @@
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
       <c r="J22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="9"/>
@@ -7573,7 +7573,7 @@
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
       <c r="J23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="9"/>
@@ -7611,7 +7611,7 @@
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
       <c r="J24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="9"/>
@@ -7649,7 +7649,7 @@
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
       <c r="J25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="9"/>
@@ -7687,7 +7687,7 @@
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
       <c r="J26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="9"/>
@@ -7725,7 +7725,7 @@
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
       <c r="J27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="9"/>
@@ -7763,7 +7763,7 @@
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
       <c r="J28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="9"/>
@@ -9181,8 +9181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,11 +9214,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public string NCKS { get; set; }</v>
+        <v>public string MgrPositionOther { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -9245,28 +9245,28 @@
       </c>
       <c r="I2" t="str">
         <f t="shared" si="2"/>
-        <v>NCKS</v>
+        <v>MgrPositionOther</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_NCKS</v>
+        <v>_MgrPositionOther</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _NCKS;</v>
+        <v>private string _MgrPositionOther;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string NCKS { get { return _NCKS; } set { _NCKS = value; OnPropertyChanged("NCKS"); } }</v>
+        <v>public string MgrPositionOther { get { return _MgrPositionOther; } set { _MgrPositionOther = value; OnPropertyChanged("MgrPositionOther"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public string DEPCODE { get; set; }</v>
+        <v>public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9277,11 +9277,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="6">FIND(" ",$B3,D3+1)</f>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -9289,32 +9289,32 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>List&lt;EmploymentRecordInfo&gt;</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>DEPCODE</v>
+        <v>MgrWorkExperience</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>_DEPCODE</v>
+        <v>_MgrWorkExperience</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>private string _DEPCODE;</v>
+        <v>private List&lt;EmploymentRecordInfo&gt; _MgrWorkExperience;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>public string DEPCODE { get { return _DEPCODE; } set { _DEPCODE = value; OnPropertyChanged("DEPCODE"); } }</v>
+        <v>public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get { return _MgrWorkExperience; } set { _MgrWorkExperience = value; OnPropertyChanged("MgrWorkExperience"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public string ParentCode { get; set; }</v>
+        <v>public PersonBusinessReputationInfo MgrBusinessReputation { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9325,11 +9325,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -9337,28 +9337,28 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>PersonBusinessReputationInfo</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>ParentCode</v>
+        <v>MgrBusinessReputation</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>_ParentCode</v>
+        <v>_MgrBusinessReputation</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>private string _ParentCode;</v>
+        <v>private PersonBusinessReputationInfo _MgrBusinessReputation;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>public string ParentCode { get { return _ParentCode; } set { _ParentCode = value; OnPropertyChanged("ParentCode"); } }</v>
+        <v>public PersonBusinessReputationInfo MgrBusinessReputation { get { return _MgrBusinessReputation; } set { _MgrBusinessReputation = value; OnPropertyChanged("MgrBusinessReputation"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:B15" si="7">TRIM(A8)</f>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="7"/>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="7"/>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="7"/>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="7"/>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="7"/>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="7"/>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="7"/>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B17" si="15">TRIM(A16)</f>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="15"/>
@@ -9998,15 +9998,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" t="str">
         <f>"rslt." &amp;A2 &amp; " = dr[" &amp; CHAR(34) &amp; A2 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B15" si="0">"rslt." &amp;A3 &amp; " = dr[" &amp; CHAR(34) &amp; A3 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1219,13 +1219,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">        public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public PersonBusinessReputationInfo MgrBusinessReputation { get; set; }</t>
   </si>
   <si>
-    <t>public string MgrPositionOther { get; set; }</t>
+    <t xml:space="preserve">        public bool HasDoubleCitizenship { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9182,7 +9182,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,11 +9214,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public string MgrPositionOther { get; set; }</v>
+        <v>public bool HasDoubleCitizenship { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9229,11 +9229,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -9241,32 +9241,32 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>bool</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="2"/>
-        <v>MgrPositionOther</v>
+        <v>HasDoubleCitizenship</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_MgrPositionOther</v>
+        <v>_HasDoubleCitizenship</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _MgrPositionOther;</v>
+        <v>private bool _HasDoubleCitizenship;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string MgrPositionOther { get { return _MgrPositionOther; } set { _MgrPositionOther = value; OnPropertyChanged("MgrPositionOther"); } }</v>
+        <v>public bool HasDoubleCitizenship { get { return _HasDoubleCitizenship; } set { _HasDoubleCitizenship = value; OnPropertyChanged("HasDoubleCitizenship"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get; set; }</v>
+        <v>public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="6">FIND(" ",$B3,D3+1)</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <f t="shared" si="6"/>
@@ -9289,28 +9289,28 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;EmploymentRecordInfo&gt;</v>
+        <v>List&lt;CountryInfo&gt;</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>MgrWorkExperience</v>
+        <v>DoubleCitizenshipCountries</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>_MgrWorkExperience</v>
+        <v>_DoubleCitizenshipCountries</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>private List&lt;EmploymentRecordInfo&gt; _MgrWorkExperience;</v>
+        <v>private List&lt;CountryInfo&gt; _DoubleCitizenshipCountries;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>public List&lt;EmploymentRecordInfo&gt; MgrWorkExperience { get { return _MgrWorkExperience; } set { _MgrWorkExperience = value; OnPropertyChanged("MgrWorkExperience"); } }</v>
+        <v>public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get { return _DoubleCitizenshipCountries; } set { _DoubleCitizenshipCountries = value; OnPropertyChanged("DoubleCitizenshipCountries"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -970,9 +970,6 @@
     <t>WorkingHoursDayType</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string KNB { get; set; } </t>
-  </si>
-  <si>
     <t xml:space="preserve">        public string NAMEF { get; set; }</t>
   </si>
   <si>
@@ -1219,13 +1216,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">        public PersonBusinessReputationInfo MgrBusinessReputation { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public bool HasDoubleCitizenship { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get; set; }</t>
+    <t xml:space="preserve">        public string OccupName { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string OccupNameUkr { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string Code { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string Name { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2055,18 +2055,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" t="str">
         <f>"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A2 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B2 &amp; CHAR(34) &amp; "},"</f>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C26" si="0">"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A3 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B3 &amp; CHAR(34) &amp; "},"</f>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -6776,7 +6776,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L2" t="str">
         <f>C2</f>
@@ -6814,7 +6814,7 @@
         <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]PayDocsIssuance = 1,</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L17" si="3">C3</f>
@@ -6852,7 +6852,7 @@
         <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]Trust = 2,</v>
       </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="3"/>
@@ -6890,7 +6890,7 @@
         <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]CurrencyExchange = 3,</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
@@ -6928,7 +6928,7 @@
         <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]FinanceAssetsLiabilities = 4,</v>
       </c>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
@@ -6966,7 +6966,7 @@
         <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]FinancialLeasing = 5,</v>
       </c>
       <c r="J7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
@@ -7004,7 +7004,7 @@
         <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]Lending = 6,</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
@@ -7042,7 +7042,7 @@
         <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]Guarantees = 7,</v>
       </c>
       <c r="J9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
@@ -7080,7 +7080,7 @@
         <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]FundsTransfer = 8,</v>
       </c>
       <c r="J10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="3"/>
@@ -7118,7 +7118,7 @@
         <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]InsuranceAndPensionSavings = 9,</v>
       </c>
       <c r="J11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="3"/>
@@ -7156,7 +7156,7 @@
         <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]StockExchangeActivities = 10,</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="3"/>
@@ -7194,7 +7194,7 @@
         <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]Factoring = 11,</v>
       </c>
       <c r="J13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="3"/>
@@ -7232,7 +7232,7 @@
         <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]FinAssetsAdministeringGroupsPurchase = 12,</v>
       </c>
       <c r="J14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="3"/>
@@ -7270,7 +7270,7 @@
         <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]ConstructionAssetsManagement = 13,</v>
       </c>
       <c r="J15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="3"/>
@@ -7308,7 +7308,7 @@
         <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]MortgageSecuritiesMngtIssue = 14,</v>
       </c>
       <c r="J16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
@@ -7346,7 +7346,7 @@
         <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]OtherFinBankServices = 15,</v>
       </c>
       <c r="J17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="3"/>
@@ -7383,7 +7383,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K18" t="str">
         <f>C18</f>
@@ -7421,7 +7421,7 @@
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
       <c r="J19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K28" si="9">C19</f>
@@ -7459,7 +7459,7 @@
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
       <c r="J20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="9"/>
@@ -7497,7 +7497,7 @@
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
       <c r="J21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="9"/>
@@ -7535,7 +7535,7 @@
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
       <c r="J22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="9"/>
@@ -7573,7 +7573,7 @@
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="9"/>
@@ -7611,7 +7611,7 @@
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
       <c r="J24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="9"/>
@@ -7649,7 +7649,7 @@
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
       <c r="J25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="9"/>
@@ -7687,7 +7687,7 @@
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
       <c r="J26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="9"/>
@@ -7725,7 +7725,7 @@
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
       <c r="J27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="9"/>
@@ -7763,7 +7763,7 @@
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
       <c r="J28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="9"/>
@@ -9182,7 +9182,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K2" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public bool HasDoubleCitizenship { get; set; }</v>
+        <v>public string Code { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9229,11 +9229,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -9241,23 +9241,23 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>bool</v>
+        <v>string</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="2"/>
-        <v>HasDoubleCitizenship</v>
+        <v>Code</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_HasDoubleCitizenship</v>
+        <v>_Code</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private bool _HasDoubleCitizenship;</v>
+        <v>private string _Code;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public bool HasDoubleCitizenship { get { return _HasDoubleCitizenship; } set { _HasDoubleCitizenship = value; OnPropertyChanged("HasDoubleCitizenship"); } }</v>
+        <v>public string Code { get { return _Code; } set { _Code = value; OnPropertyChanged("Code"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get; set; }</v>
+        <v>public string Name { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9277,11 +9277,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="6">FIND(" ",$B3,D3+1)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -9289,32 +9289,32 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;CountryInfo&gt;</v>
+        <v>string</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleCitizenshipCountries</v>
+        <v>Name</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>_DoubleCitizenshipCountries</v>
+        <v>_Name</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>private List&lt;CountryInfo&gt; _DoubleCitizenshipCountries;</v>
+        <v>private string _Name;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>public List&lt;CountryInfo&gt; DoubleCitizenshipCountries { get { return _DoubleCitizenshipCountries; } set { _DoubleCitizenshipCountries = value; OnPropertyChanged("DoubleCitizenshipCountries"); } }</v>
+        <v>public string Name { get { return _Name; } set { _Name = value; OnPropertyChanged("Name"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public PersonBusinessReputationInfo MgrBusinessReputation { get; set; }</v>
+        <v>public string OccupName { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9325,11 +9325,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -9337,32 +9337,32 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>PersonBusinessReputationInfo</v>
+        <v>string</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>MgrBusinessReputation</v>
+        <v>OccupName</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>_MgrBusinessReputation</v>
+        <v>_OccupName</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>private PersonBusinessReputationInfo _MgrBusinessReputation;</v>
+        <v>private string _OccupName;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>public PersonBusinessReputationInfo MgrBusinessReputation { get { return _MgrBusinessReputation; } set { _MgrBusinessReputation = value; OnPropertyChanged("MgrBusinessReputation"); } }</v>
+        <v>public string OccupName { get { return _OccupName; } set { _OccupName = value; OnPropertyChanged("OccupName"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>public string KNB { get; set; }</v>
+        <v>public string OccupNameUkr { get; set; }</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -9389,24 +9389,24 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>KNB</v>
+        <v>OccupNameUkr</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>_KNB</v>
+        <v>_OccupNameUkr</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>private string _KNB;</v>
+        <v>private string _OccupNameUkr;</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>public string KNB { get { return _KNB; } set { _KNB = value; OnPropertyChanged("KNB"); } }</v>
+        <v>public string OccupNameUkr { get { return _OccupNameUkr; } set { _OccupNameUkr = value; OnPropertyChanged("OccupNameUkr"); } }</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:B15" si="7">TRIM(A8)</f>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="7"/>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="7"/>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="7"/>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="7"/>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="7"/>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="7"/>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="7"/>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B17" si="15">TRIM(A16)</f>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="15"/>
@@ -9998,15 +9998,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" t="str">
         <f>"rslt." &amp;A2 &amp; " = dr[" &amp; CHAR(34) &amp; A2 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B15" si="0">"rslt." &amp;A3 &amp; " = dr[" &amp; CHAR(34) &amp; A3 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Parse_fromDataRow" sheetId="9" r:id="rId9"/>
     <sheet name="OblastInfos" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1222,10 +1222,10 @@
     <t xml:space="preserve">        public string OccupNameUkr { get; set; }</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string Code { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public string Name { get; set; }</t>
+    <t xml:space="preserve">        public string CerfiticateNr { get; set; }</t>
+  </si>
+  <si>
+    <t>public DateTime NostrificationDate { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1553,9 +1553,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2369,6 +2372,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,6 +2540,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView topLeftCell="C53" workbookViewId="0">
@@ -5959,6 +5968,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -6714,6 +6726,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -8016,6 +8031,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8766,6 +8784,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -9181,7 +9202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
@@ -9218,7 +9239,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public string Code { get; set; }</v>
+        <v>public string CerfiticateNr { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9233,7 +9254,7 @@
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -9244,20 +9265,20 @@
         <v>string</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" si="2"/>
-        <v>Code</v>
+        <f>TRIM(MID($B2,E2,F2-E2))</f>
+        <v>CerfiticateNr</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J7" si="3">"_"&amp;I2</f>
-        <v>_Code</v>
+        <f>"_"&amp;I2</f>
+        <v>_CerfiticateNr</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K7" si="4">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _Code;</v>
+        <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
+        <v>private string _CerfiticateNr;</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L15" si="5">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string Code { get { return _Code; } set { _Code = value; OnPropertyChanged("Code"); } }</v>
+        <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string CerfiticateNr { get { return _CerfiticateNr; } set { _CerfiticateNr = value; OnPropertyChanged("CerfiticateNr"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -9266,7 +9287,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public string Name { get; set; }</v>
+        <v>public DateTime NostrificationDate { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9276,12 +9297,12 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F7" si="6">FIND(" ",$B3,D3+1)</f>
-        <v>14</v>
+        <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
+        <v>16</v>
       </c>
       <c r="F3">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -9289,23 +9310,23 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>DateTime</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>Name</v>
+        <v>NostrificationDate</v>
       </c>
       <c r="J3" t="str">
+        <f t="shared" ref="J2:J7" si="6">"_"&amp;I3</f>
+        <v>_NostrificationDate</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>_Name</v>
-      </c>
-      <c r="K3" t="str">
+        <v>private DateTime _NostrificationDate;</v>
+      </c>
+      <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>private string _Name;</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="5"/>
-        <v>public string Name { get { return _Name; } set { _Name = value; OnPropertyChanged("Name"); } }</v>
+        <v>public DateTime NostrificationDate { get { return _NostrificationDate; } set { _NostrificationDate = value; OnPropertyChanged("NostrificationDate"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9324,11 +9345,11 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="G4" t="str">
@@ -9344,15 +9365,15 @@
         <v>OccupName</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="6"/>
+        <v>_OccupName</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="3"/>
-        <v>_OccupName</v>
-      </c>
-      <c r="K4" t="str">
+        <v>private string _OccupName;</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="4"/>
-        <v>private string _OccupName;</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="5"/>
         <v>public string OccupName { get { return _OccupName; } set { _OccupName = value; OnPropertyChanged("OccupName"); } }</v>
       </c>
     </row>
@@ -9372,11 +9393,11 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="G5" t="str">
@@ -9392,15 +9413,15 @@
         <v>OccupNameUkr</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="6"/>
+        <v>_OccupNameUkr</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="3"/>
-        <v>_OccupNameUkr</v>
-      </c>
-      <c r="K5" t="str">
+        <v>private string _OccupNameUkr;</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="4"/>
-        <v>private string _OccupNameUkr;</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="5"/>
         <v>public string OccupNameUkr { get { return _OccupNameUkr; } set { _OccupNameUkr = value; OnPropertyChanged("OccupNameUkr"); } }</v>
       </c>
     </row>
@@ -9420,11 +9441,11 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="G6" t="str">
@@ -9440,15 +9461,15 @@
         <v>NAMEF</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="6"/>
+        <v>_NAMEF</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="3"/>
-        <v>_NAMEF</v>
-      </c>
-      <c r="K6" t="str">
+        <v>private string _NAMEF;</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="4"/>
-        <v>private string _NAMEF;</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="5"/>
         <v>public string NAMEF { get { return _NAMEF; } set { _NAMEF = value; OnPropertyChanged("NAMEF"); } }</v>
       </c>
     </row>
@@ -9468,11 +9489,11 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="G7" t="str">
@@ -9488,15 +9509,15 @@
         <v>D_OPEN</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v>_D_OPEN</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="3"/>
-        <v>_D_OPEN</v>
-      </c>
-      <c r="K7" t="str">
+        <v>private DateTime _D_OPEN;</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="4"/>
-        <v>private DateTime _D_OPEN;</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="5"/>
         <v>public DateTime D_OPEN { get { return _D_OPEN; } set { _D_OPEN = value; OnPropertyChanged("D_OPEN"); } }</v>
       </c>
     </row>
@@ -9544,7 +9565,7 @@
         <v>private DateTime? _D_CLOSE;</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public DateTime? D_CLOSE { get { return _D_CLOSE; } set { _D_CLOSE = value; OnPropertyChanged("D_CLOSE"); } }</v>
       </c>
     </row>
@@ -9592,7 +9613,7 @@
         <v>private string _NKB;</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string NKB { get { return _NKB; } set { _NKB = value; OnPropertyChanged("NKB"); } }</v>
       </c>
     </row>
@@ -9640,7 +9661,7 @@
         <v>private string _KOB;</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string KOB { get { return _KOB; } set { _KOB = value; OnPropertyChanged("KOB"); } }</v>
       </c>
     </row>
@@ -9688,7 +9709,7 @@
         <v>private string _KK;</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string KK { get { return _KK; } set { _KK = value; OnPropertyChanged("KK"); } }</v>
       </c>
     </row>
@@ -9736,7 +9757,7 @@
         <v>private string _TP;</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string TP { get { return _TP; } set { _TP = value; OnPropertyChanged("TP"); } }</v>
       </c>
     </row>
@@ -9784,7 +9805,7 @@
         <v>private string _KOF;</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string KOF { get { return _KOF; } set { _KOF = value; OnPropertyChanged("KOF"); } }</v>
       </c>
     </row>
@@ -9832,7 +9853,7 @@
         <v>private string _NF;</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string NF { get { return _NF; } set { _NF = value; OnPropertyChanged("NF"); } }</v>
       </c>
     </row>
@@ -9880,7 +9901,7 @@
         <v>private string _KOP;</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>public string KOP { get { return _KOP; } set { _KOP = value; OnPropertyChanged("KOP"); } }</v>
       </c>
     </row>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Parse_fromDataRow" sheetId="9" r:id="rId9"/>
     <sheet name="OblastInfos" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="403">
   <si>
     <t>ClassName</t>
   </si>
@@ -1216,16 +1216,22 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string OccupName { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public string OccupNameUkr { get; set; }</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string CerfiticateNr { get; set; }</t>
-  </si>
-  <si>
-    <t>public DateTime NostrificationDate { get; set; }</t>
+    <t>public bool HasEmploymentBook { get; set; }</t>
+  </si>
+  <si>
+    <t>public EmploymentBookInfo BookReqs { get; set; }</t>
+  </si>
+  <si>
+    <t>public List&lt;EmploymentRecordInfo&gt; Records { get; set; }</t>
+  </si>
+  <si>
+    <t>EducationKindGros</t>
+  </si>
+  <si>
+    <t>BankAssociatedPersonsCode315p</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1558,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8034,10 +8040,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8774,6 +8780,44 @@
       <c r="E35" t="str">
         <f t="shared" si="8"/>
         <v>public static List&lt;EnumType&gt; WorkingHoursDayTypeList { get { return EnumType.GetEnumList(typeof(WorkingHoursDayType)); }}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ref="B36" si="9">"List"&amp;TRIM(A36)</f>
+        <v>ListEducationKindGros</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36" si="10">"public List&lt;EnumType&gt; "&amp;B36 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A36&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListEducationKindGros() { return EnumType.GetEnumList(typeof(EducationKindGros)); }</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36" si="11">A36&amp;"List"</f>
+        <v>EducationKindGrosList</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36" si="12">"public static List&lt;EnumType&gt; "&amp;D36 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A36&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; EducationKindGrosList { get { return EnumType.GetEnumList(typeof(EducationKindGros)); }}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37" si="13">"public List&lt;EnumType&gt; "&amp;B37 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; () { return EnumType.GetEnumList(typeof(BankAssociatedPersonsCode315p)); }</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37" si="14">A37&amp;"List"</f>
+        <v>BankAssociatedPersonsCode315pList</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ref="E37" si="15">"public static List&lt;EnumType&gt; "&amp;D37 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; BankAssociatedPersonsCode315pList { get { return EnumType.GetEnumList(typeof(BankAssociatedPersonsCode315p)); }}</v>
       </c>
     </row>
   </sheetData>
@@ -9203,7 +9247,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9235,11 +9279,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public string CerfiticateNr { get; set; }</v>
+        <v>public bool HasEmploymentBook { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9250,11 +9294,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -9262,32 +9306,32 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>bool</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>CerfiticateNr</v>
+        <v>HasEmploymentBook</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_CerfiticateNr</v>
+        <v>_HasEmploymentBook</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _CerfiticateNr;</v>
+        <v>private bool _HasEmploymentBook;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string CerfiticateNr { get { return _CerfiticateNr; } set { _CerfiticateNr = value; OnPropertyChanged("CerfiticateNr"); } }</v>
+        <v>public bool HasEmploymentBook { get { return _HasEmploymentBook; } set { _HasEmploymentBook = value; OnPropertyChanged("HasEmploymentBook"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime NostrificationDate { get; set; }</v>
+        <v>public EmploymentBookInfo BookReqs { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9298,7 +9342,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <f t="shared" si="5"/>
@@ -9310,32 +9354,32 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime</v>
+        <v>EmploymentBookInfo</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>NostrificationDate</v>
+        <v>BookReqs</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J2:J7" si="6">"_"&amp;I3</f>
-        <v>_NostrificationDate</v>
+        <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
+        <v>_BookReqs</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>private DateTime _NostrificationDate;</v>
+        <v>private EmploymentBookInfo _BookReqs;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>public DateTime NostrificationDate { get { return _NostrificationDate; } set { _NostrificationDate = value; OnPropertyChanged("NostrificationDate"); } }</v>
+        <v>public EmploymentBookInfo BookReqs { get { return _BookReqs; } set { _BookReqs = value; OnPropertyChanged("BookReqs"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public string OccupName { get; set; }</v>
+        <v>public List&lt;EmploymentRecordInfo&gt; Records { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9346,11 +9390,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -9358,28 +9402,28 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>List&lt;EmploymentRecordInfo&gt;</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>OccupName</v>
+        <v>Records</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="6"/>
-        <v>_OccupName</v>
+        <v>_Records</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
-        <v>private string _OccupName;</v>
+        <v>private List&lt;EmploymentRecordInfo&gt; _Records;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="4"/>
-        <v>public string OccupName { get { return _OccupName; } set { _OccupName = value; OnPropertyChanged("OccupName"); } }</v>
+        <v>public List&lt;EmploymentRecordInfo&gt; Records { get { return _Records; } set { _Records = value; OnPropertyChanged("Records"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6735,10 +6735,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6751,7 +6751,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -6807,8 +6807,12 @@
         <f>D2</f>
         <v>Не вказано</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>"public static BankingLicensedActivityInfo " &amp;C2 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType." &amp; C2 &amp; " }; } }"</f>
+        <v>public static BankingLicensedActivityInfo None { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.None }; } }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -6845,13 +6849,17 @@
         <f t="shared" ref="M3:M18" si="4">D3</f>
         <v>п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N17" si="5">"public static BankingLicensedActivityInfo " &amp;C3 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType." &amp; C3 &amp; " }; } }"</f>
+        <v>public static BankingLicensedActivityInfo PayDocsIssuance { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.PayDocsIssuance }; } }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B28" si="5">B3+1</f>
+        <f t="shared" ref="B4:B28" si="6">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -6883,13 +6891,17 @@
         <f t="shared" si="4"/>
         <v>п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo Trust { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.Trust }; } }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
       <c r="B5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -6921,13 +6933,17 @@
         <f t="shared" si="4"/>
         <v>п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo CurrencyExchange { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.CurrencyExchange }; } }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -6959,13 +6975,17 @@
         <f t="shared" si="4"/>
         <v>п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo FinanceAssetsLiabilities { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.FinanceAssetsLiabilities }; } }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -6997,13 +7017,17 @@
         <f t="shared" si="4"/>
         <v>п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo FinancialLeasing { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.FinancialLeasing }; } }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -7035,13 +7059,17 @@
         <f t="shared" si="4"/>
         <v>п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo Lending { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.Lending }; } }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -7073,13 +7101,17 @@
         <f t="shared" si="4"/>
         <v>п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo Guarantees { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.Guarantees }; } }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="B10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -7111,13 +7143,17 @@
         <f t="shared" si="4"/>
         <v>п.8 переказ коштів (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo FundsTransfer { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.FundsTransfer }; } }</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -7149,13 +7185,17 @@
         <f t="shared" si="4"/>
         <v>п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo InsuranceAndPensionSavings { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.InsuranceAndPensionSavings }; } }</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -7187,13 +7227,17 @@
         <f t="shared" si="4"/>
         <v>п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo StockExchangeActivities { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.StockExchangeActivities }; } }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
       <c r="B13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -7225,13 +7269,17 @@
         <f t="shared" si="4"/>
         <v>п.11 факторинг (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo Factoring { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.Factoring }; } }</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>169</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -7263,13 +7311,17 @@
         <f t="shared" si="4"/>
         <v>п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo FinAssetsAdministeringGroupsPurchase { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.FinAssetsAdministeringGroupsPurchase }; } }</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>169</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="C15" t="s">
@@ -7301,13 +7353,17 @@
         <f t="shared" si="4"/>
         <v>п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo ConstructionAssetsManagement { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.ConstructionAssetsManagement }; } }</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>169</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -7339,13 +7395,17 @@
         <f t="shared" si="4"/>
         <v>п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo MortgageSecuritiesMngtIssue { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.MortgageSecuritiesMngtIssue }; } }</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>169</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -7377,8 +7437,12 @@
         <f t="shared" si="4"/>
         <v>п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>public static BankingLicensedActivityInfo OtherFinBankServices { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.OtherFinBankServices }; } }</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -7414,13 +7478,17 @@
         <f t="shared" si="4"/>
         <v>Не вказано</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f>"public static BankingLicensedActivityInfo " &amp;C18 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C18 &amp; " }; } }"</f>
+        <v>public static BankingLicensedActivityInfo None { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.None }; } }</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -7430,35 +7498,39 @@
         <v>208</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E28" si="6">C19&amp; " = " &amp;B19</f>
+        <f t="shared" ref="E19:E28" si="7">C19&amp; " = " &amp;B19</f>
         <v>DepositsTaking = 1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19:F28" si="7">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F19:F28" si="8">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G28" si="8">F19&amp;E19 &amp;","</f>
+        <f t="shared" ref="G19:G28" si="9">F19&amp;E19 &amp;","</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
       <c r="J19" t="s">
         <v>344</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:K28" si="9">C19</f>
+        <f t="shared" ref="K19:K28" si="10">C19</f>
         <v>DepositsTaking</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19:M28" si="10">D19</f>
+        <f t="shared" ref="M19:M28" si="11">D19</f>
         <v>п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f t="shared" ref="N19:N28" si="12">"public static BankingLicensedActivityInfo " &amp;C19 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C19 &amp; " }; } }"</f>
+        <v>public static BankingLicensedActivityInfo DepositsTaking { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositsTaking }; } }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -7468,35 +7540,39 @@
         <v>209</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>AccountsMgmt = 2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
       <c r="J20" t="s">
         <v>344</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>AccountsMgmt</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo AccountsMgmt { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.AccountsMgmt }; } }</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -7506,35 +7582,39 @@
         <v>210</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>DepositedFundsPlacement = 3</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
       <c r="J21" t="s">
         <v>344</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>DepositedFundsPlacement</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo DepositedFundsPlacement { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositedFundsPlacement }; } }</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -7544,35 +7624,39 @@
         <v>211</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Investments = 4</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
       <c r="J22" t="s">
         <v>344</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Investments</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo Investments { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Investments }; } }</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -7582,35 +7666,39 @@
         <v>212</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ProprietarySecuritiesIssue = 5</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
       <c r="J23" t="s">
         <v>344</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ProprietarySecuritiesIssue</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo ProprietarySecuritiesIssue { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ProprietarySecuritiesIssue }; } }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C24" t="s">
@@ -7620,35 +7708,39 @@
         <v>213</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lotteries = 6</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
       <c r="J24" t="s">
         <v>344</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Lotteries</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo Lotteries { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Lotteries }; } }</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -7658,35 +7750,39 @@
         <v>214</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>SafeCustody = 7</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
       <c r="J25" t="s">
         <v>344</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>SafeCustody</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo SafeCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SafeCustody }; } }</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C26" t="s">
@@ -7700,31 +7796,35 @@
         <v>CashCollectionTransportation = 8</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
       <c r="J26" t="s">
         <v>344</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>CashCollectionTransportation</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo CashCollectionTransportation { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.CashCollectionTransportation }; } }</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>170</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C27" t="s">
@@ -7738,31 +7838,35 @@
         <v>SecuritiesCustody = 9</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
       <c r="J27" t="s">
         <v>344</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>SecuritiesCustody</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo SecuritiesCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SecuritiesCustody }; } }</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C28" t="s">
@@ -7772,30 +7876,34 @@
         <v>217</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ConsultancyOnBankFinServices = 10</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
       <c r="J28" t="s">
         <v>344</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ConsultancyOnBankFinServices</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f t="shared" si="12"/>
+        <v>public static BankingLicensedActivityInfo ConsultancyOnBankFinServices { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ConsultancyOnBankFinServices }; } }</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -7809,19 +7917,19 @@
         <v>228</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E37" si="11">C29&amp; " = " &amp;B29</f>
+        <f t="shared" ref="E29:E37" si="13">C29&amp; " = " &amp;B29</f>
         <v>BankControllers = 521</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29:F37" si="12">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F29:F37" si="14">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("Контролери банку")]</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G37" si="13">F29&amp;E29 &amp;","</f>
+        <f t="shared" ref="G29:G37" si="15">F29&amp;E29 &amp;","</f>
         <v>[Description("Контролери банку")]BankControllers = 521,</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>237</v>
       </c>
@@ -7835,19 +7943,19 @@
         <v>229</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>SignificantOwners = 522</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]SignificantOwners = 522,</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -7861,19 +7969,19 @@
         <v>230</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>BankMgrsEtc = 523</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]BankMgrsEtc = 523,</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -7887,15 +7995,15 @@
         <v>231</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Affiliated = 524</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]Affiliated = 524,</v>
       </c>
     </row>
@@ -7913,15 +8021,15 @@
         <v>232</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>AffiliatedSignOwners = 525</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]AffiliatedSignOwners = 525,</v>
       </c>
     </row>
@@ -7939,15 +8047,15 @@
         <v>233</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>AffiliatedMgrsEtc = 526</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]AffiliatedMgrsEtc = 526,</v>
       </c>
     </row>
@@ -7965,15 +8073,15 @@
         <v>234</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>AssocPersonsArt52pp16 = 527</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]AssocPersonsArt52pp16 = 527,</v>
       </c>
     </row>
@@ -7991,15 +8099,15 @@
         <v>235</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Art52MgrsSignOwnersLPs = 528</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]Art52MgrsSignOwnersLPs = 528,</v>
       </c>
     </row>
@@ -8017,15 +8125,15 @@
         <v>236</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>AnyPersonInfluencingArt52 = 529</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]AnyPersonInfluencingArt52 = 529,</v>
       </c>
     </row>
@@ -8042,7 +8150,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="440">
   <si>
     <t>ClassName</t>
   </si>
@@ -1232,6 +1232,117 @@
   </si>
   <si>
     <t>BankAssociatedPersonsCode315p</t>
+  </si>
+  <si>
+    <t>неторговельні операції з валютними цінностями</t>
+  </si>
+  <si>
+    <t>операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків</t>
+  </si>
+  <si>
+    <t>операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами</t>
+  </si>
+  <si>
+    <t>ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України</t>
+  </si>
+  <si>
+    <t>ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті</t>
+  </si>
+  <si>
+    <t>ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України</t>
+  </si>
+  <si>
+    <t>відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними</t>
+  </si>
+  <si>
+    <t>відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними</t>
+  </si>
+  <si>
+    <t>залучення та розміщення іноземної валюти на валютному ринку України</t>
+  </si>
+  <si>
+    <t>залучення та розміщення іноземної валюти на міжнародних ринках</t>
+  </si>
+  <si>
+    <t>торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]</t>
+  </si>
+  <si>
+    <t>торгівля іноземною валютою на міжнародних ринках</t>
+  </si>
+  <si>
+    <t>залучення та розміщення банківських металів на валютному ринку України</t>
+  </si>
+  <si>
+    <t>залучення та розміщення банківських металів на міжнародних ринках</t>
+  </si>
+  <si>
+    <t>торгівля банківськими металами на валютному ринку України</t>
+  </si>
+  <si>
+    <t>торгівля банківськими металами на міжнародних ринках</t>
+  </si>
+  <si>
+    <t>валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281</t>
+  </si>
+  <si>
+    <t>валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281</t>
+  </si>
+  <si>
+    <t>GeneralFXLicenseActivityType</t>
+  </si>
+  <si>
+    <t>GFX_NonTrade</t>
+  </si>
+  <si>
+    <t>GFX_CashBankOps</t>
+  </si>
+  <si>
+    <t>GFX_CashAgentOps</t>
+  </si>
+  <si>
+    <t>GFX_AcctMgmt</t>
+  </si>
+  <si>
+    <t>GFX_CorrBkAcctMgmtFCCY</t>
+  </si>
+  <si>
+    <t>GFX_CorrBkAcctMgmtLCCY</t>
+  </si>
+  <si>
+    <t>GFX_CorrAcctHaveInUABksFCCY</t>
+  </si>
+  <si>
+    <t>GFX_CorrAcctHaveInNonUABksFCCY</t>
+  </si>
+  <si>
+    <t>GFX_FCCYBorrNPlaceLocalMarket</t>
+  </si>
+  <si>
+    <t>GFX_FCCYBorrNPlaceWorldMarket</t>
+  </si>
+  <si>
+    <t>GFX_FCCYTradingNonCashLocalMarket</t>
+  </si>
+  <si>
+    <t>GFX_FCCYTradingNonCashWorldMarket</t>
+  </si>
+  <si>
+    <t>GFX_BkMetalBorrNPlaceLocalMarket</t>
+  </si>
+  <si>
+    <t>GFX_BkMetalBorrNPlaceWorldMarket</t>
+  </si>
+  <si>
+    <t>GFX_BkMetalTradingLocalMarket</t>
+  </si>
+  <si>
+    <t>GFX_BkMetalTradingWorldMarket</t>
+  </si>
+  <si>
+    <t>GFX_FinSvcLocalMarket</t>
+  </si>
+  <si>
+    <t>GFX_FinSvcWorldMarket</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6735,10 +6846,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6785,7 +6896,7 @@
         <v>190</v>
       </c>
       <c r="E2" t="str">
-        <f>C2&amp; " = " &amp;B2</f>
+        <f>C2&amp; IF(LEN(B2)&gt;0," = " &amp;B2, "")</f>
         <v>None = 0</v>
       </c>
       <c r="F2" t="str">
@@ -6827,7 +6938,7 @@
         <v>174</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="0">C3&amp; " = " &amp;B3</f>
+        <f t="shared" ref="E3:E56" si="0">C3&amp; IF(LEN(B3)&gt;0," = " &amp;B3, "")</f>
         <v>PayDocsIssuance = 1</v>
       </c>
       <c r="F3" t="str">
@@ -7456,7 +7567,7 @@
         <v>190</v>
       </c>
       <c r="E18" t="str">
-        <f>C18&amp; " = " &amp;B18</f>
+        <f t="shared" si="0"/>
         <v>None = 0</v>
       </c>
       <c r="F18" t="str">
@@ -7498,30 +7609,30 @@
         <v>208</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E28" si="7">C19&amp; " = " &amp;B19</f>
+        <f t="shared" si="0"/>
         <v>DepositsTaking = 1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19:F28" si="8">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F19:F28" si="7">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G28" si="9">F19&amp;E19 &amp;","</f>
+        <f t="shared" ref="G19:G28" si="8">F19&amp;E19 &amp;","</f>
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
       <c r="J19" t="s">
         <v>344</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:K28" si="10">C19</f>
+        <f t="shared" ref="K19:K28" si="9">C19</f>
         <v>DepositsTaking</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19:M28" si="11">D19</f>
+        <f t="shared" ref="M19:M28" si="10">D19</f>
         <v>п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ref="N19:N28" si="12">"public static BankingLicensedActivityInfo " &amp;C19 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C19 &amp; " }; } }"</f>
+        <f t="shared" ref="N19:N28" si="11">"public static BankingLicensedActivityInfo " &amp;C19 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C19 &amp; " }; } }"</f>
         <v>public static BankingLicensedActivityInfo DepositsTaking { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositsTaking }; } }</v>
       </c>
     </row>
@@ -7540,30 +7651,30 @@
         <v>209</v>
       </c>
       <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>AccountsMgmt = 2</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="7"/>
-        <v>AccountsMgmt = 2</v>
-      </c>
-      <c r="F20" t="str">
+        <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
       <c r="J20" t="s">
         <v>344</v>
       </c>
       <c r="K20" t="str">
+        <f t="shared" si="9"/>
+        <v>AccountsMgmt</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="10"/>
-        <v>AccountsMgmt</v>
-      </c>
-      <c r="M20" t="str">
+        <v>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="11"/>
-        <v>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo AccountsMgmt { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.AccountsMgmt }; } }</v>
       </c>
     </row>
@@ -7582,30 +7693,30 @@
         <v>210</v>
       </c>
       <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>DepositedFundsPlacement = 3</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="7"/>
-        <v>DepositedFundsPlacement = 3</v>
-      </c>
-      <c r="F21" t="str">
+        <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
       <c r="J21" t="s">
         <v>344</v>
       </c>
       <c r="K21" t="str">
+        <f t="shared" si="9"/>
+        <v>DepositedFundsPlacement</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="10"/>
-        <v>DepositedFundsPlacement</v>
-      </c>
-      <c r="M21" t="str">
+        <v>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="11"/>
-        <v>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo DepositedFundsPlacement { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositedFundsPlacement }; } }</v>
       </c>
     </row>
@@ -7624,30 +7735,30 @@
         <v>211</v>
       </c>
       <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Investments = 4</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="7"/>
-        <v>Investments = 4</v>
-      </c>
-      <c r="F22" t="str">
+        <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
       <c r="J22" t="s">
         <v>344</v>
       </c>
       <c r="K22" t="str">
+        <f t="shared" si="9"/>
+        <v>Investments</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="10"/>
-        <v>Investments</v>
-      </c>
-      <c r="M22" t="str">
+        <v>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="11"/>
-        <v>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo Investments { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Investments }; } }</v>
       </c>
     </row>
@@ -7666,30 +7777,30 @@
         <v>212</v>
       </c>
       <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>ProprietarySecuritiesIssue = 5</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="7"/>
-        <v>ProprietarySecuritiesIssue = 5</v>
-      </c>
-      <c r="F23" t="str">
+        <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
       <c r="J23" t="s">
         <v>344</v>
       </c>
       <c r="K23" t="str">
+        <f t="shared" si="9"/>
+        <v>ProprietarySecuritiesIssue</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="10"/>
-        <v>ProprietarySecuritiesIssue</v>
-      </c>
-      <c r="M23" t="str">
+        <v>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="11"/>
-        <v>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo ProprietarySecuritiesIssue { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ProprietarySecuritiesIssue }; } }</v>
       </c>
     </row>
@@ -7708,30 +7819,30 @@
         <v>213</v>
       </c>
       <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lotteries = 6</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="7"/>
-        <v>Lotteries = 6</v>
-      </c>
-      <c r="F24" t="str">
+        <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
       <c r="J24" t="s">
         <v>344</v>
       </c>
       <c r="K24" t="str">
+        <f t="shared" si="9"/>
+        <v>Lotteries</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="10"/>
-        <v>Lotteries</v>
-      </c>
-      <c r="M24" t="str">
+        <v>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="11"/>
-        <v>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo Lotteries { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Lotteries }; } }</v>
       </c>
     </row>
@@ -7750,30 +7861,30 @@
         <v>214</v>
       </c>
       <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>SafeCustody = 7</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="7"/>
-        <v>SafeCustody = 7</v>
-      </c>
-      <c r="F25" t="str">
+        <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
       <c r="J25" t="s">
         <v>344</v>
       </c>
       <c r="K25" t="str">
+        <f t="shared" si="9"/>
+        <v>SafeCustody</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="10"/>
-        <v>SafeCustody</v>
-      </c>
-      <c r="M25" t="str">
+        <v>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="11"/>
-        <v>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo SafeCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SafeCustody }; } }</v>
       </c>
     </row>
@@ -7792,30 +7903,30 @@
         <v>215</v>
       </c>
       <c r="E26" t="str">
-        <f>C26&amp; " = " &amp;B26</f>
+        <f t="shared" si="0"/>
         <v>CashCollectionTransportation = 8</v>
       </c>
       <c r="F26" t="str">
+        <f t="shared" si="7"/>
+        <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
       <c r="J26" t="s">
         <v>344</v>
       </c>
       <c r="K26" t="str">
+        <f t="shared" si="9"/>
+        <v>CashCollectionTransportation</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="10"/>
-        <v>CashCollectionTransportation</v>
-      </c>
-      <c r="M26" t="str">
+        <v>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="11"/>
-        <v>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo CashCollectionTransportation { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.CashCollectionTransportation }; } }</v>
       </c>
     </row>
@@ -7834,30 +7945,30 @@
         <v>216</v>
       </c>
       <c r="E27" t="str">
-        <f>C27&amp; " = " &amp;B27</f>
+        <f t="shared" si="0"/>
         <v>SecuritiesCustody = 9</v>
       </c>
       <c r="F27" t="str">
+        <f t="shared" si="7"/>
+        <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
       <c r="J27" t="s">
         <v>344</v>
       </c>
       <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>SecuritiesCustody</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="10"/>
-        <v>SecuritiesCustody</v>
-      </c>
-      <c r="M27" t="str">
+        <v>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="11"/>
-        <v>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo SecuritiesCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SecuritiesCustody }; } }</v>
       </c>
     </row>
@@ -7876,30 +7987,30 @@
         <v>217</v>
       </c>
       <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>ConsultancyOnBankFinServices = 10</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="7"/>
-        <v>ConsultancyOnBankFinServices = 10</v>
-      </c>
-      <c r="F28" t="str">
+        <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="8"/>
-        <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="9"/>
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
       <c r="J28" t="s">
         <v>344</v>
       </c>
       <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>ConsultancyOnBankFinServices</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="10"/>
-        <v>ConsultancyOnBankFinServices</v>
-      </c>
-      <c r="M28" t="str">
+        <v>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="11"/>
-        <v>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="12"/>
         <v>public static BankingLicensedActivityInfo ConsultancyOnBankFinServices { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ConsultancyOnBankFinServices }; } }</v>
       </c>
     </row>
@@ -7917,15 +8028,15 @@
         <v>228</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E37" si="13">C29&amp; " = " &amp;B29</f>
+        <f t="shared" si="0"/>
         <v>BankControllers = 521</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29:F37" si="14">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F29:F38" si="12">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("Контролери банку")]</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G37" si="15">F29&amp;E29 &amp;","</f>
+        <f t="shared" ref="G29:G38" si="13">F29&amp;E29 &amp;","</f>
         <v>[Description("Контролери банку")]BankControllers = 521,</v>
       </c>
     </row>
@@ -7943,15 +8054,15 @@
         <v>229</v>
       </c>
       <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>SignificantOwners = 522</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="13"/>
-        <v>SignificantOwners = 522</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]SignificantOwners = 522,</v>
       </c>
     </row>
@@ -7969,15 +8080,15 @@
         <v>230</v>
       </c>
       <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>BankMgrsEtc = 523</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="13"/>
-        <v>BankMgrsEtc = 523</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]BankMgrsEtc = 523,</v>
       </c>
     </row>
@@ -7995,15 +8106,15 @@
         <v>231</v>
       </c>
       <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Affiliated = 524</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="13"/>
-        <v>Affiliated = 524</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]Affiliated = 524,</v>
       </c>
     </row>
@@ -8021,15 +8132,15 @@
         <v>232</v>
       </c>
       <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>AffiliatedSignOwners = 525</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="13"/>
-        <v>AffiliatedSignOwners = 525</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]AffiliatedSignOwners = 525,</v>
       </c>
     </row>
@@ -8047,15 +8158,15 @@
         <v>233</v>
       </c>
       <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>AffiliatedMgrsEtc = 526</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="13"/>
-        <v>AffiliatedMgrsEtc = 526</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]AffiliatedMgrsEtc = 526,</v>
       </c>
     </row>
@@ -8073,15 +8184,15 @@
         <v>234</v>
       </c>
       <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>AssocPersonsArt52pp16 = 527</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="13"/>
-        <v>AssocPersonsArt52pp16 = 527</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]AssocPersonsArt52pp16 = 527,</v>
       </c>
     </row>
@@ -8099,15 +8210,15 @@
         <v>235</v>
       </c>
       <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Art52MgrsSignOwnersLPs = 528</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="13"/>
-        <v>Art52MgrsSignOwnersLPs = 528</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]Art52MgrsSignOwnersLPs = 528,</v>
       </c>
     </row>
@@ -8125,16 +8236,312 @@
         <v>236</v>
       </c>
       <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>AnyPersonInfluencingArt52 = 529</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="13"/>
-        <v>AnyPersonInfluencingArt52 = 529</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]AnyPersonInfluencingArt52 = 529,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>None = 0</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="12"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_NonTrade</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CashBankOps</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CashAgentOps</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>421</v>
+      </c>
+      <c r="C42" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_AcctMgmt</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C43" t="s">
+        <v>426</v>
+      </c>
+      <c r="D43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrBkAcctMgmtFCCY</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D44" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrBkAcctMgmtLCCY</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" t="s">
+        <v>409</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrAcctHaveInUABksFCCY</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
+      <c r="D46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrAcctHaveInNonUABksFCCY</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYBorrNPlaceLocalMarket</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48" t="s">
+        <v>431</v>
+      </c>
+      <c r="D48" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYBorrNPlaceWorldMarket</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" t="s">
+        <v>413</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYTradingNonCashLocalMarket</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" t="s">
+        <v>433</v>
+      </c>
+      <c r="D50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYTradingNonCashWorldMarket</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" t="s">
+        <v>415</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalBorrNPlaceLocalMarket</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
+      <c r="D52" t="s">
+        <v>416</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalBorrNPlaceWorldMarket</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" t="s">
+        <v>436</v>
+      </c>
+      <c r="D53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalTradingLocalMarket</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
+      <c r="D54" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalTradingWorldMarket</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" t="s">
+        <v>419</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FinSvcLocalMarket</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C56" t="s">
+        <v>439</v>
+      </c>
+      <c r="D56" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FinSvcWorldMarket</v>
       </c>
     </row>
   </sheetData>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="460">
   <si>
     <t>ClassName</t>
   </si>
@@ -1343,6 +1343,66 @@
   </si>
   <si>
     <t>GFX_FinSvcWorldMarket</t>
+  </si>
+  <si>
+    <t>ProfessionalStockMarketActivityType</t>
+  </si>
+  <si>
+    <t>діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>SMSecuritiesTrading</t>
+  </si>
+  <si>
+    <t>SMInstInvAssetsMgmt</t>
+  </si>
+  <si>
+    <t>SMDepositoryActivities</t>
+  </si>
+  <si>
+    <t>SMTradeOrganization</t>
+  </si>
+  <si>
+    <t>SMClearing</t>
+  </si>
+  <si>
+    <t>ProfessionalStockMarketActivitySubType</t>
+  </si>
+  <si>
+    <t>брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)</t>
+  </si>
+  <si>
+    <t>SMTBrokerage</t>
+  </si>
+  <si>
+    <t>SMTDealership</t>
+  </si>
+  <si>
+    <t>SMTUnderwriting</t>
+  </si>
+  <si>
+    <t>SMTSecuritiesMgmt</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6846,10 +6906,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,7 +6998,7 @@
         <v>174</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E56" si="0">C3&amp; IF(LEN(B3)&gt;0," = " &amp;B3, "")</f>
+        <f t="shared" ref="E3:E66" si="0">C3&amp; IF(LEN(B3)&gt;0," = " &amp;B3, "")</f>
         <v>PayDocsIssuance = 1</v>
       </c>
       <c r="F3" t="str">
@@ -8288,6 +8348,14 @@
         <f t="shared" si="0"/>
         <v>GFX_NonTrade</v>
       </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F67" si="14">"[Description(" &amp; CHAR(34) &amp; D39&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("неторговельні операції з валютними цінностями")]</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G67" si="15">F39&amp;E39 &amp;","</f>
+        <v>[Description("неторговельні операції з валютними цінностями")]GFX_NonTrade,</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -8303,6 +8371,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CashBankOps</v>
       </c>
+      <c r="F40" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]GFX_CashBankOps,</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -8318,6 +8394,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CashAgentOps</v>
       </c>
+      <c r="F41" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]GFX_CashAgentOps,</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -8333,6 +8417,14 @@
         <f t="shared" si="0"/>
         <v>GFX_AcctMgmt</v>
       </c>
+      <c r="F42" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]GFX_AcctMgmt,</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8348,6 +8440,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CorrBkAcctMgmtFCCY</v>
       </c>
+      <c r="F43" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]GFX_CorrBkAcctMgmtFCCY,</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8363,6 +8463,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CorrBkAcctMgmtLCCY</v>
       </c>
+      <c r="F44" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]GFX_CorrBkAcctMgmtLCCY,</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8378,6 +8486,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CorrAcctHaveInUABksFCCY</v>
       </c>
+      <c r="F45" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInUABksFCCY,</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8393,6 +8509,14 @@
         <f t="shared" si="0"/>
         <v>GFX_CorrAcctHaveInNonUABksFCCY</v>
       </c>
+      <c r="F46" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInNonUABksFCCY,</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -8408,6 +8532,14 @@
         <f t="shared" si="0"/>
         <v>GFX_FCCYBorrNPlaceLocalMarket</v>
       </c>
+      <c r="F47" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]GFX_FCCYBorrNPlaceLocalMarket,</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -8423,8 +8555,16 @@
         <f t="shared" si="0"/>
         <v>GFX_FCCYBorrNPlaceWorldMarket</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]GFX_FCCYBorrNPlaceWorldMarket,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>421</v>
       </c>
@@ -8438,8 +8578,16 @@
         <f t="shared" si="0"/>
         <v>GFX_FCCYTradingNonCashLocalMarket</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]GFX_FCCYTradingNonCashLocalMarket,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>421</v>
       </c>
@@ -8453,8 +8601,16 @@
         <f t="shared" si="0"/>
         <v>GFX_FCCYTradingNonCashWorldMarket</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]GFX_FCCYTradingNonCashWorldMarket,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>421</v>
       </c>
@@ -8468,8 +8624,16 @@
         <f t="shared" si="0"/>
         <v>GFX_BkMetalBorrNPlaceLocalMarket</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]GFX_BkMetalBorrNPlaceLocalMarket,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>421</v>
       </c>
@@ -8483,8 +8647,16 @@
         <f t="shared" si="0"/>
         <v>GFX_BkMetalBorrNPlaceWorldMarket</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]GFX_BkMetalBorrNPlaceWorldMarket,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>421</v>
       </c>
@@ -8498,8 +8670,16 @@
         <f t="shared" si="0"/>
         <v>GFX_BkMetalTradingLocalMarket</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("торгівля банківськими металами на валютному ринку України")]</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("торгівля банківськими металами на валютному ринку України")]GFX_BkMetalTradingLocalMarket,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>421</v>
       </c>
@@ -8513,8 +8693,16 @@
         <f t="shared" si="0"/>
         <v>GFX_BkMetalTradingWorldMarket</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("торгівля банківськими металами на міжнародних ринках")]</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("торгівля банківськими металами на міжнародних ринках")]GFX_BkMetalTradingWorldMarket,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>421</v>
       </c>
@@ -8528,8 +8716,16 @@
         <f t="shared" si="0"/>
         <v>GFX_FinSvcLocalMarket</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcLocalMarket,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>421</v>
       </c>
@@ -8542,6 +8738,273 @@
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>GFX_FinSvcWorldMarket</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcWorldMarket,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>None = 0</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" t="s">
+        <v>441</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>SMSecuritiesTrading</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]SMSecuritiesTrading,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>440</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" t="s">
+        <v>442</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>SMInstInvAssetsMgmt</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]SMInstInvAssetsMgmt,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" t="s">
+        <v>448</v>
+      </c>
+      <c r="D60" t="s">
+        <v>443</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>SMDepositoryActivities</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]SMDepositoryActivities,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" t="s">
+        <v>444</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>SMTradeOrganization</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]SMTradeOrganization,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" t="s">
+        <v>450</v>
+      </c>
+      <c r="D62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>SMClearing</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]SMClearing,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>None = 0</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" t="s">
+        <v>456</v>
+      </c>
+      <c r="D64" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>SMTBrokerage</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTBrokerage,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>451</v>
+      </c>
+      <c r="C65" t="s">
+        <v>457</v>
+      </c>
+      <c r="D65" t="s">
+        <v>453</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>SMTDealership</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTDealership,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" t="s">
+        <v>458</v>
+      </c>
+      <c r="D66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>SMTUnderwriting</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTUnderwriting,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>451</v>
+      </c>
+      <c r="C67" t="s">
+        <v>459</v>
+      </c>
+      <c r="D67" t="s">
+        <v>455</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67" si="16">C67&amp; IF(LEN(B67)&gt;0," = " &amp;B67, "")</f>
+        <v>SMTSecuritiesMgmt</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="15"/>
+        <v>[Description("діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTSecuritiesMgmt,</v>
       </c>
     </row>
   </sheetData>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="NotifyPropertyChanged" sheetId="8" r:id="rId8"/>
     <sheet name="Parse_fromDataRow" sheetId="9" r:id="rId9"/>
     <sheet name="OblastInfos" sheetId="10" r:id="rId10"/>
+    <sheet name="OldNew" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="592">
   <si>
     <t>ClassName</t>
   </si>
@@ -1219,9 +1220,6 @@
     <t xml:space="preserve">        public string OccupNameUkr { get; set; }</t>
   </si>
   <si>
-    <t>public bool HasEmploymentBook { get; set; }</t>
-  </si>
-  <si>
     <t>public EmploymentBookInfo BookReqs { get; set; }</t>
   </si>
   <si>
@@ -1403,6 +1401,405 @@
   </si>
   <si>
     <t>SMTSecuritiesMgmt</t>
+  </si>
+  <si>
+    <t>public EKDRBUVariableEntryPartV1 VariablePart { get; set; }</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>NameFull</t>
+  </si>
+  <si>
+    <t>NameShort</t>
+  </si>
+  <si>
+    <t>NamePrint</t>
+  </si>
+  <si>
+    <t>NameSEP</t>
+  </si>
+  <si>
+    <t>NameStats</t>
+  </si>
+  <si>
+    <t>MFO</t>
+  </si>
+  <si>
+    <t>YeDRPOU</t>
+  </si>
+  <si>
+    <t>RegNr</t>
+  </si>
+  <si>
+    <t>InternalNr</t>
+  </si>
+  <si>
+    <t>BranchNrInternal</t>
+  </si>
+  <si>
+    <t>KOATUU</t>
+  </si>
+  <si>
+    <t>DialCode</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>MgrPosition</t>
+  </si>
+  <si>
+    <t>MgrCountryISO3Code</t>
+  </si>
+  <si>
+    <t>MgrCountryNameUkr</t>
+  </si>
+  <si>
+    <t>MgrSurname</t>
+  </si>
+  <si>
+    <t>MgrName</t>
+  </si>
+  <si>
+    <t>MgrMiddleName</t>
+  </si>
+  <si>
+    <t>MgrSurnameAtBirth</t>
+  </si>
+  <si>
+    <t>MgrTaxOrSocSecID</t>
+  </si>
+  <si>
+    <t>MgrPassportID</t>
+  </si>
+  <si>
+    <t>DateTime?</t>
+  </si>
+  <si>
+    <t>MgrPassIssuedDate</t>
+  </si>
+  <si>
+    <t>IsParentIDChanged</t>
+  </si>
+  <si>
+    <t>ParentIDOld</t>
+  </si>
+  <si>
+    <t>IsNameFullChanged</t>
+  </si>
+  <si>
+    <t>NameFullOld</t>
+  </si>
+  <si>
+    <t>IsNameShortChanged</t>
+  </si>
+  <si>
+    <t>NameShortOld</t>
+  </si>
+  <si>
+    <t>IsNamePrintChanged</t>
+  </si>
+  <si>
+    <t>NamePrintOld</t>
+  </si>
+  <si>
+    <t>IsNameSEPChanged</t>
+  </si>
+  <si>
+    <t>NameSEPOld</t>
+  </si>
+  <si>
+    <t>IsNameStatsChanged</t>
+  </si>
+  <si>
+    <t>NameStatsOld</t>
+  </si>
+  <si>
+    <t>IsMFOChanged</t>
+  </si>
+  <si>
+    <t>MFOOld</t>
+  </si>
+  <si>
+    <t>IsYeDRPOUChanged</t>
+  </si>
+  <si>
+    <t>YeDRPOUOld</t>
+  </si>
+  <si>
+    <t>IsRegNrChanged</t>
+  </si>
+  <si>
+    <t>RegNrOld</t>
+  </si>
+  <si>
+    <t>IsInternalNrChanged</t>
+  </si>
+  <si>
+    <t>InternalNrOld</t>
+  </si>
+  <si>
+    <t>IsBranchNrInternalChanged</t>
+  </si>
+  <si>
+    <t>BranchNrInternalOld</t>
+  </si>
+  <si>
+    <t>IsKOATUUChanged</t>
+  </si>
+  <si>
+    <t>KOATUUOld</t>
+  </si>
+  <si>
+    <t>IsDialCodeChanged</t>
+  </si>
+  <si>
+    <t>DialCodeOld</t>
+  </si>
+  <si>
+    <t>IsFaxChanged</t>
+  </si>
+  <si>
+    <t>FaxOld</t>
+  </si>
+  <si>
+    <t>IsEmailChanged</t>
+  </si>
+  <si>
+    <t>EmailOld</t>
+  </si>
+  <si>
+    <t>IswwwChanged</t>
+  </si>
+  <si>
+    <t>wwwOld</t>
+  </si>
+  <si>
+    <t>IsMgrPositionChanged</t>
+  </si>
+  <si>
+    <t>MgrPositionOld</t>
+  </si>
+  <si>
+    <t>IsMgrCountryISO3CodeChanged</t>
+  </si>
+  <si>
+    <t>MgrCountryISO3CodeOld</t>
+  </si>
+  <si>
+    <t>IsMgrCountryNameUkrChanged</t>
+  </si>
+  <si>
+    <t>MgrCountryNameUkrOld</t>
+  </si>
+  <si>
+    <t>IsMgrSurnameChanged</t>
+  </si>
+  <si>
+    <t>MgrSurnameOld</t>
+  </si>
+  <si>
+    <t>IsMgrNameChanged</t>
+  </si>
+  <si>
+    <t>MgrNameOld</t>
+  </si>
+  <si>
+    <t>IsMgrMiddleNameChanged</t>
+  </si>
+  <si>
+    <t>MgrMiddleNameOld</t>
+  </si>
+  <si>
+    <t>IsMgrSurnameAtBirthChanged</t>
+  </si>
+  <si>
+    <t>MgrSurnameAtBirthOld</t>
+  </si>
+  <si>
+    <t>IsMgrTaxOrSocSecIDChanged</t>
+  </si>
+  <si>
+    <t>MgrTaxOrSocSecIDOld</t>
+  </si>
+  <si>
+    <t>IsMgrPassportIDChanged</t>
+  </si>
+  <si>
+    <t>MgrPassportIDOld</t>
+  </si>
+  <si>
+    <t>IsMgrPassIssuedDateChanged</t>
+  </si>
+  <si>
+    <t>MgrPassIssuedDateOld</t>
+  </si>
+  <si>
+    <t>ParentIDNew</t>
+  </si>
+  <si>
+    <t>NameFullNew</t>
+  </si>
+  <si>
+    <t>NameShortNew</t>
+  </si>
+  <si>
+    <t>NamePrintNew</t>
+  </si>
+  <si>
+    <t>NameSEPNew</t>
+  </si>
+  <si>
+    <t>NameStatsNew</t>
+  </si>
+  <si>
+    <t>MFONew</t>
+  </si>
+  <si>
+    <t>YeDRPOUNew</t>
+  </si>
+  <si>
+    <t>RegNrNew</t>
+  </si>
+  <si>
+    <t>InternalNrNew</t>
+  </si>
+  <si>
+    <t>BranchNrInternalNew</t>
+  </si>
+  <si>
+    <t>KOATUUNew</t>
+  </si>
+  <si>
+    <t>DialCodeNew</t>
+  </si>
+  <si>
+    <t>FaxNew</t>
+  </si>
+  <si>
+    <t>EmailNew</t>
+  </si>
+  <si>
+    <t>wwwNew</t>
+  </si>
+  <si>
+    <t>MgrPositionNew</t>
+  </si>
+  <si>
+    <t>MgrCountryISO3CodeNew</t>
+  </si>
+  <si>
+    <t>MgrCountryNameUkrNew</t>
+  </si>
+  <si>
+    <t>MgrSurnameNew</t>
+  </si>
+  <si>
+    <t>MgrNameNew</t>
+  </si>
+  <si>
+    <t>MgrMiddleNameNew</t>
+  </si>
+  <si>
+    <t>MgrSurnameAtBirthNew</t>
+  </si>
+  <si>
+    <t>MgrTaxOrSocSecIDNew</t>
+  </si>
+  <si>
+    <t>MgrPassportIDNew</t>
+  </si>
+  <si>
+    <t>MgrPassIssuedDateNew</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Raion</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>HouseNr</t>
+  </si>
+  <si>
+    <t>ApptOfficeNr</t>
+  </si>
+  <si>
+    <t>IsRaionChanged</t>
+  </si>
+  <si>
+    <t>RaionNew</t>
+  </si>
+  <si>
+    <t>RaionOld</t>
+  </si>
+  <si>
+    <t>IsZipCodeChanged</t>
+  </si>
+  <si>
+    <t>ZipCodeNew</t>
+  </si>
+  <si>
+    <t>ZipCodeOld</t>
+  </si>
+  <si>
+    <t>IsCityChanged</t>
+  </si>
+  <si>
+    <t>CityNew</t>
+  </si>
+  <si>
+    <t>CityOld</t>
+  </si>
+  <si>
+    <t>IsStreetChanged</t>
+  </si>
+  <si>
+    <t>StreetNew</t>
+  </si>
+  <si>
+    <t>StreetOld</t>
+  </si>
+  <si>
+    <t>IsHouseNrChanged</t>
+  </si>
+  <si>
+    <t>HouseNrNew</t>
+  </si>
+  <si>
+    <t>HouseNrOld</t>
+  </si>
+  <si>
+    <t>IsApptOfficeNrChanged</t>
+  </si>
+  <si>
+    <t>ApptOfficeNrNew</t>
+  </si>
+  <si>
+    <t>ApptOfficeNrOld</t>
   </si>
 </sst>
 </file>
@@ -2547,6 +2944,669 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Is" &amp; B2 &amp;"Changed"</f>
+        <v>IsParentIDChanged</v>
+      </c>
+      <c r="D2" t="str">
+        <f>B2&amp;"New"</f>
+        <v>ParentIDNew</v>
+      </c>
+      <c r="E2" t="str">
+        <f>B2&amp;"Old"</f>
+        <v>ParentIDOld</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C33" si="0">"Is" &amp; B3 &amp;"Changed"</f>
+        <v>IsNameFullChanged</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D27" si="1">B3&amp;"New"</f>
+        <v>NameFullNew</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E27" si="2">B3&amp;"Old"</f>
+        <v>NameFullOld</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>IsNameShortChanged</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>NameShortNew</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>NameShortOld</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>IsNamePrintChanged</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>NamePrintNew</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>NamePrintOld</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>IsNameSEPChanged</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>NameSEPNew</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>NameSEPOld</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>IsNameStatsChanged</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>NameStatsNew</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>NameStatsOld</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMFOChanged</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>MFONew</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>MFOOld</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>IsYeDRPOUChanged</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>YeDRPOUNew</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>YeDRPOUOld</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>IsRegNrChanged</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>RegNrNew</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>RegNrOld</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>IsInternalNrChanged</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>InternalNrNew</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>InternalNrOld</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>IsBranchNrInternalChanged</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>BranchNrInternalNew</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>BranchNrInternalOld</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>IsKOATUUChanged</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>KOATUUNew</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>KOATUUOld</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>IsDialCodeChanged</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>DialCodeNew</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>DialCodeOld</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>IsFaxChanged</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>FaxNew</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>FaxOld</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>IsEmailChanged</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>EmailNew</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>EmailOld</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>IswwwChanged</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>wwwNew</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>wwwOld</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrPositionChanged</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrPositionNew</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrPositionOld</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrCountryISO3CodeChanged</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrCountryISO3CodeNew</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrCountryISO3CodeOld</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrCountryNameUkrChanged</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrCountryNameUkrNew</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrCountryNameUkrOld</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrSurnameChanged</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrSurnameNew</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrSurnameOld</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrNameChanged</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrNameNew</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrNameOld</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrMiddleNameChanged</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrMiddleNameNew</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrMiddleNameOld</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrSurnameAtBirthChanged</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrSurnameAtBirthNew</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrSurnameAtBirthOld</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrTaxOrSocSecIDChanged</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrTaxOrSocSecIDNew</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrTaxOrSocSecIDOld</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrPassportIDChanged</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrPassportIDNew</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrPassportIDOld</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>IsMgrPassIssuedDateChanged</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>MgrPassIssuedDateNew</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>MgrPassIssuedDateOld</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>IsRaionChanged</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D33" si="3">B28&amp;"New"</f>
+        <v>RaionNew</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:E33" si="4">B28&amp;"Old"</f>
+        <v>RaionOld</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" t="s">
+        <v>569</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>IsZipCodeChanged</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>ZipCodeNew</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>ZipCodeOld</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>IsCityChanged</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>CityNew</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>CityOld</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>IsStreetChanged</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>StreetNew</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>StreetOld</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" t="s">
+        <v>572</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>IsHouseNrChanged</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>HouseNrNew</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>HouseNrOld</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" t="s">
+        <v>573</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>IsApptOfficeNrChanged</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>ApptOfficeNrNew</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>ApptOfficeNrOld</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6908,8 +7968,8 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63:G67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6979,7 +8039,7 @@
         <v>Не вказано</v>
       </c>
       <c r="N2" t="str">
-        <f>"public static BankingLicensedActivityInfo " &amp;C2 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType." &amp; C2 &amp; " }; } }"</f>
+        <f>"public static BankingLicensedActivityInfo " &amp;C2 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType." &amp; IF( A2 = "BankingActivityType", "BankingActivity, ActivityType = " &amp; A2 &amp; "." &amp; C2 &amp; "", IF(A2="FinancialServicesType", "FinancialService, ServiceType = " &amp; A2 &amp; "." &amp; C2 &amp; "",IF(A2="GeneralFXLicenseActivityType", "FXGLBkActivity, GFXActivityType = " &amp; A2 &amp; "." &amp; C2 &amp; "", IF(A2="ProfessionalStockMarketActivityType","SMActivityType, SMActivityType = " &amp; A2 &amp; "." &amp; C2 &amp; "", "")))) &amp;" }; } }"</f>
         <v>public static BankingLicensedActivityInfo None { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.None }; } }</v>
       </c>
     </row>
@@ -7021,7 +8081,7 @@
         <v>п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N17" si="5">"public static BankingLicensedActivityInfo " &amp;C3 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType." &amp; C3 &amp; " }; } }"</f>
+        <f t="shared" ref="N3:N28" si="5">"public static BankingLicensedActivityInfo " &amp;C3 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType." &amp; IF( A3 = "BankingActivityType", "BankingActivity, ActivityType = " &amp; A3 &amp; "." &amp; C3 &amp; "", IF(A3="FinancialServicesType", "FinancialService, ServiceType = " &amp; A3 &amp; "." &amp; C3 &amp; "",IF(A3="GeneralFXLicenseActivityType", "FXGLBkActivity, GFXActivityType = " &amp; A3 &amp; "." &amp; C3 &amp; "", IF(A3="ProfessionalStockMarketActivityType","SMActivityType, SMActivityType = " &amp; A3 &amp; "." &amp; C3 &amp; "", "")))) &amp;" }; } }"</f>
         <v>public static BankingLicensedActivityInfo PayDocsIssuance { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FinancialService, ServiceType = FinancialServicesType.PayDocsIssuance }; } }</v>
       </c>
     </row>
@@ -7650,7 +8710,7 @@
         <v>Не вказано</v>
       </c>
       <c r="N18" t="str">
-        <f>"public static BankingLicensedActivityInfo " &amp;C18 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C18 &amp; " }; } }"</f>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo None { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.None }; } }</v>
       </c>
     </row>
@@ -7692,7 +8752,7 @@
         <v>п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ref="N19:N28" si="11">"public static BankingLicensedActivityInfo " &amp;C19 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType." &amp; C19 &amp; " }; } }"</f>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo DepositsTaking { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositsTaking }; } }</v>
       </c>
     </row>
@@ -7734,7 +8794,7 @@
         <v>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo AccountsMgmt { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.AccountsMgmt }; } }</v>
       </c>
     </row>
@@ -7776,7 +8836,7 @@
         <v>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo DepositedFundsPlacement { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.DepositedFundsPlacement }; } }</v>
       </c>
     </row>
@@ -7818,7 +8878,7 @@
         <v>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo Investments { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Investments }; } }</v>
       </c>
     </row>
@@ -7860,7 +8920,7 @@
         <v>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo ProprietarySecuritiesIssue { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ProprietarySecuritiesIssue }; } }</v>
       </c>
     </row>
@@ -7902,7 +8962,7 @@
         <v>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo Lotteries { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.Lotteries }; } }</v>
       </c>
     </row>
@@ -7944,7 +9004,7 @@
         <v>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo SafeCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SafeCustody }; } }</v>
       </c>
     </row>
@@ -7986,7 +9046,7 @@
         <v>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo CashCollectionTransportation { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.CashCollectionTransportation }; } }</v>
       </c>
     </row>
@@ -8028,7 +9088,7 @@
         <v>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo SecuritiesCustody { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.SecuritiesCustody }; } }</v>
       </c>
     </row>
@@ -8070,7 +9130,7 @@
         <v>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>public static BankingLicensedActivityInfo ConsultancyOnBankFinServices { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.BankingActivity, ActivityType = BankingActivityType.ConsultancyOnBankFinServices }; } }</v>
       </c>
     </row>
@@ -8092,11 +9152,11 @@
         <v>BankControllers = 521</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29:F38" si="12">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
+        <f t="shared" ref="F29:F38" si="11">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
         <v>[Description("Контролери банку")]</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G38" si="13">F29&amp;E29 &amp;","</f>
+        <f t="shared" ref="G29:G38" si="12">F29&amp;E29 &amp;","</f>
         <v>[Description("Контролери банку")]BankControllers = 521,</v>
       </c>
     </row>
@@ -8118,11 +9178,11 @@
         <v>SignificantOwners = 522</v>
       </c>
       <c r="F30" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]SignificantOwners = 522,</v>
       </c>
     </row>
@@ -8144,11 +9204,11 @@
         <v>BankMgrsEtc = 523</v>
       </c>
       <c r="F31" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]BankMgrsEtc = 523,</v>
       </c>
     </row>
@@ -8170,15 +9230,15 @@
         <v>Affiliated = 524</v>
       </c>
       <c r="F32" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]Affiliated = 524,</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -8196,15 +9256,15 @@
         <v>AffiliatedSignOwners = 525</v>
       </c>
       <c r="F33" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]AffiliatedSignOwners = 525,</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -8222,15 +9282,15 @@
         <v>AffiliatedMgrsEtc = 526</v>
       </c>
       <c r="F34" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]AffiliatedMgrsEtc = 526,</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -8248,15 +9308,15 @@
         <v>AssocPersonsArt52pp16 = 527</v>
       </c>
       <c r="F35" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]AssocPersonsArt52pp16 = 527,</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>237</v>
       </c>
@@ -8274,15 +9334,15 @@
         <v>Art52MgrsSignOwnersLPs = 528</v>
       </c>
       <c r="F36" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]Art52MgrsSignOwnersLPs = 528,</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>237</v>
       </c>
@@ -8300,17 +9360,17 @@
         <v>AnyPersonInfluencingArt52 = 529</v>
       </c>
       <c r="F37" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="13"/>
         <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]AnyPersonInfluencingArt52 = 529,</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8326,431 +9386,503 @@
         <v>None = 0</v>
       </c>
       <c r="F38" t="str">
+        <f t="shared" si="11"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="12"/>
-        <v>[Description("Не вказано")]</v>
-      </c>
-      <c r="G38" t="str">
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C39" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_NonTrade</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F67" si="13">"[Description(" &amp; CHAR(34) &amp; D39&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("неторговельні операції з валютними цінностями")]</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G67" si="14">F39&amp;E39 &amp;","</f>
+        <v>[Description("неторговельні операції з валютними цінностями")]GFX_NonTrade,</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" ref="N39:N56" si="15">"public static BankingLicensedActivityInfo " &amp;C39 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType." &amp; IF( A39 = "BankingActivityType", "BankingActivity, ActivityType = " &amp; A39 &amp; "." &amp; C39 &amp; "", IF(A39="FinancialServicesType", "FinancialService, ServiceType = " &amp; A39 &amp; "." &amp; C39 &amp; "",IF(A39="GeneralFXLicenseActivityType", "FXGLBkActivity, GFXActivityType = " &amp; A39 &amp; "." &amp; C39 &amp; "", IF(A39="ProfessionalStockMarketActivityType","SMActivityType, SMActivityType = " &amp; A39 &amp; "." &amp; C39 &amp; "", "")))) &amp;" }; } }"</f>
+        <v>public static BankingLicensedActivityInfo GFX_NonTrade { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_NonTrade }; } }</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CashBankOps</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="13"/>
-        <v>[Description("Не вказано")]None = 0,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>421</v>
-      </c>
-      <c r="C39" t="s">
-        <v>422</v>
-      </c>
-      <c r="D39" t="s">
-        <v>403</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_NonTrade</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" ref="F39:F67" si="14">"[Description(" &amp; CHAR(34) &amp; D39&amp; CHAR(34) &amp; ")]"</f>
-        <v>[Description("неторговельні операції з валютними цінностями")]</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" ref="G39:G67" si="15">F39&amp;E39 &amp;","</f>
-        <v>[Description("неторговельні операції з валютними цінностями")]GFX_NonTrade,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>421</v>
-      </c>
-      <c r="C40" t="s">
+        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]GFX_CashBankOps,</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="15"/>
+        <v>public static BankingLicensedActivityInfo GFX_CashBankOps { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CashBankOps }; } }</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C41" t="s">
         <v>423</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>404</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CashBankOps</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CashAgentOps</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]</v>
-      </c>
-      <c r="G40" t="str">
+        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]GFX_CashAgentOps,</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("операції з готівковою іноземною валютою та чеками (купівля, продаж, обмін, прийняття на інкасо), що здійснюються в касах і пунктах обміну іноземної валюти банків")]GFX_CashBankOps,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C41" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_CashAgentOps { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CashAgentOps }; } }</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C42" t="s">
         <v>424</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>405</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CashAgentOps</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_AcctMgmt</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]</v>
-      </c>
-      <c r="G41" t="str">
+        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]GFX_AcctMgmt,</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("операції з готівковою іноземною валютою (купівля, продаж, обмін), що здійснюються в пунктах обміну іноземної валюти, які працюють на підставі укладених банками агентських договорів з юридичними особами-резидентами")]GFX_CashAgentOps,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>421</v>
-      </c>
-      <c r="C42" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_AcctMgmt { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_AcctMgmt }; } }</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C43" t="s">
         <v>425</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>406</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_AcctMgmt</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrBkAcctMgmtFCCY</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]</v>
-      </c>
-      <c r="G42" t="str">
+        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]GFX_CorrBkAcctMgmtFCCY,</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("ведення рахунків клієнтів (резидентів і нерезидентів) в іноземній валюті та клієнтів-нерезидентів у грошовій одиниці України")]GFX_AcctMgmt,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>421</v>
-      </c>
-      <c r="C43" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_CorrBkAcctMgmtFCCY { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CorrBkAcctMgmtFCCY }; } }</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C44" t="s">
         <v>426</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>407</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CorrBkAcctMgmtFCCY</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrBkAcctMgmtLCCY</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]</v>
-      </c>
-      <c r="G43" t="str">
+        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]GFX_CorrBkAcctMgmtLCCY,</v>
+      </c>
+      <c r="N44" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("ведення кореспондентських рахунків банків (резидентів і нерезидентів) в іноземній валюті")]GFX_CorrBkAcctMgmtFCCY,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>421</v>
-      </c>
-      <c r="C44" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_CorrBkAcctMgmtLCCY { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CorrBkAcctMgmtLCCY }; } }</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" t="s">
         <v>427</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>408</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CorrBkAcctMgmtLCCY</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrAcctHaveInUABksFCCY</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]</v>
-      </c>
-      <c r="G44" t="str">
+        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInUABksFCCY,</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("ведення кореспондентських рахунків банків (нерезидентів) у грошовій одиниці України")]GFX_CorrBkAcctMgmtLCCY,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C45" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_CorrAcctHaveInUABksFCCY { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CorrAcctHaveInUABksFCCY }; } }</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" t="s">
         <v>428</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>409</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CorrAcctHaveInUABksFCCY</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_CorrAcctHaveInNonUABksFCCY</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]</v>
-      </c>
-      <c r="G45" t="str">
+        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInNonUABksFCCY,</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("відкриття кореспондентських рахунків в уповноважених банках України в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInUABksFCCY,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>421</v>
-      </c>
-      <c r="C46" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_CorrAcctHaveInNonUABksFCCY { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_CorrAcctHaveInNonUABksFCCY }; } }</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" t="s">
         <v>429</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>410</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_CorrAcctHaveInNonUABksFCCY</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYBorrNPlaceLocalMarket</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]</v>
-      </c>
-      <c r="G46" t="str">
+        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]GFX_FCCYBorrNPlaceLocalMarket,</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("відкриття кореспондентських рахунків у банках (нерезидентах) в іноземній валюті та здійснення операцій за ними")]GFX_CorrAcctHaveInNonUABksFCCY,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>421</v>
-      </c>
-      <c r="C47" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FCCYBorrNPlaceLocalMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FCCYBorrNPlaceLocalMarket }; } }</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" t="s">
         <v>430</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>411</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FCCYBorrNPlaceLocalMarket</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYBorrNPlaceWorldMarket</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]</v>
-      </c>
-      <c r="G47" t="str">
+        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]GFX_FCCYBorrNPlaceWorldMarket,</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("залучення та розміщення іноземної валюти на валютному ринку України")]GFX_FCCYBorrNPlaceLocalMarket,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>421</v>
-      </c>
-      <c r="C48" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FCCYBorrNPlaceWorldMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FCCYBorrNPlaceWorldMarket }; } }</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>420</v>
+      </c>
+      <c r="C49" t="s">
         <v>431</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>412</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FCCYBorrNPlaceWorldMarket</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYTradingNonCashLocalMarket</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]</v>
-      </c>
-      <c r="G48" t="str">
+        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]GFX_FCCYTradingNonCashLocalMarket,</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("залучення та розміщення іноземної валюти на міжнародних ринках")]GFX_FCCYBorrNPlaceWorldMarket,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>421</v>
-      </c>
-      <c r="C49" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FCCYTradingNonCashLocalMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FCCYTradingNonCashLocalMarket }; } }</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" t="s">
         <v>432</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>413</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FCCYTradingNonCashLocalMarket</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FCCYTradingNonCashWorldMarket</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]</v>
-      </c>
-      <c r="G49" t="str">
+        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]GFX_FCCYTradingNonCashWorldMarket,</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("торгівля іноземною валютою на валютному ринку України [за винятком операцій з готівковою іноземною валютою та чеками (купівля, продаж, обмін), що здійснюється в касах і пунктах обміну іноземної валюти банків і агентів]")]GFX_FCCYTradingNonCashLocalMarket,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FCCYTradingNonCashWorldMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FCCYTradingNonCashWorldMarket }; } }</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" t="s">
         <v>433</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>414</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FCCYTradingNonCashWorldMarket</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalBorrNPlaceLocalMarket</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]</v>
-      </c>
-      <c r="G50" t="str">
+        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]GFX_BkMetalBorrNPlaceLocalMarket,</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("торгівля іноземною валютою на міжнародних ринках")]GFX_FCCYTradingNonCashWorldMarket,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>421</v>
-      </c>
-      <c r="C51" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_BkMetalBorrNPlaceLocalMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_BkMetalBorrNPlaceLocalMarket }; } }</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" t="s">
         <v>434</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>415</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_BkMetalBorrNPlaceLocalMarket</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalBorrNPlaceWorldMarket</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]</v>
-      </c>
-      <c r="G51" t="str">
+        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]GFX_BkMetalBorrNPlaceWorldMarket,</v>
+      </c>
+      <c r="N52" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("залучення та розміщення банківських металів на валютному ринку України")]GFX_BkMetalBorrNPlaceLocalMarket,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>421</v>
-      </c>
-      <c r="C52" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_BkMetalBorrNPlaceWorldMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_BkMetalBorrNPlaceWorldMarket }; } }</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" t="s">
         <v>435</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>416</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_BkMetalBorrNPlaceWorldMarket</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalTradingLocalMarket</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("торгівля банківськими металами на валютному ринку України")]</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]</v>
-      </c>
-      <c r="G52" t="str">
+        <v>[Description("торгівля банківськими металами на валютному ринку України")]GFX_BkMetalTradingLocalMarket,</v>
+      </c>
+      <c r="N53" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("залучення та розміщення банківських металів на міжнародних ринках")]GFX_BkMetalBorrNPlaceWorldMarket,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_BkMetalTradingLocalMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_BkMetalTradingLocalMarket }; } }</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" t="s">
         <v>436</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>417</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_BkMetalTradingLocalMarket</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_BkMetalTradingWorldMarket</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("торгівля банківськими металами на міжнародних ринках")]</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("торгівля банківськими металами на валютному ринку України")]</v>
-      </c>
-      <c r="G53" t="str">
+        <v>[Description("торгівля банківськими металами на міжнародних ринках")]GFX_BkMetalTradingWorldMarket,</v>
+      </c>
+      <c r="N54" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("торгівля банківськими металами на валютному ринку України")]GFX_BkMetalTradingLocalMarket,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>421</v>
-      </c>
-      <c r="C54" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_BkMetalTradingWorldMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_BkMetalTradingWorldMarket }; } }</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" t="s">
         <v>437</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>418</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_BkMetalTradingWorldMarket</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FinSvcLocalMarket</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("торгівля банківськими металами на міжнародних ринках")]</v>
-      </c>
-      <c r="G54" t="str">
+        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcLocalMarket,</v>
+      </c>
+      <c r="N55" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("торгівля банківськими металами на міжнародних ринках")]GFX_BkMetalTradingWorldMarket,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>421</v>
-      </c>
-      <c r="C55" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FinSvcLocalMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FinSvcLocalMarket }; } }</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" t="s">
         <v>438</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>419</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FinSvcLocalMarket</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>GFX_FinSvcWorldMarket</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
-      </c>
-      <c r="G55" t="str">
+        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcWorldMarket,</v>
+      </c>
+      <c r="N56" t="str">
         <f t="shared" si="15"/>
-        <v>[Description("валютні операції на валютному ринку України, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcLocalMarket,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" t="s">
+        <v>public static BankingLicensedActivityInfo GFX_FinSvcWorldMarket { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.FXGLBkActivity, GFXActivityType = GeneralFXLicenseActivityType.GFX_FinSvcWorldMarket }; } }</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>439</v>
-      </c>
-      <c r="D56" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>GFX_FinSvcWorldMarket</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("валютні операції на міжнародних ринках, які належать до фінансових послуг згідно зі статтею 4 Закону України "Про фінансові послуги та державне регулювання ринків фінансових послуг" та не зазначені в абзацах 2-17 розділу 2 Положення про  порядок надання банкам і філіям іноземних банків генеральних ліцензій на здійснення валютних операцій, затвердженого постановою Правління Національного банку України від 15.08.2011 № 281")]GFX_FinSvcWorldMarket,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>440</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8766,132 +9898,152 @@
         <v>None = 0</v>
       </c>
       <c r="F57" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("Не вказано")]</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" t="s">
         <v>440</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>SMSecuritiesTrading</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="14"/>
+        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]SMSecuritiesTrading,</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" ref="N58:N62" si="16">"public static BankingLicensedActivityInfo " &amp;C58 &amp; " { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType." &amp; IF( A58 = "BankingActivityType", "BankingActivity, ActivityType = " &amp; A58 &amp; "." &amp; C58 &amp; "", IF(A58="FinancialServicesType", "FinancialService, ServiceType = " &amp; A58 &amp; "." &amp; C58 &amp; "",IF(A58="GeneralFXLicenseActivityType", "FXGLBkActivity, GFXActivityType = " &amp; A58 &amp; "." &amp; C58 &amp; "", IF(A58="ProfessionalStockMarketActivityType","SMActivityType, SMActivityType = " &amp; A58 &amp; "." &amp; C58 &amp; "", "")))) &amp;" }; } }"</f>
+        <v>public static BankingLicensedActivityInfo SMSecuritiesTrading { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.SMActivityType, SMActivityType = ProfessionalStockMarketActivityType.SMSecuritiesTrading }; } }</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" t="s">
         <v>446</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>441</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>SMSecuritiesTrading</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>SMInstInvAssetsMgmt</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("діяльність з торгівлі цінними паперами (пп.1 ч.2 ст.16 ЗпЦПіФР)")]SMSecuritiesTrading,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>440</v>
-      </c>
-      <c r="C59" t="s">
+        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]SMInstInvAssetsMgmt,</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="16"/>
+        <v>public static BankingLicensedActivityInfo SMInstInvAssetsMgmt { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.SMActivityType, SMActivityType = ProfessionalStockMarketActivityType.SMInstInvAssetsMgmt }; } }</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" t="s">
         <v>447</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>442</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>SMInstInvAssetsMgmt</v>
-      </c>
-      <c r="F59" t="str">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>SMDepositoryActivities</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G60" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("діяльність з управління активами інституційних інвесторів (пп.2 ч.2 ст.16 ЗпЦПіФР)")]SMInstInvAssetsMgmt,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>440</v>
-      </c>
-      <c r="C60" t="s">
+        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]SMDepositoryActivities,</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="16"/>
+        <v>public static BankingLicensedActivityInfo SMDepositoryActivities { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.SMActivityType, SMActivityType = ProfessionalStockMarketActivityType.SMDepositoryActivities }; } }</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" t="s">
         <v>448</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>443</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>SMDepositoryActivities</v>
-      </c>
-      <c r="F60" t="str">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>SMTradeOrganization</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G61" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("депозитарна діяльність (пп.3 ч.2 ст.16 ЗпЦПіФР)")]SMDepositoryActivities,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>440</v>
-      </c>
-      <c r="C61" t="s">
+        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]SMTradeOrganization,</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="16"/>
+        <v>public static BankingLicensedActivityInfo SMTradeOrganization { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.SMActivityType, SMActivityType = ProfessionalStockMarketActivityType.SMTradeOrganization }; } }</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" t="s">
         <v>449</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>444</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>SMTradeOrganization</v>
-      </c>
-      <c r="F61" t="str">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>SMClearing</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("діяльність з організації торгівлі на фондовому ринку (пп.4 ч.2 ст.16 ЗпЦПіФР)")]SMTradeOrganization,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>440</v>
-      </c>
-      <c r="C62" t="s">
+        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]SMClearing,</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="16"/>
+        <v>public static BankingLicensedActivityInfo SMClearing { get { return new BankingLicensedActivityInfo() { BankActivityOrService = LicensedOperationType.SMActivityType, SMActivityType = ProfessionalStockMarketActivityType.SMClearing }; } }</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>450</v>
-      </c>
-      <c r="D62" t="s">
-        <v>445</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>SMClearing</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="14"/>
-        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="15"/>
-        <v>[Description("клірингова діяльність (пп.5 ч.2 ст.16 ЗпЦПіФР)")]SMClearing,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>451</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8907,103 +10059,103 @@
         <v>None = 0</v>
       </c>
       <c r="F63" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("Не вказано")]</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64" t="s">
+        <v>455</v>
+      </c>
+      <c r="D64" t="s">
         <v>451</v>
       </c>
-      <c r="C64" t="s">
-        <v>456</v>
-      </c>
-      <c r="D64" t="s">
-        <v>452</v>
-      </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>SMTBrokerage</v>
       </c>
       <c r="F64" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("брокерська діяльність (пп.1 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTBrokerage,</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>SMTDealership</v>
       </c>
       <c r="F65" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("дилерська діяльність (пп.2 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTDealership,</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>SMTUnderwriting</v>
       </c>
       <c r="F66" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G66" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("андеррайтинг (пп.3 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTUnderwriting,</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67" si="16">C67&amp; IF(LEN(B67)&gt;0," = " &amp;B67, "")</f>
+        <f t="shared" ref="E67" si="17">C67&amp; IF(LEN(B67)&gt;0," = " &amp;B67, "")</f>
         <v>SMTSecuritiesMgmt</v>
       </c>
       <c r="F67" t="str">
+        <f t="shared" si="13"/>
+        <v>[Description("діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
+      </c>
+      <c r="G67" t="str">
         <f t="shared" si="14"/>
-        <v>[Description("діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)")]</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="15"/>
         <v>[Description("діяльність з управління цінними паперами (пп.4 ч.2, п.1, ст.17 ЗпЦПіФР)")]SMTSecuritiesMgmt,</v>
       </c>
     </row>
@@ -9762,7 +10914,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ref="B36" si="9">"List"&amp;TRIM(A36)</f>
@@ -9783,7 +10935,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="13">"public List&lt;EnumType&gt; "&amp;B37 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }"</f>
@@ -10222,10 +11374,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55:L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10257,11 +11409,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public bool HasEmploymentBook { get; set; }</v>
+        <v>public EKDRBUVariableEntryPartV1 VariablePart { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10272,11 +11424,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -10284,28 +11436,28 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>bool</v>
+        <v>EKDRBUVariableEntryPartV1</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>HasEmploymentBook</v>
+        <v>VariablePart</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_HasEmploymentBook</v>
+        <v>_VariablePart</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private bool _HasEmploymentBook;</v>
+        <v>private EKDRBUVariableEntryPartV1 _VariablePart;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public bool HasEmploymentBook { get { return _HasEmploymentBook; } set { _HasEmploymentBook = value; OnPropertyChanged("HasEmploymentBook"); } }</v>
+        <v>public EKDRBUVariableEntryPartV1 VariablePart { get { return _VariablePart; } set { _VariablePart = value; OnPropertyChanged("VariablePart"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -10353,7 +11505,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -11021,6 +12173,2214 @@
       <c r="L17" t="str">
         <f t="shared" si="23"/>
         <v>public bool IsChecked { get { return _IsChecked; } set { _IsChecked = value; OnPropertyChanged("IsChecked"); } }</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" t="s">
+        <v>566</v>
+      </c>
+      <c r="I19" t="s">
+        <v>488</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J100" si="24">"_"&amp;I19</f>
+        <v>_IsParentIDChanged</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K100" si="25">"private " &amp; H19 &amp; " " &amp; J19 &amp; ";"</f>
+        <v>private bool _IsParentIDChanged;</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L100" si="26">G19&amp; " " &amp;H19&amp; " " &amp;I19 &amp; " { get { return " &amp; J19 &amp; "; } set { " &amp;J19 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I19 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsParentIDChanged { get { return _IsParentIDChanged; } set { _IsParentIDChanged = value; OnPropertyChanged("IsParentIDChanged"); } }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" t="s">
+        <v>460</v>
+      </c>
+      <c r="I20" t="s">
+        <v>540</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="24"/>
+        <v>_ParentIDNew</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _ParentIDNew;</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="26"/>
+        <v>public string ParentIDNew { get { return _ParentIDNew; } set { _ParentIDNew = value; OnPropertyChanged("ParentIDNew"); } }</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" t="s">
+        <v>460</v>
+      </c>
+      <c r="I21" t="s">
+        <v>489</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="24"/>
+        <v>_ParentIDOld</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _ParentIDOld;</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="26"/>
+        <v>public string ParentIDOld { get { return _ParentIDOld; } set { _ParentIDOld = value; OnPropertyChanged("ParentIDOld"); } }</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>567</v>
+      </c>
+      <c r="H22" t="s">
+        <v>566</v>
+      </c>
+      <c r="I22" t="s">
+        <v>490</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsNameFullChanged</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsNameFullChanged;</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsNameFullChanged { get { return _IsNameFullChanged; } set { _IsNameFullChanged = value; OnPropertyChanged("IsNameFullChanged"); } }</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>567</v>
+      </c>
+      <c r="H23" t="s">
+        <v>460</v>
+      </c>
+      <c r="I23" t="s">
+        <v>541</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameFullNew</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameFullNew;</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameFullNew { get { return _NameFullNew; } set { _NameFullNew = value; OnPropertyChanged("NameFullNew"); } }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>567</v>
+      </c>
+      <c r="H24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameFullOld</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameFullOld;</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameFullOld { get { return _NameFullOld; } set { _NameFullOld = value; OnPropertyChanged("NameFullOld"); } }</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" t="s">
+        <v>566</v>
+      </c>
+      <c r="I25" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsNameShortChanged</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsNameShortChanged;</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsNameShortChanged { get { return _IsNameShortChanged; } set { _IsNameShortChanged = value; OnPropertyChanged("IsNameShortChanged"); } }</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>567</v>
+      </c>
+      <c r="H26" t="s">
+        <v>460</v>
+      </c>
+      <c r="I26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameShortNew</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameShortNew;</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameShortNew { get { return _NameShortNew; } set { _NameShortNew = value; OnPropertyChanged("NameShortNew"); } }</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>567</v>
+      </c>
+      <c r="H27" t="s">
+        <v>460</v>
+      </c>
+      <c r="I27" t="s">
+        <v>493</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameShortOld</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameShortOld;</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameShortOld { get { return _NameShortOld; } set { _NameShortOld = value; OnPropertyChanged("NameShortOld"); } }</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>567</v>
+      </c>
+      <c r="H28" t="s">
+        <v>566</v>
+      </c>
+      <c r="I28" t="s">
+        <v>494</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsNamePrintChanged</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsNamePrintChanged;</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsNamePrintChanged { get { return _IsNamePrintChanged; } set { _IsNamePrintChanged = value; OnPropertyChanged("IsNamePrintChanged"); } }</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>567</v>
+      </c>
+      <c r="H29" t="s">
+        <v>460</v>
+      </c>
+      <c r="I29" t="s">
+        <v>543</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="24"/>
+        <v>_NamePrintNew</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NamePrintNew;</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NamePrintNew { get { return _NamePrintNew; } set { _NamePrintNew = value; OnPropertyChanged("NamePrintNew"); } }</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>567</v>
+      </c>
+      <c r="H30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I30" t="s">
+        <v>495</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="24"/>
+        <v>_NamePrintOld</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NamePrintOld;</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NamePrintOld { get { return _NamePrintOld; } set { _NamePrintOld = value; OnPropertyChanged("NamePrintOld"); } }</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>567</v>
+      </c>
+      <c r="H31" t="s">
+        <v>566</v>
+      </c>
+      <c r="I31" t="s">
+        <v>496</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsNameSEPChanged</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsNameSEPChanged;</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsNameSEPChanged { get { return _IsNameSEPChanged; } set { _IsNameSEPChanged = value; OnPropertyChanged("IsNameSEPChanged"); } }</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>567</v>
+      </c>
+      <c r="H32" t="s">
+        <v>460</v>
+      </c>
+      <c r="I32" t="s">
+        <v>544</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameSEPNew</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameSEPNew;</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameSEPNew { get { return _NameSEPNew; } set { _NameSEPNew = value; OnPropertyChanged("NameSEPNew"); } }</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" t="s">
+        <v>460</v>
+      </c>
+      <c r="I33" t="s">
+        <v>497</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameSEPOld</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameSEPOld;</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameSEPOld { get { return _NameSEPOld; } set { _NameSEPOld = value; OnPropertyChanged("NameSEPOld"); } }</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>567</v>
+      </c>
+      <c r="H34" t="s">
+        <v>566</v>
+      </c>
+      <c r="I34" t="s">
+        <v>498</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsNameStatsChanged</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsNameStatsChanged;</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsNameStatsChanged { get { return _IsNameStatsChanged; } set { _IsNameStatsChanged = value; OnPropertyChanged("IsNameStatsChanged"); } }</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>567</v>
+      </c>
+      <c r="H35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I35" t="s">
+        <v>545</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameStatsNew</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameStatsNew;</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameStatsNew { get { return _NameStatsNew; } set { _NameStatsNew = value; OnPropertyChanged("NameStatsNew"); } }</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>567</v>
+      </c>
+      <c r="H36" t="s">
+        <v>460</v>
+      </c>
+      <c r="I36" t="s">
+        <v>499</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="24"/>
+        <v>_NameStatsOld</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _NameStatsOld;</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="26"/>
+        <v>public string NameStatsOld { get { return _NameStatsOld; } set { _NameStatsOld = value; OnPropertyChanged("NameStatsOld"); } }</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>567</v>
+      </c>
+      <c r="H37" t="s">
+        <v>566</v>
+      </c>
+      <c r="I37" t="s">
+        <v>500</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMFOChanged</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMFOChanged;</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMFOChanged { get { return _IsMFOChanged; } set { _IsMFOChanged = value; OnPropertyChanged("IsMFOChanged"); } }</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>567</v>
+      </c>
+      <c r="H38" t="s">
+        <v>460</v>
+      </c>
+      <c r="I38" t="s">
+        <v>546</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="24"/>
+        <v>_MFONew</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MFONew;</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MFONew { get { return _MFONew; } set { _MFONew = value; OnPropertyChanged("MFONew"); } }</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H39" t="s">
+        <v>460</v>
+      </c>
+      <c r="I39" t="s">
+        <v>501</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="24"/>
+        <v>_MFOOld</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MFOOld;</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MFOOld { get { return _MFOOld; } set { _MFOOld = value; OnPropertyChanged("MFOOld"); } }</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>567</v>
+      </c>
+      <c r="H40" t="s">
+        <v>566</v>
+      </c>
+      <c r="I40" t="s">
+        <v>502</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsYeDRPOUChanged</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsYeDRPOUChanged;</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsYeDRPOUChanged { get { return _IsYeDRPOUChanged; } set { _IsYeDRPOUChanged = value; OnPropertyChanged("IsYeDRPOUChanged"); } }</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>567</v>
+      </c>
+      <c r="H41" t="s">
+        <v>460</v>
+      </c>
+      <c r="I41" t="s">
+        <v>547</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="24"/>
+        <v>_YeDRPOUNew</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _YeDRPOUNew;</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="26"/>
+        <v>public string YeDRPOUNew { get { return _YeDRPOUNew; } set { _YeDRPOUNew = value; OnPropertyChanged("YeDRPOUNew"); } }</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>567</v>
+      </c>
+      <c r="H42" t="s">
+        <v>460</v>
+      </c>
+      <c r="I42" t="s">
+        <v>503</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="24"/>
+        <v>_YeDRPOUOld</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _YeDRPOUOld;</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="26"/>
+        <v>public string YeDRPOUOld { get { return _YeDRPOUOld; } set { _YeDRPOUOld = value; OnPropertyChanged("YeDRPOUOld"); } }</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>567</v>
+      </c>
+      <c r="H43" t="s">
+        <v>566</v>
+      </c>
+      <c r="I43" t="s">
+        <v>504</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsRegNrChanged</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsRegNrChanged;</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsRegNrChanged { get { return _IsRegNrChanged; } set { _IsRegNrChanged = value; OnPropertyChanged("IsRegNrChanged"); } }</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>567</v>
+      </c>
+      <c r="H44" t="s">
+        <v>460</v>
+      </c>
+      <c r="I44" t="s">
+        <v>548</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="24"/>
+        <v>_RegNrNew</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _RegNrNew;</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="26"/>
+        <v>public string RegNrNew { get { return _RegNrNew; } set { _RegNrNew = value; OnPropertyChanged("RegNrNew"); } }</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>567</v>
+      </c>
+      <c r="H45" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" t="s">
+        <v>505</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="24"/>
+        <v>_RegNrOld</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _RegNrOld;</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="26"/>
+        <v>public string RegNrOld { get { return _RegNrOld; } set { _RegNrOld = value; OnPropertyChanged("RegNrOld"); } }</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>567</v>
+      </c>
+      <c r="H46" t="s">
+        <v>566</v>
+      </c>
+      <c r="I46" t="s">
+        <v>506</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsInternalNrChanged</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsInternalNrChanged;</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsInternalNrChanged { get { return _IsInternalNrChanged; } set { _IsInternalNrChanged = value; OnPropertyChanged("IsInternalNrChanged"); } }</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>567</v>
+      </c>
+      <c r="H47" t="s">
+        <v>460</v>
+      </c>
+      <c r="I47" t="s">
+        <v>549</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="24"/>
+        <v>_InternalNrNew</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _InternalNrNew;</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="26"/>
+        <v>public string InternalNrNew { get { return _InternalNrNew; } set { _InternalNrNew = value; OnPropertyChanged("InternalNrNew"); } }</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H48" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" t="s">
+        <v>507</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="24"/>
+        <v>_InternalNrOld</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _InternalNrOld;</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="26"/>
+        <v>public string InternalNrOld { get { return _InternalNrOld; } set { _InternalNrOld = value; OnPropertyChanged("InternalNrOld"); } }</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>567</v>
+      </c>
+      <c r="H49" t="s">
+        <v>566</v>
+      </c>
+      <c r="I49" t="s">
+        <v>508</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsBranchNrInternalChanged</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsBranchNrInternalChanged;</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsBranchNrInternalChanged { get { return _IsBranchNrInternalChanged; } set { _IsBranchNrInternalChanged = value; OnPropertyChanged("IsBranchNrInternalChanged"); } }</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>567</v>
+      </c>
+      <c r="H50" t="s">
+        <v>460</v>
+      </c>
+      <c r="I50" t="s">
+        <v>550</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="24"/>
+        <v>_BranchNrInternalNew</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _BranchNrInternalNew;</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="26"/>
+        <v>public string BranchNrInternalNew { get { return _BranchNrInternalNew; } set { _BranchNrInternalNew = value; OnPropertyChanged("BranchNrInternalNew"); } }</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>567</v>
+      </c>
+      <c r="H51" t="s">
+        <v>460</v>
+      </c>
+      <c r="I51" t="s">
+        <v>509</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="24"/>
+        <v>_BranchNrInternalOld</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _BranchNrInternalOld;</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="26"/>
+        <v>public string BranchNrInternalOld { get { return _BranchNrInternalOld; } set { _BranchNrInternalOld = value; OnPropertyChanged("BranchNrInternalOld"); } }</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H52" t="s">
+        <v>566</v>
+      </c>
+      <c r="I52" t="s">
+        <v>510</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsKOATUUChanged</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsKOATUUChanged;</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsKOATUUChanged { get { return _IsKOATUUChanged; } set { _IsKOATUUChanged = value; OnPropertyChanged("IsKOATUUChanged"); } }</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>567</v>
+      </c>
+      <c r="H53" t="s">
+        <v>460</v>
+      </c>
+      <c r="I53" t="s">
+        <v>551</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="24"/>
+        <v>_KOATUUNew</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _KOATUUNew;</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="26"/>
+        <v>public string KOATUUNew { get { return _KOATUUNew; } set { _KOATUUNew = value; OnPropertyChanged("KOATUUNew"); } }</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>567</v>
+      </c>
+      <c r="H54" t="s">
+        <v>460</v>
+      </c>
+      <c r="I54" t="s">
+        <v>511</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="24"/>
+        <v>_KOATUUOld</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _KOATUUOld;</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="26"/>
+        <v>public string KOATUUOld { get { return _KOATUUOld; } set { _KOATUUOld = value; OnPropertyChanged("KOATUUOld"); } }</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>567</v>
+      </c>
+      <c r="H55" t="s">
+        <v>566</v>
+      </c>
+      <c r="I55" t="s">
+        <v>574</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55:J72" si="27">"_"&amp;I55</f>
+        <v>_IsRaionChanged</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K72" si="28">"private " &amp; H55 &amp; " " &amp; J55 &amp; ";"</f>
+        <v>private bool _IsRaionChanged;</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" ref="L55:L72" si="29">G55&amp; " " &amp;H55&amp; " " &amp;I55 &amp; " { get { return " &amp; J55 &amp; "; } set { " &amp;J55 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I55 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsRaionChanged { get { return _IsRaionChanged; } set { _IsRaionChanged = value; OnPropertyChanged("IsRaionChanged"); } }</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>567</v>
+      </c>
+      <c r="H56" t="s">
+        <v>460</v>
+      </c>
+      <c r="I56" t="s">
+        <v>575</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="27"/>
+        <v>_RaionNew</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _RaionNew;</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="29"/>
+        <v>public string RaionNew { get { return _RaionNew; } set { _RaionNew = value; OnPropertyChanged("RaionNew"); } }</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>567</v>
+      </c>
+      <c r="H57" t="s">
+        <v>460</v>
+      </c>
+      <c r="I57" t="s">
+        <v>576</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="27"/>
+        <v>_RaionOld</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _RaionOld;</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="29"/>
+        <v>public string RaionOld { get { return _RaionOld; } set { _RaionOld = value; OnPropertyChanged("RaionOld"); } }</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>567</v>
+      </c>
+      <c r="H58" t="s">
+        <v>566</v>
+      </c>
+      <c r="I58" t="s">
+        <v>577</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="27"/>
+        <v>_IsZipCodeChanged</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="28"/>
+        <v>private bool _IsZipCodeChanged;</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="29"/>
+        <v>public bool IsZipCodeChanged { get { return _IsZipCodeChanged; } set { _IsZipCodeChanged = value; OnPropertyChanged("IsZipCodeChanged"); } }</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>567</v>
+      </c>
+      <c r="H59" t="s">
+        <v>460</v>
+      </c>
+      <c r="I59" t="s">
+        <v>578</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="27"/>
+        <v>_ZipCodeNew</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _ZipCodeNew;</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="29"/>
+        <v>public string ZipCodeNew { get { return _ZipCodeNew; } set { _ZipCodeNew = value; OnPropertyChanged("ZipCodeNew"); } }</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>567</v>
+      </c>
+      <c r="H60" t="s">
+        <v>460</v>
+      </c>
+      <c r="I60" t="s">
+        <v>579</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="27"/>
+        <v>_ZipCodeOld</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _ZipCodeOld;</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="29"/>
+        <v>public string ZipCodeOld { get { return _ZipCodeOld; } set { _ZipCodeOld = value; OnPropertyChanged("ZipCodeOld"); } }</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>567</v>
+      </c>
+      <c r="H61" t="s">
+        <v>566</v>
+      </c>
+      <c r="I61" t="s">
+        <v>580</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="27"/>
+        <v>_IsCityChanged</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="28"/>
+        <v>private bool _IsCityChanged;</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="29"/>
+        <v>public bool IsCityChanged { get { return _IsCityChanged; } set { _IsCityChanged = value; OnPropertyChanged("IsCityChanged"); } }</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>567</v>
+      </c>
+      <c r="H62" t="s">
+        <v>460</v>
+      </c>
+      <c r="I62" t="s">
+        <v>581</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="27"/>
+        <v>_CityNew</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _CityNew;</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="29"/>
+        <v>public string CityNew { get { return _CityNew; } set { _CityNew = value; OnPropertyChanged("CityNew"); } }</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>567</v>
+      </c>
+      <c r="H63" t="s">
+        <v>460</v>
+      </c>
+      <c r="I63" t="s">
+        <v>582</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="27"/>
+        <v>_CityOld</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _CityOld;</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="29"/>
+        <v>public string CityOld { get { return _CityOld; } set { _CityOld = value; OnPropertyChanged("CityOld"); } }</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>567</v>
+      </c>
+      <c r="H64" t="s">
+        <v>566</v>
+      </c>
+      <c r="I64" t="s">
+        <v>583</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="27"/>
+        <v>_IsStreetChanged</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="28"/>
+        <v>private bool _IsStreetChanged;</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="29"/>
+        <v>public bool IsStreetChanged { get { return _IsStreetChanged; } set { _IsStreetChanged = value; OnPropertyChanged("IsStreetChanged"); } }</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H65" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" t="s">
+        <v>584</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="27"/>
+        <v>_StreetNew</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _StreetNew;</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="29"/>
+        <v>public string StreetNew { get { return _StreetNew; } set { _StreetNew = value; OnPropertyChanged("StreetNew"); } }</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>567</v>
+      </c>
+      <c r="H66" t="s">
+        <v>460</v>
+      </c>
+      <c r="I66" t="s">
+        <v>585</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="27"/>
+        <v>_StreetOld</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _StreetOld;</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="29"/>
+        <v>public string StreetOld { get { return _StreetOld; } set { _StreetOld = value; OnPropertyChanged("StreetOld"); } }</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>567</v>
+      </c>
+      <c r="H67" t="s">
+        <v>566</v>
+      </c>
+      <c r="I67" t="s">
+        <v>586</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="27"/>
+        <v>_IsHouseNrChanged</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="28"/>
+        <v>private bool _IsHouseNrChanged;</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="29"/>
+        <v>public bool IsHouseNrChanged { get { return _IsHouseNrChanged; } set { _IsHouseNrChanged = value; OnPropertyChanged("IsHouseNrChanged"); } }</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>567</v>
+      </c>
+      <c r="H68" t="s">
+        <v>460</v>
+      </c>
+      <c r="I68" t="s">
+        <v>587</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="27"/>
+        <v>_HouseNrNew</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _HouseNrNew;</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="29"/>
+        <v>public string HouseNrNew { get { return _HouseNrNew; } set { _HouseNrNew = value; OnPropertyChanged("HouseNrNew"); } }</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>567</v>
+      </c>
+      <c r="H69" t="s">
+        <v>460</v>
+      </c>
+      <c r="I69" t="s">
+        <v>588</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="27"/>
+        <v>_HouseNrOld</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _HouseNrOld;</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="29"/>
+        <v>public string HouseNrOld { get { return _HouseNrOld; } set { _HouseNrOld = value; OnPropertyChanged("HouseNrOld"); } }</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>567</v>
+      </c>
+      <c r="H70" t="s">
+        <v>566</v>
+      </c>
+      <c r="I70" t="s">
+        <v>589</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="27"/>
+        <v>_IsApptOfficeNrChanged</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="28"/>
+        <v>private bool _IsApptOfficeNrChanged;</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="29"/>
+        <v>public bool IsApptOfficeNrChanged { get { return _IsApptOfficeNrChanged; } set { _IsApptOfficeNrChanged = value; OnPropertyChanged("IsApptOfficeNrChanged"); } }</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>567</v>
+      </c>
+      <c r="H71" t="s">
+        <v>460</v>
+      </c>
+      <c r="I71" t="s">
+        <v>590</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="27"/>
+        <v>_ApptOfficeNrNew</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _ApptOfficeNrNew;</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="29"/>
+        <v>public string ApptOfficeNrNew { get { return _ApptOfficeNrNew; } set { _ApptOfficeNrNew = value; OnPropertyChanged("ApptOfficeNrNew"); } }</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>567</v>
+      </c>
+      <c r="H72" t="s">
+        <v>460</v>
+      </c>
+      <c r="I72" t="s">
+        <v>591</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="27"/>
+        <v>_ApptOfficeNrOld</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="28"/>
+        <v>private string _ApptOfficeNrOld;</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="29"/>
+        <v>public string ApptOfficeNrOld { get { return _ApptOfficeNrOld; } set { _ApptOfficeNrOld = value; OnPropertyChanged("ApptOfficeNrOld"); } }</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>567</v>
+      </c>
+      <c r="H73" t="s">
+        <v>566</v>
+      </c>
+      <c r="I73" t="s">
+        <v>512</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsDialCodeChanged</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsDialCodeChanged;</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsDialCodeChanged { get { return _IsDialCodeChanged; } set { _IsDialCodeChanged = value; OnPropertyChanged("IsDialCodeChanged"); } }</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>567</v>
+      </c>
+      <c r="H74" t="s">
+        <v>460</v>
+      </c>
+      <c r="I74" t="s">
+        <v>552</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="24"/>
+        <v>_DialCodeNew</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _DialCodeNew;</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="26"/>
+        <v>public string DialCodeNew { get { return _DialCodeNew; } set { _DialCodeNew = value; OnPropertyChanged("DialCodeNew"); } }</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>567</v>
+      </c>
+      <c r="H75" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="24"/>
+        <v>_DialCodeOld</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _DialCodeOld;</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="26"/>
+        <v>public string DialCodeOld { get { return _DialCodeOld; } set { _DialCodeOld = value; OnPropertyChanged("DialCodeOld"); } }</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>567</v>
+      </c>
+      <c r="H76" t="s">
+        <v>566</v>
+      </c>
+      <c r="I76" t="s">
+        <v>514</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsFaxChanged</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsFaxChanged;</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsFaxChanged { get { return _IsFaxChanged; } set { _IsFaxChanged = value; OnPropertyChanged("IsFaxChanged"); } }</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>567</v>
+      </c>
+      <c r="H77" t="s">
+        <v>460</v>
+      </c>
+      <c r="I77" t="s">
+        <v>553</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="24"/>
+        <v>_FaxNew</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _FaxNew;</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="26"/>
+        <v>public string FaxNew { get { return _FaxNew; } set { _FaxNew = value; OnPropertyChanged("FaxNew"); } }</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>567</v>
+      </c>
+      <c r="H78" t="s">
+        <v>460</v>
+      </c>
+      <c r="I78" t="s">
+        <v>515</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="24"/>
+        <v>_FaxOld</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _FaxOld;</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="26"/>
+        <v>public string FaxOld { get { return _FaxOld; } set { _FaxOld = value; OnPropertyChanged("FaxOld"); } }</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>567</v>
+      </c>
+      <c r="H79" t="s">
+        <v>566</v>
+      </c>
+      <c r="I79" t="s">
+        <v>516</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsEmailChanged</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsEmailChanged;</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsEmailChanged { get { return _IsEmailChanged; } set { _IsEmailChanged = value; OnPropertyChanged("IsEmailChanged"); } }</v>
+      </c>
+    </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>567</v>
+      </c>
+      <c r="H80" t="s">
+        <v>460</v>
+      </c>
+      <c r="I80" t="s">
+        <v>554</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="24"/>
+        <v>_EmailNew</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _EmailNew;</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="26"/>
+        <v>public string EmailNew { get { return _EmailNew; } set { _EmailNew = value; OnPropertyChanged("EmailNew"); } }</v>
+      </c>
+    </row>
+    <row r="81" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>567</v>
+      </c>
+      <c r="H81" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" t="s">
+        <v>517</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="24"/>
+        <v>_EmailOld</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _EmailOld;</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="26"/>
+        <v>public string EmailOld { get { return _EmailOld; } set { _EmailOld = value; OnPropertyChanged("EmailOld"); } }</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>567</v>
+      </c>
+      <c r="H82" t="s">
+        <v>566</v>
+      </c>
+      <c r="I82" t="s">
+        <v>518</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="24"/>
+        <v>_IswwwChanged</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IswwwChanged;</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IswwwChanged { get { return _IswwwChanged; } set { _IswwwChanged = value; OnPropertyChanged("IswwwChanged"); } }</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>567</v>
+      </c>
+      <c r="H83" t="s">
+        <v>460</v>
+      </c>
+      <c r="I83" t="s">
+        <v>555</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="24"/>
+        <v>_wwwNew</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _wwwNew;</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="26"/>
+        <v>public string wwwNew { get { return _wwwNew; } set { _wwwNew = value; OnPropertyChanged("wwwNew"); } }</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>567</v>
+      </c>
+      <c r="H84" t="s">
+        <v>460</v>
+      </c>
+      <c r="I84" t="s">
+        <v>519</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="24"/>
+        <v>_wwwOld</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _wwwOld;</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="26"/>
+        <v>public string wwwOld { get { return _wwwOld; } set { _wwwOld = value; OnPropertyChanged("wwwOld"); } }</v>
+      </c>
+    </row>
+    <row r="85" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>567</v>
+      </c>
+      <c r="H85" t="s">
+        <v>566</v>
+      </c>
+      <c r="I85" t="s">
+        <v>520</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrPositionChanged</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrPositionChanged;</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrPositionChanged { get { return _IsMgrPositionChanged; } set { _IsMgrPositionChanged = value; OnPropertyChanged("IsMgrPositionChanged"); } }</v>
+      </c>
+    </row>
+    <row r="86" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>567</v>
+      </c>
+      <c r="H86" t="s">
+        <v>460</v>
+      </c>
+      <c r="I86" t="s">
+        <v>556</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrPositionNew</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrPositionNew;</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrPositionNew { get { return _MgrPositionNew; } set { _MgrPositionNew = value; OnPropertyChanged("MgrPositionNew"); } }</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>567</v>
+      </c>
+      <c r="H87" t="s">
+        <v>460</v>
+      </c>
+      <c r="I87" t="s">
+        <v>521</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrPositionOld</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrPositionOld;</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrPositionOld { get { return _MgrPositionOld; } set { _MgrPositionOld = value; OnPropertyChanged("MgrPositionOld"); } }</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>567</v>
+      </c>
+      <c r="H88" t="s">
+        <v>566</v>
+      </c>
+      <c r="I88" t="s">
+        <v>522</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrCountryISO3CodeChanged</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrCountryISO3CodeChanged;</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrCountryISO3CodeChanged { get { return _IsMgrCountryISO3CodeChanged; } set { _IsMgrCountryISO3CodeChanged = value; OnPropertyChanged("IsMgrCountryISO3CodeChanged"); } }</v>
+      </c>
+    </row>
+    <row r="89" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>567</v>
+      </c>
+      <c r="H89" t="s">
+        <v>460</v>
+      </c>
+      <c r="I89" t="s">
+        <v>557</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrCountryISO3CodeNew</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrCountryISO3CodeNew;</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrCountryISO3CodeNew { get { return _MgrCountryISO3CodeNew; } set { _MgrCountryISO3CodeNew = value; OnPropertyChanged("MgrCountryISO3CodeNew"); } }</v>
+      </c>
+    </row>
+    <row r="90" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>567</v>
+      </c>
+      <c r="H90" t="s">
+        <v>460</v>
+      </c>
+      <c r="I90" t="s">
+        <v>523</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrCountryISO3CodeOld</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrCountryISO3CodeOld;</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrCountryISO3CodeOld { get { return _MgrCountryISO3CodeOld; } set { _MgrCountryISO3CodeOld = value; OnPropertyChanged("MgrCountryISO3CodeOld"); } }</v>
+      </c>
+    </row>
+    <row r="91" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>567</v>
+      </c>
+      <c r="H91" t="s">
+        <v>566</v>
+      </c>
+      <c r="I91" t="s">
+        <v>524</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrCountryNameUkrChanged</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrCountryNameUkrChanged;</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrCountryNameUkrChanged { get { return _IsMgrCountryNameUkrChanged; } set { _IsMgrCountryNameUkrChanged = value; OnPropertyChanged("IsMgrCountryNameUkrChanged"); } }</v>
+      </c>
+    </row>
+    <row r="92" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>567</v>
+      </c>
+      <c r="H92" t="s">
+        <v>460</v>
+      </c>
+      <c r="I92" t="s">
+        <v>558</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrCountryNameUkrNew</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrCountryNameUkrNew;</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrCountryNameUkrNew { get { return _MgrCountryNameUkrNew; } set { _MgrCountryNameUkrNew = value; OnPropertyChanged("MgrCountryNameUkrNew"); } }</v>
+      </c>
+    </row>
+    <row r="93" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>567</v>
+      </c>
+      <c r="H93" t="s">
+        <v>460</v>
+      </c>
+      <c r="I93" t="s">
+        <v>525</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrCountryNameUkrOld</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrCountryNameUkrOld;</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrCountryNameUkrOld { get { return _MgrCountryNameUkrOld; } set { _MgrCountryNameUkrOld = value; OnPropertyChanged("MgrCountryNameUkrOld"); } }</v>
+      </c>
+    </row>
+    <row r="94" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>567</v>
+      </c>
+      <c r="H94" t="s">
+        <v>566</v>
+      </c>
+      <c r="I94" t="s">
+        <v>526</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrSurnameChanged</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrSurnameChanged;</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrSurnameChanged { get { return _IsMgrSurnameChanged; } set { _IsMgrSurnameChanged = value; OnPropertyChanged("IsMgrSurnameChanged"); } }</v>
+      </c>
+    </row>
+    <row r="95" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>567</v>
+      </c>
+      <c r="H95" t="s">
+        <v>460</v>
+      </c>
+      <c r="I95" t="s">
+        <v>559</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrSurnameNew</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrSurnameNew;</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrSurnameNew { get { return _MgrSurnameNew; } set { _MgrSurnameNew = value; OnPropertyChanged("MgrSurnameNew"); } }</v>
+      </c>
+    </row>
+    <row r="96" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>567</v>
+      </c>
+      <c r="H96" t="s">
+        <v>460</v>
+      </c>
+      <c r="I96" t="s">
+        <v>527</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrSurnameOld</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrSurnameOld;</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrSurnameOld { get { return _MgrSurnameOld; } set { _MgrSurnameOld = value; OnPropertyChanged("MgrSurnameOld"); } }</v>
+      </c>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>567</v>
+      </c>
+      <c r="H97" t="s">
+        <v>566</v>
+      </c>
+      <c r="I97" t="s">
+        <v>528</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrNameChanged</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrNameChanged;</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrNameChanged { get { return _IsMgrNameChanged; } set { _IsMgrNameChanged = value; OnPropertyChanged("IsMgrNameChanged"); } }</v>
+      </c>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>567</v>
+      </c>
+      <c r="H98" t="s">
+        <v>460</v>
+      </c>
+      <c r="I98" t="s">
+        <v>560</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrNameNew</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrNameNew;</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrNameNew { get { return _MgrNameNew; } set { _MgrNameNew = value; OnPropertyChanged("MgrNameNew"); } }</v>
+      </c>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>567</v>
+      </c>
+      <c r="H99" t="s">
+        <v>460</v>
+      </c>
+      <c r="I99" t="s">
+        <v>529</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="24"/>
+        <v>_MgrNameOld</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="25"/>
+        <v>private string _MgrNameOld;</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="26"/>
+        <v>public string MgrNameOld { get { return _MgrNameOld; } set { _MgrNameOld = value; OnPropertyChanged("MgrNameOld"); } }</v>
+      </c>
+    </row>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>567</v>
+      </c>
+      <c r="H100" t="s">
+        <v>566</v>
+      </c>
+      <c r="I100" t="s">
+        <v>530</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="24"/>
+        <v>_IsMgrMiddleNameChanged</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrMiddleNameChanged;</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrMiddleNameChanged { get { return _IsMgrMiddleNameChanged; } set { _IsMgrMiddleNameChanged = value; OnPropertyChanged("IsMgrMiddleNameChanged"); } }</v>
+      </c>
+    </row>
+    <row r="101" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>567</v>
+      </c>
+      <c r="H101" t="s">
+        <v>460</v>
+      </c>
+      <c r="I101" t="s">
+        <v>561</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" ref="J101:J114" si="30">"_"&amp;I101</f>
+        <v>_MgrMiddleNameNew</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" ref="K101:K114" si="31">"private " &amp; H101 &amp; " " &amp; J101 &amp; ";"</f>
+        <v>private string _MgrMiddleNameNew;</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" ref="L101:L114" si="32">G101&amp; " " &amp;H101&amp; " " &amp;I101 &amp; " { get { return " &amp; J101 &amp; "; } set { " &amp;J101 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I101 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string MgrMiddleNameNew { get { return _MgrMiddleNameNew; } set { _MgrMiddleNameNew = value; OnPropertyChanged("MgrMiddleNameNew"); } }</v>
+      </c>
+    </row>
+    <row r="102" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>567</v>
+      </c>
+      <c r="H102" t="s">
+        <v>460</v>
+      </c>
+      <c r="I102" t="s">
+        <v>531</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrMiddleNameOld</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrMiddleNameOld;</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrMiddleNameOld { get { return _MgrMiddleNameOld; } set { _MgrMiddleNameOld = value; OnPropertyChanged("MgrMiddleNameOld"); } }</v>
+      </c>
+    </row>
+    <row r="103" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>567</v>
+      </c>
+      <c r="H103" t="s">
+        <v>566</v>
+      </c>
+      <c r="I103" t="s">
+        <v>532</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="30"/>
+        <v>_IsMgrSurnameAtBirthChanged</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="31"/>
+        <v>private bool _IsMgrSurnameAtBirthChanged;</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="32"/>
+        <v>public bool IsMgrSurnameAtBirthChanged { get { return _IsMgrSurnameAtBirthChanged; } set { _IsMgrSurnameAtBirthChanged = value; OnPropertyChanged("IsMgrSurnameAtBirthChanged"); } }</v>
+      </c>
+    </row>
+    <row r="104" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>567</v>
+      </c>
+      <c r="H104" t="s">
+        <v>460</v>
+      </c>
+      <c r="I104" t="s">
+        <v>562</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrSurnameAtBirthNew</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrSurnameAtBirthNew;</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrSurnameAtBirthNew { get { return _MgrSurnameAtBirthNew; } set { _MgrSurnameAtBirthNew = value; OnPropertyChanged("MgrSurnameAtBirthNew"); } }</v>
+      </c>
+    </row>
+    <row r="105" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>567</v>
+      </c>
+      <c r="H105" t="s">
+        <v>460</v>
+      </c>
+      <c r="I105" t="s">
+        <v>533</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrSurnameAtBirthOld</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrSurnameAtBirthOld;</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrSurnameAtBirthOld { get { return _MgrSurnameAtBirthOld; } set { _MgrSurnameAtBirthOld = value; OnPropertyChanged("MgrSurnameAtBirthOld"); } }</v>
+      </c>
+    </row>
+    <row r="106" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>567</v>
+      </c>
+      <c r="H106" t="s">
+        <v>566</v>
+      </c>
+      <c r="I106" t="s">
+        <v>534</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="30"/>
+        <v>_IsMgrTaxOrSocSecIDChanged</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="31"/>
+        <v>private bool _IsMgrTaxOrSocSecIDChanged;</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="32"/>
+        <v>public bool IsMgrTaxOrSocSecIDChanged { get { return _IsMgrTaxOrSocSecIDChanged; } set { _IsMgrTaxOrSocSecIDChanged = value; OnPropertyChanged("IsMgrTaxOrSocSecIDChanged"); } }</v>
+      </c>
+    </row>
+    <row r="107" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>567</v>
+      </c>
+      <c r="H107" t="s">
+        <v>460</v>
+      </c>
+      <c r="I107" t="s">
+        <v>563</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrTaxOrSocSecIDNew</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrTaxOrSocSecIDNew;</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrTaxOrSocSecIDNew { get { return _MgrTaxOrSocSecIDNew; } set { _MgrTaxOrSocSecIDNew = value; OnPropertyChanged("MgrTaxOrSocSecIDNew"); } }</v>
+      </c>
+    </row>
+    <row r="108" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>567</v>
+      </c>
+      <c r="H108" t="s">
+        <v>460</v>
+      </c>
+      <c r="I108" t="s">
+        <v>535</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrTaxOrSocSecIDOld</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrTaxOrSocSecIDOld;</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrTaxOrSocSecIDOld { get { return _MgrTaxOrSocSecIDOld; } set { _MgrTaxOrSocSecIDOld = value; OnPropertyChanged("MgrTaxOrSocSecIDOld"); } }</v>
+      </c>
+    </row>
+    <row r="109" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>567</v>
+      </c>
+      <c r="H109" t="s">
+        <v>566</v>
+      </c>
+      <c r="I109" t="s">
+        <v>536</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="30"/>
+        <v>_IsMgrPassportIDChanged</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="31"/>
+        <v>private bool _IsMgrPassportIDChanged;</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="32"/>
+        <v>public bool IsMgrPassportIDChanged { get { return _IsMgrPassportIDChanged; } set { _IsMgrPassportIDChanged = value; OnPropertyChanged("IsMgrPassportIDChanged"); } }</v>
+      </c>
+    </row>
+    <row r="110" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>567</v>
+      </c>
+      <c r="H110" t="s">
+        <v>460</v>
+      </c>
+      <c r="I110" t="s">
+        <v>564</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrPassportIDNew</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrPassportIDNew;</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrPassportIDNew { get { return _MgrPassportIDNew; } set { _MgrPassportIDNew = value; OnPropertyChanged("MgrPassportIDNew"); } }</v>
+      </c>
+    </row>
+    <row r="111" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>567</v>
+      </c>
+      <c r="H111" t="s">
+        <v>460</v>
+      </c>
+      <c r="I111" t="s">
+        <v>537</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrPassportIDOld</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="31"/>
+        <v>private string _MgrPassportIDOld;</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="32"/>
+        <v>public string MgrPassportIDOld { get { return _MgrPassportIDOld; } set { _MgrPassportIDOld = value; OnPropertyChanged("MgrPassportIDOld"); } }</v>
+      </c>
+    </row>
+    <row r="112" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>567</v>
+      </c>
+      <c r="H112" t="s">
+        <v>566</v>
+      </c>
+      <c r="I112" t="s">
+        <v>538</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="30"/>
+        <v>_IsMgrPassIssuedDateChanged</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="31"/>
+        <v>private bool _IsMgrPassIssuedDateChanged;</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="32"/>
+        <v>public bool IsMgrPassIssuedDateChanged { get { return _IsMgrPassIssuedDateChanged; } set { _IsMgrPassIssuedDateChanged = value; OnPropertyChanged("IsMgrPassIssuedDateChanged"); } }</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>567</v>
+      </c>
+      <c r="H113" t="s">
+        <v>486</v>
+      </c>
+      <c r="I113" t="s">
+        <v>565</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrPassIssuedDateNew</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="31"/>
+        <v>private DateTime? _MgrPassIssuedDateNew;</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="32"/>
+        <v>public DateTime? MgrPassIssuedDateNew { get { return _MgrPassIssuedDateNew; } set { _MgrPassIssuedDateNew = value; OnPropertyChanged("MgrPassIssuedDateNew"); } }</v>
+      </c>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>567</v>
+      </c>
+      <c r="H114" t="s">
+        <v>486</v>
+      </c>
+      <c r="I114" t="s">
+        <v>539</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="30"/>
+        <v>_MgrPassIssuedDateOld</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="31"/>
+        <v>private DateTime? _MgrPassIssuedDateOld;</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="32"/>
+        <v>public DateTime? MgrPassIssuedDateOld { get { return _MgrPassIssuedDateOld; } set { _MgrPassIssuedDateOld = value; OnPropertyChanged("MgrPassIssuedDateOld"); } }</v>
       </c>
     </row>
   </sheetData>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="610">
   <si>
     <t>ClassName</t>
   </si>
@@ -1800,6 +1800,60 @@
   </si>
   <si>
     <t>ApptOfficeNrOld</t>
+  </si>
+  <si>
+    <t>Oblast</t>
+  </si>
+  <si>
+    <t>IsOblastChanged</t>
+  </si>
+  <si>
+    <t>OblastNew</t>
+  </si>
+  <si>
+    <t>OblastOld</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>IsPhoneChanged</t>
+  </si>
+  <si>
+    <t>PhoneNew</t>
+  </si>
+  <si>
+    <t>PhoneOld</t>
+  </si>
+  <si>
+    <t>FinActivitySvcInstrumentActionType</t>
+  </si>
+  <si>
+    <t>FinActivitySvcInstrumentType</t>
+  </si>
+  <si>
+    <t>OperationsListing</t>
+  </si>
+  <si>
+    <t>IsOperationsListingChanged</t>
+  </si>
+  <si>
+    <t>OperationsListingNew</t>
+  </si>
+  <si>
+    <t>OperationsListingOld</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>IsStatusChanged</t>
+  </si>
+  <si>
+    <t>StatusNew</t>
+  </si>
+  <si>
+    <t>StatusOld</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2946,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E33"/>
+      <selection activeCell="C37" sqref="C37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,15 +3044,15 @@
         <v>462</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C33" si="0">"Is" &amp; B3 &amp;"Changed"</f>
+        <f t="shared" ref="C3:C35" si="0">"Is" &amp; B3 &amp;"Changed"</f>
         <v>IsNameFullChanged</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D27" si="1">B3&amp;"New"</f>
+        <f t="shared" ref="D3:D29" si="1">B3&amp;"New"</f>
         <v>NameFullNew</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E27" si="2">B3&amp;"Old"</f>
+        <f t="shared" ref="E3:E29" si="2">B3&amp;"Old"</f>
         <v>NameFullOld</v>
       </c>
     </row>
@@ -3227,19 +3281,19 @@
         <v>460</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>596</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>IsFaxChanged</v>
+        <v>IsPhoneChanged</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>FaxNew</v>
+        <v>PhoneNew</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
-        <v>FaxOld</v>
+        <v>PhoneOld</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,19 +3301,19 @@
         <v>460</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>IsEmailChanged</v>
+        <v>IsFaxChanged</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>EmailNew</v>
+        <v>FaxNew</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v>EmailOld</v>
+        <v>FaxOld</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,19 +3321,19 @@
         <v>460</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>IswwwChanged</v>
+        <v>IsEmailChanged</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>wwwNew</v>
+        <v>EmailNew</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
-        <v>wwwOld</v>
+        <v>EmailOld</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3287,19 +3341,19 @@
         <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrPositionChanged</v>
+        <v>IswwwChanged</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>MgrPositionNew</v>
+        <v>wwwNew</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
-        <v>MgrPositionOld</v>
+        <v>wwwOld</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3307,19 +3361,19 @@
         <v>460</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrCountryISO3CodeChanged</v>
+        <v>IsMgrPositionChanged</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
-        <v>MgrCountryISO3CodeNew</v>
+        <v>MgrPositionNew</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v>MgrCountryISO3CodeOld</v>
+        <v>MgrPositionOld</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3327,19 +3381,19 @@
         <v>460</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrCountryNameUkrChanged</v>
+        <v>IsMgrCountryISO3CodeChanged</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>MgrCountryNameUkrNew</v>
+        <v>MgrCountryISO3CodeNew</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v>MgrCountryNameUkrOld</v>
+        <v>MgrCountryISO3CodeOld</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,19 +3401,19 @@
         <v>460</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrSurnameChanged</v>
+        <v>IsMgrCountryNameUkrChanged</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
-        <v>MgrSurnameNew</v>
+        <v>MgrCountryNameUkrNew</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
-        <v>MgrSurnameOld</v>
+        <v>MgrCountryNameUkrOld</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,19 +3421,19 @@
         <v>460</v>
       </c>
       <c r="B22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrNameChanged</v>
+        <v>IsMgrSurnameChanged</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>MgrNameNew</v>
+        <v>MgrSurnameNew</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
-        <v>MgrNameOld</v>
+        <v>MgrSurnameOld</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,19 +3441,19 @@
         <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrMiddleNameChanged</v>
+        <v>IsMgrNameChanged</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
-        <v>MgrMiddleNameNew</v>
+        <v>MgrNameNew</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>MgrMiddleNameOld</v>
+        <v>MgrNameOld</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,19 +3461,19 @@
         <v>460</v>
       </c>
       <c r="B24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrSurnameAtBirthChanged</v>
+        <v>IsMgrMiddleNameChanged</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
-        <v>MgrSurnameAtBirthNew</v>
+        <v>MgrMiddleNameNew</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
-        <v>MgrSurnameAtBirthOld</v>
+        <v>MgrMiddleNameOld</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,19 +3481,19 @@
         <v>460</v>
       </c>
       <c r="B25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrTaxOrSocSecIDChanged</v>
+        <v>IsMgrSurnameAtBirthChanged</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v>MgrTaxOrSocSecIDNew</v>
+        <v>MgrSurnameAtBirthNew</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
-        <v>MgrTaxOrSocSecIDOld</v>
+        <v>MgrSurnameAtBirthOld</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,59 +3501,59 @@
         <v>460</v>
       </c>
       <c r="B26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrPassportIDChanged</v>
+        <v>IsMgrTaxOrSocSecIDChanged</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>MgrPassportIDNew</v>
+        <v>MgrTaxOrSocSecIDNew</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
-        <v>MgrPassportIDOld</v>
+        <v>MgrTaxOrSocSecIDOld</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="B27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>IsMgrPassIssuedDateChanged</v>
+        <v>IsMgrPassportIDChanged</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>MgrPassIssuedDateNew</v>
+        <v>MgrPassportIDNew</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
-        <v>MgrPassIssuedDateOld</v>
+        <v>MgrPassportIDOld</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>IsRaionChanged</v>
+        <v>IsMgrPassIssuedDateChanged</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:D33" si="3">B28&amp;"New"</f>
-        <v>RaionNew</v>
+        <f t="shared" si="1"/>
+        <v>MgrPassIssuedDateNew</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28:E33" si="4">B28&amp;"Old"</f>
-        <v>RaionOld</v>
+        <f t="shared" si="2"/>
+        <v>MgrPassIssuedDateOld</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,19 +3561,19 @@
         <v>460</v>
       </c>
       <c r="B29" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>IsZipCodeChanged</v>
+        <v>IsOblastChanged</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
-        <v>ZipCodeNew</v>
+        <f t="shared" si="1"/>
+        <v>OblastNew</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="4"/>
-        <v>ZipCodeOld</v>
+        <f t="shared" si="2"/>
+        <v>OblastOld</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,19 +3581,19 @@
         <v>460</v>
       </c>
       <c r="B30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>IsCityChanged</v>
+        <v>IsRaionChanged</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="3"/>
-        <v>CityNew</v>
+        <f t="shared" ref="D30:D35" si="3">B30&amp;"New"</f>
+        <v>RaionNew</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="4"/>
-        <v>CityOld</v>
+        <f t="shared" ref="E30:E35" si="4">B30&amp;"Old"</f>
+        <v>RaionOld</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,19 +3601,19 @@
         <v>460</v>
       </c>
       <c r="B31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>IsStreetChanged</v>
+        <v>IsZipCodeChanged</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
-        <v>StreetNew</v>
+        <v>ZipCodeNew</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="4"/>
-        <v>StreetOld</v>
+        <v>ZipCodeOld</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,19 +3621,19 @@
         <v>460</v>
       </c>
       <c r="B32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>IsHouseNrChanged</v>
+        <v>IsCityChanged</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
-        <v>HouseNrNew</v>
+        <v>CityNew</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="4"/>
-        <v>HouseNrOld</v>
+        <v>CityOld</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3587,19 +3641,99 @@
         <v>460</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>IsApptOfficeNrChanged</v>
+        <v>IsStreetChanged</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
-        <v>ApptOfficeNrNew</v>
+        <v>StreetNew</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
+        <v>StreetOld</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>460</v>
+      </c>
+      <c r="B34" t="s">
+        <v>572</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>IsHouseNrChanged</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>HouseNrNew</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>HouseNrOld</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>IsApptOfficeNrChanged</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>ApptOfficeNrNew</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
         <v>ApptOfficeNrOld</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B36" t="s">
+        <v>602</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36" si="5">"Is" &amp; B36 &amp;"Changed"</f>
+        <v>IsOperationsListingChanged</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36" si="6">B36&amp;"New"</f>
+        <v>OperationsListingNew</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36" si="7">B36&amp;"Old"</f>
+        <v>OperationsListingOld</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37" si="8">"Is" &amp; B37 &amp;"Changed"</f>
+        <v>IsStatusChanged</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37" si="9">B37&amp;"New"</f>
+        <v>StatusNew</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ref="E37" si="10">B37&amp;"Old"</f>
+        <v>StatusOld</v>
       </c>
     </row>
   </sheetData>
@@ -10170,10 +10304,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10937,17 +11071,105 @@
       <c r="A37" t="s">
         <v>401</v>
       </c>
+      <c r="B37" t="str">
+        <f t="shared" ref="B37:B41" si="13">"List"&amp;TRIM(A37)</f>
+        <v>ListBankAssociatedPersonsCode315p</v>
+      </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37" si="13">"public List&lt;EnumType&gt; "&amp;B37 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }"</f>
-        <v>public List&lt;EnumType&gt; () { return EnumType.GetEnumList(typeof(BankAssociatedPersonsCode315p)); }</v>
+        <f t="shared" ref="C37:C41" si="14">"public List&lt;EnumType&gt; "&amp;B37 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListBankAssociatedPersonsCode315p() { return EnumType.GetEnumList(typeof(BankAssociatedPersonsCode315p)); }</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" ref="D37" si="14">A37&amp;"List"</f>
+        <f t="shared" ref="D37:D41" si="15">A37&amp;"List"</f>
         <v>BankAssociatedPersonsCode315pList</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ref="E37" si="15">"public static List&lt;EnumType&gt; "&amp;D37 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }}"</f>
+        <f t="shared" ref="E37:E41" si="16">"public static List&lt;EnumType&gt; "&amp;D37 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A37&amp;")); }}"</f>
         <v>public static List&lt;EnumType&gt; BankAssociatedPersonsCode315pList { get { return EnumType.GetEnumList(typeof(BankAssociatedPersonsCode315p)); }}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>420</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="13"/>
+        <v>ListGeneralFXLicenseActivityType</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="14"/>
+        <v>public List&lt;EnumType&gt; ListGeneralFXLicenseActivityType() { return EnumType.GetEnumList(typeof(GeneralFXLicenseActivityType)); }</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="15"/>
+        <v>GeneralFXLicenseActivityTypeList</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="16"/>
+        <v>public static List&lt;EnumType&gt; GeneralFXLicenseActivityTypeList { get { return EnumType.GetEnumList(typeof(GeneralFXLicenseActivityType)); }}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="13"/>
+        <v>ListProfessionalStockMarketActivityType</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="14"/>
+        <v>public List&lt;EnumType&gt; ListProfessionalStockMarketActivityType() { return EnumType.GetEnumList(typeof(ProfessionalStockMarketActivityType)); }</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="15"/>
+        <v>ProfessionalStockMarketActivityTypeList</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="16"/>
+        <v>public static List&lt;EnumType&gt; ProfessionalStockMarketActivityTypeList { get { return EnumType.GetEnumList(typeof(ProfessionalStockMarketActivityType)); }}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>600</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="13"/>
+        <v>ListFinActivitySvcInstrumentActionType</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="14"/>
+        <v>public List&lt;EnumType&gt; ListFinActivitySvcInstrumentActionType() { return EnumType.GetEnumList(typeof(FinActivitySvcInstrumentActionType)); }</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="15"/>
+        <v>FinActivitySvcInstrumentActionTypeList</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="16"/>
+        <v>public static List&lt;EnumType&gt; FinActivitySvcInstrumentActionTypeList { get { return EnumType.GetEnumList(typeof(FinActivitySvcInstrumentActionType)); }}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>601</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="13"/>
+        <v>ListFinActivitySvcInstrumentType</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="14"/>
+        <v>public List&lt;EnumType&gt; ListFinActivitySvcInstrumentType() { return EnumType.GetEnumList(typeof(FinActivitySvcInstrumentType)); }</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="15"/>
+        <v>FinActivitySvcInstrumentTypeList</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="16"/>
+        <v>public static List&lt;EnumType&gt; FinActivitySvcInstrumentTypeList { get { return EnumType.GetEnumList(typeof(FinActivitySvcInstrumentType)); }}</v>
       </c>
     </row>
   </sheetData>
@@ -10963,8 +11185,8 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView topLeftCell="XEB2" workbookViewId="0">
+      <selection activeCell="XFD2" sqref="XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11374,10 +11596,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55:L114"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124:L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12186,15 +12408,15 @@
         <v>488</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19:J100" si="24">"_"&amp;I19</f>
+        <f t="shared" ref="J19:J106" si="24">"_"&amp;I19</f>
         <v>_IsParentIDChanged</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:K100" si="25">"private " &amp; H19 &amp; " " &amp; J19 &amp; ";"</f>
+        <f t="shared" ref="K19:K106" si="25">"private " &amp; H19 &amp; " " &amp; J19 &amp; ";"</f>
         <v>private bool _IsParentIDChanged;</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L100" si="26">G19&amp; " " &amp;H19&amp; " " &amp;I19 &amp; " { get { return " &amp; J19 &amp; "; } set { " &amp;J19 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I19 &amp; CHAR(34) &amp; "); } }"</f>
+        <f t="shared" ref="L19:L106" si="26">G19&amp; " " &amp;H19&amp; " " &amp;I19 &amp; " { get { return " &amp; J19 &amp; "; } set { " &amp;J19 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I19 &amp; CHAR(34) &amp; "); } }"</f>
         <v>public bool IsParentIDChanged { get { return _IsParentIDChanged; } set { _IsParentIDChanged = value; OnPropertyChanged("IsParentIDChanged"); } }</v>
       </c>
     </row>
@@ -13008,22 +13230,22 @@
         <v>567</v>
       </c>
       <c r="H55" t="s">
-        <v>566</v>
+        <v>460</v>
       </c>
       <c r="I55" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ref="J55:J72" si="27">"_"&amp;I55</f>
-        <v>_IsRaionChanged</v>
+        <f t="shared" ref="J55:J57" si="27">"_"&amp;I55</f>
+        <v>_IsOblastChanged</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55:K72" si="28">"private " &amp; H55 &amp; " " &amp; J55 &amp; ";"</f>
-        <v>private bool _IsRaionChanged;</v>
+        <f t="shared" ref="K55:K57" si="28">"private " &amp; H55 &amp; " " &amp; J55 &amp; ";"</f>
+        <v>private string _IsOblastChanged;</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" ref="L55:L72" si="29">G55&amp; " " &amp;H55&amp; " " &amp;I55 &amp; " { get { return " &amp; J55 &amp; "; } set { " &amp;J55 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I55 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public bool IsRaionChanged { get { return _IsRaionChanged; } set { _IsRaionChanged = value; OnPropertyChanged("IsRaionChanged"); } }</v>
+        <f t="shared" ref="L55:L57" si="29">G55&amp; " " &amp;H55&amp; " " &amp;I55 &amp; " { get { return " &amp; J55 &amp; "; } set { " &amp;J55 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I55 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string IsOblastChanged { get { return _IsOblastChanged; } set { _IsOblastChanged = value; OnPropertyChanged("IsOblastChanged"); } }</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.25">
@@ -13034,19 +13256,19 @@
         <v>460</v>
       </c>
       <c r="I56" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="27"/>
-        <v>_RaionNew</v>
+        <v>_OblastNew</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="28"/>
-        <v>private string _RaionNew;</v>
+        <v>private string _OblastNew;</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="29"/>
-        <v>public string RaionNew { get { return _RaionNew; } set { _RaionNew = value; OnPropertyChanged("RaionNew"); } }</v>
+        <v>public string OblastNew { get { return _OblastNew; } set { _OblastNew = value; OnPropertyChanged("OblastNew"); } }</v>
       </c>
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.25">
@@ -13057,19 +13279,19 @@
         <v>460</v>
       </c>
       <c r="I57" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="27"/>
-        <v>_RaionOld</v>
+        <v>_OblastOld</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="28"/>
-        <v>private string _RaionOld;</v>
+        <v>private string _OblastOld;</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="29"/>
-        <v>public string RaionOld { get { return _RaionOld; } set { _RaionOld = value; OnPropertyChanged("RaionOld"); } }</v>
+        <v>public string OblastOld { get { return _OblastOld; } set { _OblastOld = value; OnPropertyChanged("OblastOld"); } }</v>
       </c>
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.25">
@@ -13080,19 +13302,19 @@
         <v>566</v>
       </c>
       <c r="I58" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="27"/>
-        <v>_IsZipCodeChanged</v>
+        <f t="shared" ref="J58:J75" si="30">"_"&amp;I58</f>
+        <v>_IsRaionChanged</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="28"/>
-        <v>private bool _IsZipCodeChanged;</v>
+        <f t="shared" ref="K58:K75" si="31">"private " &amp; H58 &amp; " " &amp; J58 &amp; ";"</f>
+        <v>private bool _IsRaionChanged;</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="29"/>
-        <v>public bool IsZipCodeChanged { get { return _IsZipCodeChanged; } set { _IsZipCodeChanged = value; OnPropertyChanged("IsZipCodeChanged"); } }</v>
+        <f t="shared" ref="L58:L75" si="32">G58&amp; " " &amp;H58&amp; " " &amp;I58 &amp; " { get { return " &amp; J58 &amp; "; } set { " &amp;J58 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I58 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsRaionChanged { get { return _IsRaionChanged; } set { _IsRaionChanged = value; OnPropertyChanged("IsRaionChanged"); } }</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.25">
@@ -13103,19 +13325,19 @@
         <v>460</v>
       </c>
       <c r="I59" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="27"/>
-        <v>_ZipCodeNew</v>
+        <f t="shared" si="30"/>
+        <v>_RaionNew</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _ZipCodeNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _RaionNew;</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="29"/>
-        <v>public string ZipCodeNew { get { return _ZipCodeNew; } set { _ZipCodeNew = value; OnPropertyChanged("ZipCodeNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string RaionNew { get { return _RaionNew; } set { _RaionNew = value; OnPropertyChanged("RaionNew"); } }</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.25">
@@ -13126,19 +13348,19 @@
         <v>460</v>
       </c>
       <c r="I60" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="27"/>
-        <v>_ZipCodeOld</v>
+        <f t="shared" si="30"/>
+        <v>_RaionOld</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _ZipCodeOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _RaionOld;</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="29"/>
-        <v>public string ZipCodeOld { get { return _ZipCodeOld; } set { _ZipCodeOld = value; OnPropertyChanged("ZipCodeOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string RaionOld { get { return _RaionOld; } set { _RaionOld = value; OnPropertyChanged("RaionOld"); } }</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.25">
@@ -13149,19 +13371,19 @@
         <v>566</v>
       </c>
       <c r="I61" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="27"/>
-        <v>_IsCityChanged</v>
+        <f t="shared" si="30"/>
+        <v>_IsZipCodeChanged</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="28"/>
-        <v>private bool _IsCityChanged;</v>
+        <f t="shared" si="31"/>
+        <v>private bool _IsZipCodeChanged;</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="29"/>
-        <v>public bool IsCityChanged { get { return _IsCityChanged; } set { _IsCityChanged = value; OnPropertyChanged("IsCityChanged"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public bool IsZipCodeChanged { get { return _IsZipCodeChanged; } set { _IsZipCodeChanged = value; OnPropertyChanged("IsZipCodeChanged"); } }</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.25">
@@ -13172,19 +13394,19 @@
         <v>460</v>
       </c>
       <c r="I62" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="27"/>
-        <v>_CityNew</v>
+        <f t="shared" si="30"/>
+        <v>_ZipCodeNew</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _CityNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _ZipCodeNew;</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="29"/>
-        <v>public string CityNew { get { return _CityNew; } set { _CityNew = value; OnPropertyChanged("CityNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string ZipCodeNew { get { return _ZipCodeNew; } set { _ZipCodeNew = value; OnPropertyChanged("ZipCodeNew"); } }</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.25">
@@ -13195,19 +13417,19 @@
         <v>460</v>
       </c>
       <c r="I63" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="27"/>
-        <v>_CityOld</v>
+        <f t="shared" si="30"/>
+        <v>_ZipCodeOld</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _CityOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _ZipCodeOld;</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="29"/>
-        <v>public string CityOld { get { return _CityOld; } set { _CityOld = value; OnPropertyChanged("CityOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string ZipCodeOld { get { return _ZipCodeOld; } set { _ZipCodeOld = value; OnPropertyChanged("ZipCodeOld"); } }</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.25">
@@ -13218,19 +13440,19 @@
         <v>566</v>
       </c>
       <c r="I64" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="27"/>
-        <v>_IsStreetChanged</v>
+        <f t="shared" si="30"/>
+        <v>_IsCityChanged</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="28"/>
-        <v>private bool _IsStreetChanged;</v>
+        <f t="shared" si="31"/>
+        <v>private bool _IsCityChanged;</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="29"/>
-        <v>public bool IsStreetChanged { get { return _IsStreetChanged; } set { _IsStreetChanged = value; OnPropertyChanged("IsStreetChanged"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public bool IsCityChanged { get { return _IsCityChanged; } set { _IsCityChanged = value; OnPropertyChanged("IsCityChanged"); } }</v>
       </c>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.25">
@@ -13241,19 +13463,19 @@
         <v>460</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="27"/>
-        <v>_StreetNew</v>
+        <f t="shared" si="30"/>
+        <v>_CityNew</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _StreetNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _CityNew;</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="29"/>
-        <v>public string StreetNew { get { return _StreetNew; } set { _StreetNew = value; OnPropertyChanged("StreetNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string CityNew { get { return _CityNew; } set { _CityNew = value; OnPropertyChanged("CityNew"); } }</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.25">
@@ -13264,19 +13486,19 @@
         <v>460</v>
       </c>
       <c r="I66" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="27"/>
-        <v>_StreetOld</v>
+        <f t="shared" si="30"/>
+        <v>_CityOld</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _StreetOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _CityOld;</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="29"/>
-        <v>public string StreetOld { get { return _StreetOld; } set { _StreetOld = value; OnPropertyChanged("StreetOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string CityOld { get { return _CityOld; } set { _CityOld = value; OnPropertyChanged("CityOld"); } }</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.25">
@@ -13287,19 +13509,19 @@
         <v>566</v>
       </c>
       <c r="I67" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="27"/>
-        <v>_IsHouseNrChanged</v>
+        <f t="shared" si="30"/>
+        <v>_IsStreetChanged</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="28"/>
-        <v>private bool _IsHouseNrChanged;</v>
+        <f t="shared" si="31"/>
+        <v>private bool _IsStreetChanged;</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="29"/>
-        <v>public bool IsHouseNrChanged { get { return _IsHouseNrChanged; } set { _IsHouseNrChanged = value; OnPropertyChanged("IsHouseNrChanged"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public bool IsStreetChanged { get { return _IsStreetChanged; } set { _IsStreetChanged = value; OnPropertyChanged("IsStreetChanged"); } }</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.25">
@@ -13310,19 +13532,19 @@
         <v>460</v>
       </c>
       <c r="I68" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="27"/>
-        <v>_HouseNrNew</v>
+        <f t="shared" si="30"/>
+        <v>_StreetNew</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _HouseNrNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _StreetNew;</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="29"/>
-        <v>public string HouseNrNew { get { return _HouseNrNew; } set { _HouseNrNew = value; OnPropertyChanged("HouseNrNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string StreetNew { get { return _StreetNew; } set { _StreetNew = value; OnPropertyChanged("StreetNew"); } }</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.25">
@@ -13333,19 +13555,19 @@
         <v>460</v>
       </c>
       <c r="I69" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="27"/>
-        <v>_HouseNrOld</v>
+        <f t="shared" si="30"/>
+        <v>_StreetOld</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _HouseNrOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _StreetOld;</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="29"/>
-        <v>public string HouseNrOld { get { return _HouseNrOld; } set { _HouseNrOld = value; OnPropertyChanged("HouseNrOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string StreetOld { get { return _StreetOld; } set { _StreetOld = value; OnPropertyChanged("StreetOld"); } }</v>
       </c>
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.25">
@@ -13356,19 +13578,19 @@
         <v>566</v>
       </c>
       <c r="I70" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="27"/>
-        <v>_IsApptOfficeNrChanged</v>
+        <f t="shared" si="30"/>
+        <v>_IsHouseNrChanged</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="28"/>
-        <v>private bool _IsApptOfficeNrChanged;</v>
+        <f t="shared" si="31"/>
+        <v>private bool _IsHouseNrChanged;</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="29"/>
-        <v>public bool IsApptOfficeNrChanged { get { return _IsApptOfficeNrChanged; } set { _IsApptOfficeNrChanged = value; OnPropertyChanged("IsApptOfficeNrChanged"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public bool IsHouseNrChanged { get { return _IsHouseNrChanged; } set { _IsHouseNrChanged = value; OnPropertyChanged("IsHouseNrChanged"); } }</v>
       </c>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.25">
@@ -13379,19 +13601,19 @@
         <v>460</v>
       </c>
       <c r="I71" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="27"/>
-        <v>_ApptOfficeNrNew</v>
+        <f t="shared" si="30"/>
+        <v>_HouseNrNew</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _ApptOfficeNrNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _HouseNrNew;</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="29"/>
-        <v>public string ApptOfficeNrNew { get { return _ApptOfficeNrNew; } set { _ApptOfficeNrNew = value; OnPropertyChanged("ApptOfficeNrNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string HouseNrNew { get { return _HouseNrNew; } set { _HouseNrNew = value; OnPropertyChanged("HouseNrNew"); } }</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.25">
@@ -13402,19 +13624,19 @@
         <v>460</v>
       </c>
       <c r="I72" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="27"/>
-        <v>_ApptOfficeNrOld</v>
+        <f t="shared" si="30"/>
+        <v>_HouseNrOld</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="28"/>
-        <v>private string _ApptOfficeNrOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _HouseNrOld;</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="29"/>
-        <v>public string ApptOfficeNrOld { get { return _ApptOfficeNrOld; } set { _ApptOfficeNrOld = value; OnPropertyChanged("ApptOfficeNrOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string HouseNrOld { get { return _HouseNrOld; } set { _HouseNrOld = value; OnPropertyChanged("HouseNrOld"); } }</v>
       </c>
     </row>
     <row r="73" spans="7:12" x14ac:dyDescent="0.25">
@@ -13425,19 +13647,19 @@
         <v>566</v>
       </c>
       <c r="I73" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="24"/>
-        <v>_IsDialCodeChanged</v>
+        <f t="shared" si="30"/>
+        <v>_IsApptOfficeNrChanged</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="25"/>
-        <v>private bool _IsDialCodeChanged;</v>
+        <f t="shared" si="31"/>
+        <v>private bool _IsApptOfficeNrChanged;</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="26"/>
-        <v>public bool IsDialCodeChanged { get { return _IsDialCodeChanged; } set { _IsDialCodeChanged = value; OnPropertyChanged("IsDialCodeChanged"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public bool IsApptOfficeNrChanged { get { return _IsApptOfficeNrChanged; } set { _IsApptOfficeNrChanged = value; OnPropertyChanged("IsApptOfficeNrChanged"); } }</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.25">
@@ -13448,19 +13670,19 @@
         <v>460</v>
       </c>
       <c r="I74" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="24"/>
-        <v>_DialCodeNew</v>
+        <f t="shared" si="30"/>
+        <v>_ApptOfficeNrNew</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="25"/>
-        <v>private string _DialCodeNew;</v>
+        <f t="shared" si="31"/>
+        <v>private string _ApptOfficeNrNew;</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="26"/>
-        <v>public string DialCodeNew { get { return _DialCodeNew; } set { _DialCodeNew = value; OnPropertyChanged("DialCodeNew"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string ApptOfficeNrNew { get { return _ApptOfficeNrNew; } set { _ApptOfficeNrNew = value; OnPropertyChanged("ApptOfficeNrNew"); } }</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.25">
@@ -13471,19 +13693,19 @@
         <v>460</v>
       </c>
       <c r="I75" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="24"/>
-        <v>_DialCodeOld</v>
+        <f t="shared" si="30"/>
+        <v>_ApptOfficeNrOld</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="25"/>
-        <v>private string _DialCodeOld;</v>
+        <f t="shared" si="31"/>
+        <v>private string _ApptOfficeNrOld;</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="26"/>
-        <v>public string DialCodeOld { get { return _DialCodeOld; } set { _DialCodeOld = value; OnPropertyChanged("DialCodeOld"); } }</v>
+        <f t="shared" si="32"/>
+        <v>public string ApptOfficeNrOld { get { return _ApptOfficeNrOld; } set { _ApptOfficeNrOld = value; OnPropertyChanged("ApptOfficeNrOld"); } }</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.25">
@@ -13494,19 +13716,19 @@
         <v>566</v>
       </c>
       <c r="I76" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="24"/>
-        <v>_IsFaxChanged</v>
+        <v>_IsDialCodeChanged</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsFaxChanged;</v>
+        <v>private bool _IsDialCodeChanged;</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsFaxChanged { get { return _IsFaxChanged; } set { _IsFaxChanged = value; OnPropertyChanged("IsFaxChanged"); } }</v>
+        <v>public bool IsDialCodeChanged { get { return _IsDialCodeChanged; } set { _IsDialCodeChanged = value; OnPropertyChanged("IsDialCodeChanged"); } }</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.25">
@@ -13517,19 +13739,19 @@
         <v>460</v>
       </c>
       <c r="I77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="24"/>
-        <v>_FaxNew</v>
+        <v>_DialCodeNew</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="25"/>
-        <v>private string _FaxNew;</v>
+        <v>private string _DialCodeNew;</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="26"/>
-        <v>public string FaxNew { get { return _FaxNew; } set { _FaxNew = value; OnPropertyChanged("FaxNew"); } }</v>
+        <v>public string DialCodeNew { get { return _DialCodeNew; } set { _DialCodeNew = value; OnPropertyChanged("DialCodeNew"); } }</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.25">
@@ -13540,19 +13762,19 @@
         <v>460</v>
       </c>
       <c r="I78" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="24"/>
-        <v>_FaxOld</v>
+        <v>_DialCodeOld</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="25"/>
-        <v>private string _FaxOld;</v>
+        <v>private string _DialCodeOld;</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="26"/>
-        <v>public string FaxOld { get { return _FaxOld; } set { _FaxOld = value; OnPropertyChanged("FaxOld"); } }</v>
+        <v>public string DialCodeOld { get { return _DialCodeOld; } set { _DialCodeOld = value; OnPropertyChanged("DialCodeOld"); } }</v>
       </c>
     </row>
     <row r="79" spans="7:12" x14ac:dyDescent="0.25">
@@ -13563,19 +13785,19 @@
         <v>566</v>
       </c>
       <c r="I79" t="s">
-        <v>516</v>
+        <v>597</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="24"/>
-        <v>_IsEmailChanged</v>
+        <f t="shared" ref="J79:J81" si="33">"_"&amp;I79</f>
+        <v>_IsPhoneChanged</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="25"/>
-        <v>private bool _IsEmailChanged;</v>
+        <f t="shared" ref="K79:K81" si="34">"private " &amp; H79 &amp; " " &amp; J79 &amp; ";"</f>
+        <v>private bool _IsPhoneChanged;</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="26"/>
-        <v>public bool IsEmailChanged { get { return _IsEmailChanged; } set { _IsEmailChanged = value; OnPropertyChanged("IsEmailChanged"); } }</v>
+        <f t="shared" ref="L79:L81" si="35">G79&amp; " " &amp;H79&amp; " " &amp;I79 &amp; " { get { return " &amp; J79 &amp; "; } set { " &amp;J79 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I79 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsPhoneChanged { get { return _IsPhoneChanged; } set { _IsPhoneChanged = value; OnPropertyChanged("IsPhoneChanged"); } }</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.25">
@@ -13586,19 +13808,19 @@
         <v>460</v>
       </c>
       <c r="I80" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="24"/>
-        <v>_EmailNew</v>
+        <f t="shared" si="33"/>
+        <v>_PhoneNew</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="25"/>
-        <v>private string _EmailNew;</v>
+        <f t="shared" si="34"/>
+        <v>private string _PhoneNew;</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="26"/>
-        <v>public string EmailNew { get { return _EmailNew; } set { _EmailNew = value; OnPropertyChanged("EmailNew"); } }</v>
+        <f t="shared" si="35"/>
+        <v>public string PhoneNew { get { return _PhoneNew; } set { _PhoneNew = value; OnPropertyChanged("PhoneNew"); } }</v>
       </c>
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.25">
@@ -13609,19 +13831,19 @@
         <v>460</v>
       </c>
       <c r="I81" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="24"/>
-        <v>_EmailOld</v>
+        <f t="shared" si="33"/>
+        <v>_PhoneOld</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="25"/>
-        <v>private string _EmailOld;</v>
+        <f t="shared" si="34"/>
+        <v>private string _PhoneOld;</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="26"/>
-        <v>public string EmailOld { get { return _EmailOld; } set { _EmailOld = value; OnPropertyChanged("EmailOld"); } }</v>
+        <f t="shared" si="35"/>
+        <v>public string PhoneOld { get { return _PhoneOld; } set { _PhoneOld = value; OnPropertyChanged("PhoneOld"); } }</v>
       </c>
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.25">
@@ -13632,19 +13854,19 @@
         <v>566</v>
       </c>
       <c r="I82" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="24"/>
-        <v>_IswwwChanged</v>
+        <v>_IsFaxChanged</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IswwwChanged;</v>
+        <v>private bool _IsFaxChanged;</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IswwwChanged { get { return _IswwwChanged; } set { _IswwwChanged = value; OnPropertyChanged("IswwwChanged"); } }</v>
+        <v>public bool IsFaxChanged { get { return _IsFaxChanged; } set { _IsFaxChanged = value; OnPropertyChanged("IsFaxChanged"); } }</v>
       </c>
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.25">
@@ -13655,19 +13877,19 @@
         <v>460</v>
       </c>
       <c r="I83" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="24"/>
-        <v>_wwwNew</v>
+        <v>_FaxNew</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="25"/>
-        <v>private string _wwwNew;</v>
+        <v>private string _FaxNew;</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="26"/>
-        <v>public string wwwNew { get { return _wwwNew; } set { _wwwNew = value; OnPropertyChanged("wwwNew"); } }</v>
+        <v>public string FaxNew { get { return _FaxNew; } set { _FaxNew = value; OnPropertyChanged("FaxNew"); } }</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.25">
@@ -13678,19 +13900,19 @@
         <v>460</v>
       </c>
       <c r="I84" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="24"/>
-        <v>_wwwOld</v>
+        <v>_FaxOld</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="25"/>
-        <v>private string _wwwOld;</v>
+        <v>private string _FaxOld;</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="26"/>
-        <v>public string wwwOld { get { return _wwwOld; } set { _wwwOld = value; OnPropertyChanged("wwwOld"); } }</v>
+        <v>public string FaxOld { get { return _FaxOld; } set { _FaxOld = value; OnPropertyChanged("FaxOld"); } }</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.25">
@@ -13701,19 +13923,19 @@
         <v>566</v>
       </c>
       <c r="I85" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrPositionChanged</v>
+        <v>_IsEmailChanged</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrPositionChanged;</v>
+        <v>private bool _IsEmailChanged;</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrPositionChanged { get { return _IsMgrPositionChanged; } set { _IsMgrPositionChanged = value; OnPropertyChanged("IsMgrPositionChanged"); } }</v>
+        <v>public bool IsEmailChanged { get { return _IsEmailChanged; } set { _IsEmailChanged = value; OnPropertyChanged("IsEmailChanged"); } }</v>
       </c>
     </row>
     <row r="86" spans="7:12" x14ac:dyDescent="0.25">
@@ -13724,19 +13946,19 @@
         <v>460</v>
       </c>
       <c r="I86" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrPositionNew</v>
+        <v>_EmailNew</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrPositionNew;</v>
+        <v>private string _EmailNew;</v>
       </c>
       <c r="L86" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrPositionNew { get { return _MgrPositionNew; } set { _MgrPositionNew = value; OnPropertyChanged("MgrPositionNew"); } }</v>
+        <v>public string EmailNew { get { return _EmailNew; } set { _EmailNew = value; OnPropertyChanged("EmailNew"); } }</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.25">
@@ -13747,19 +13969,19 @@
         <v>460</v>
       </c>
       <c r="I87" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrPositionOld</v>
+        <v>_EmailOld</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrPositionOld;</v>
+        <v>private string _EmailOld;</v>
       </c>
       <c r="L87" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrPositionOld { get { return _MgrPositionOld; } set { _MgrPositionOld = value; OnPropertyChanged("MgrPositionOld"); } }</v>
+        <v>public string EmailOld { get { return _EmailOld; } set { _EmailOld = value; OnPropertyChanged("EmailOld"); } }</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.25">
@@ -13770,19 +13992,19 @@
         <v>566</v>
       </c>
       <c r="I88" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrCountryISO3CodeChanged</v>
+        <v>_IswwwChanged</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrCountryISO3CodeChanged;</v>
+        <v>private bool _IswwwChanged;</v>
       </c>
       <c r="L88" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrCountryISO3CodeChanged { get { return _IsMgrCountryISO3CodeChanged; } set { _IsMgrCountryISO3CodeChanged = value; OnPropertyChanged("IsMgrCountryISO3CodeChanged"); } }</v>
+        <v>public bool IswwwChanged { get { return _IswwwChanged; } set { _IswwwChanged = value; OnPropertyChanged("IswwwChanged"); } }</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.25">
@@ -13793,19 +14015,19 @@
         <v>460</v>
       </c>
       <c r="I89" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrCountryISO3CodeNew</v>
+        <v>_wwwNew</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrCountryISO3CodeNew;</v>
+        <v>private string _wwwNew;</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrCountryISO3CodeNew { get { return _MgrCountryISO3CodeNew; } set { _MgrCountryISO3CodeNew = value; OnPropertyChanged("MgrCountryISO3CodeNew"); } }</v>
+        <v>public string wwwNew { get { return _wwwNew; } set { _wwwNew = value; OnPropertyChanged("wwwNew"); } }</v>
       </c>
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.25">
@@ -13816,19 +14038,19 @@
         <v>460</v>
       </c>
       <c r="I90" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrCountryISO3CodeOld</v>
+        <v>_wwwOld</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrCountryISO3CodeOld;</v>
+        <v>private string _wwwOld;</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrCountryISO3CodeOld { get { return _MgrCountryISO3CodeOld; } set { _MgrCountryISO3CodeOld = value; OnPropertyChanged("MgrCountryISO3CodeOld"); } }</v>
+        <v>public string wwwOld { get { return _wwwOld; } set { _wwwOld = value; OnPropertyChanged("wwwOld"); } }</v>
       </c>
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.25">
@@ -13839,19 +14061,19 @@
         <v>566</v>
       </c>
       <c r="I91" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrCountryNameUkrChanged</v>
+        <v>_IsMgrPositionChanged</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrCountryNameUkrChanged;</v>
+        <v>private bool _IsMgrPositionChanged;</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrCountryNameUkrChanged { get { return _IsMgrCountryNameUkrChanged; } set { _IsMgrCountryNameUkrChanged = value; OnPropertyChanged("IsMgrCountryNameUkrChanged"); } }</v>
+        <v>public bool IsMgrPositionChanged { get { return _IsMgrPositionChanged; } set { _IsMgrPositionChanged = value; OnPropertyChanged("IsMgrPositionChanged"); } }</v>
       </c>
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.25">
@@ -13862,19 +14084,19 @@
         <v>460</v>
       </c>
       <c r="I92" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrCountryNameUkrNew</v>
+        <v>_MgrPositionNew</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrCountryNameUkrNew;</v>
+        <v>private string _MgrPositionNew;</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrCountryNameUkrNew { get { return _MgrCountryNameUkrNew; } set { _MgrCountryNameUkrNew = value; OnPropertyChanged("MgrCountryNameUkrNew"); } }</v>
+        <v>public string MgrPositionNew { get { return _MgrPositionNew; } set { _MgrPositionNew = value; OnPropertyChanged("MgrPositionNew"); } }</v>
       </c>
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.25">
@@ -13885,19 +14107,19 @@
         <v>460</v>
       </c>
       <c r="I93" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrCountryNameUkrOld</v>
+        <v>_MgrPositionOld</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrCountryNameUkrOld;</v>
+        <v>private string _MgrPositionOld;</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrCountryNameUkrOld { get { return _MgrCountryNameUkrOld; } set { _MgrCountryNameUkrOld = value; OnPropertyChanged("MgrCountryNameUkrOld"); } }</v>
+        <v>public string MgrPositionOld { get { return _MgrPositionOld; } set { _MgrPositionOld = value; OnPropertyChanged("MgrPositionOld"); } }</v>
       </c>
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.25">
@@ -13908,19 +14130,19 @@
         <v>566</v>
       </c>
       <c r="I94" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrSurnameChanged</v>
+        <v>_IsMgrCountryISO3CodeChanged</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrSurnameChanged;</v>
+        <v>private bool _IsMgrCountryISO3CodeChanged;</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrSurnameChanged { get { return _IsMgrSurnameChanged; } set { _IsMgrSurnameChanged = value; OnPropertyChanged("IsMgrSurnameChanged"); } }</v>
+        <v>public bool IsMgrCountryISO3CodeChanged { get { return _IsMgrCountryISO3CodeChanged; } set { _IsMgrCountryISO3CodeChanged = value; OnPropertyChanged("IsMgrCountryISO3CodeChanged"); } }</v>
       </c>
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.25">
@@ -13931,19 +14153,19 @@
         <v>460</v>
       </c>
       <c r="I95" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrSurnameNew</v>
+        <v>_MgrCountryISO3CodeNew</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrSurnameNew;</v>
+        <v>private string _MgrCountryISO3CodeNew;</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrSurnameNew { get { return _MgrSurnameNew; } set { _MgrSurnameNew = value; OnPropertyChanged("MgrSurnameNew"); } }</v>
+        <v>public string MgrCountryISO3CodeNew { get { return _MgrCountryISO3CodeNew; } set { _MgrCountryISO3CodeNew = value; OnPropertyChanged("MgrCountryISO3CodeNew"); } }</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.25">
@@ -13954,19 +14176,19 @@
         <v>460</v>
       </c>
       <c r="I96" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrSurnameOld</v>
+        <v>_MgrCountryISO3CodeOld</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrSurnameOld;</v>
+        <v>private string _MgrCountryISO3CodeOld;</v>
       </c>
       <c r="L96" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrSurnameOld { get { return _MgrSurnameOld; } set { _MgrSurnameOld = value; OnPropertyChanged("MgrSurnameOld"); } }</v>
+        <v>public string MgrCountryISO3CodeOld { get { return _MgrCountryISO3CodeOld; } set { _MgrCountryISO3CodeOld = value; OnPropertyChanged("MgrCountryISO3CodeOld"); } }</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.25">
@@ -13977,19 +14199,19 @@
         <v>566</v>
       </c>
       <c r="I97" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrNameChanged</v>
+        <v>_IsMgrCountryNameUkrChanged</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrNameChanged;</v>
+        <v>private bool _IsMgrCountryNameUkrChanged;</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrNameChanged { get { return _IsMgrNameChanged; } set { _IsMgrNameChanged = value; OnPropertyChanged("IsMgrNameChanged"); } }</v>
+        <v>public bool IsMgrCountryNameUkrChanged { get { return _IsMgrCountryNameUkrChanged; } set { _IsMgrCountryNameUkrChanged = value; OnPropertyChanged("IsMgrCountryNameUkrChanged"); } }</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.25">
@@ -14000,19 +14222,19 @@
         <v>460</v>
       </c>
       <c r="I98" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrNameNew</v>
+        <v>_MgrCountryNameUkrNew</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrNameNew;</v>
+        <v>private string _MgrCountryNameUkrNew;</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrNameNew { get { return _MgrNameNew; } set { _MgrNameNew = value; OnPropertyChanged("MgrNameNew"); } }</v>
+        <v>public string MgrCountryNameUkrNew { get { return _MgrCountryNameUkrNew; } set { _MgrCountryNameUkrNew = value; OnPropertyChanged("MgrCountryNameUkrNew"); } }</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.25">
@@ -14023,19 +14245,19 @@
         <v>460</v>
       </c>
       <c r="I99" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="24"/>
-        <v>_MgrNameOld</v>
+        <v>_MgrCountryNameUkrOld</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="25"/>
-        <v>private string _MgrNameOld;</v>
+        <v>private string _MgrCountryNameUkrOld;</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="26"/>
-        <v>public string MgrNameOld { get { return _MgrNameOld; } set { _MgrNameOld = value; OnPropertyChanged("MgrNameOld"); } }</v>
+        <v>public string MgrCountryNameUkrOld { get { return _MgrCountryNameUkrOld; } set { _MgrCountryNameUkrOld = value; OnPropertyChanged("MgrCountryNameUkrOld"); } }</v>
       </c>
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.25">
@@ -14046,19 +14268,19 @@
         <v>566</v>
       </c>
       <c r="I100" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="24"/>
-        <v>_IsMgrMiddleNameChanged</v>
+        <v>_IsMgrSurnameChanged</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="25"/>
-        <v>private bool _IsMgrMiddleNameChanged;</v>
+        <v>private bool _IsMgrSurnameChanged;</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="26"/>
-        <v>public bool IsMgrMiddleNameChanged { get { return _IsMgrMiddleNameChanged; } set { _IsMgrMiddleNameChanged = value; OnPropertyChanged("IsMgrMiddleNameChanged"); } }</v>
+        <v>public bool IsMgrSurnameChanged { get { return _IsMgrSurnameChanged; } set { _IsMgrSurnameChanged = value; OnPropertyChanged("IsMgrSurnameChanged"); } }</v>
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.25">
@@ -14069,19 +14291,19 @@
         <v>460</v>
       </c>
       <c r="I101" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" ref="J101:J114" si="30">"_"&amp;I101</f>
-        <v>_MgrMiddleNameNew</v>
+        <f t="shared" si="24"/>
+        <v>_MgrSurnameNew</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" ref="K101:K114" si="31">"private " &amp; H101 &amp; " " &amp; J101 &amp; ";"</f>
-        <v>private string _MgrMiddleNameNew;</v>
+        <f t="shared" si="25"/>
+        <v>private string _MgrSurnameNew;</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" ref="L101:L114" si="32">G101&amp; " " &amp;H101&amp; " " &amp;I101 &amp; " { get { return " &amp; J101 &amp; "; } set { " &amp;J101 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I101 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string MgrMiddleNameNew { get { return _MgrMiddleNameNew; } set { _MgrMiddleNameNew = value; OnPropertyChanged("MgrMiddleNameNew"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public string MgrSurnameNew { get { return _MgrSurnameNew; } set { _MgrSurnameNew = value; OnPropertyChanged("MgrSurnameNew"); } }</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.25">
@@ -14092,19 +14314,19 @@
         <v>460</v>
       </c>
       <c r="I102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrMiddleNameOld</v>
+        <f t="shared" si="24"/>
+        <v>_MgrSurnameOld</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrMiddleNameOld;</v>
+        <f t="shared" si="25"/>
+        <v>private string _MgrSurnameOld;</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrMiddleNameOld { get { return _MgrMiddleNameOld; } set { _MgrMiddleNameOld = value; OnPropertyChanged("MgrMiddleNameOld"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public string MgrSurnameOld { get { return _MgrSurnameOld; } set { _MgrSurnameOld = value; OnPropertyChanged("MgrSurnameOld"); } }</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.25">
@@ -14115,19 +14337,19 @@
         <v>566</v>
       </c>
       <c r="I103" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="30"/>
-        <v>_IsMgrSurnameAtBirthChanged</v>
+        <f t="shared" si="24"/>
+        <v>_IsMgrNameChanged</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="31"/>
-        <v>private bool _IsMgrSurnameAtBirthChanged;</v>
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrNameChanged;</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="32"/>
-        <v>public bool IsMgrSurnameAtBirthChanged { get { return _IsMgrSurnameAtBirthChanged; } set { _IsMgrSurnameAtBirthChanged = value; OnPropertyChanged("IsMgrSurnameAtBirthChanged"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrNameChanged { get { return _IsMgrNameChanged; } set { _IsMgrNameChanged = value; OnPropertyChanged("IsMgrNameChanged"); } }</v>
       </c>
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.25">
@@ -14138,19 +14360,19 @@
         <v>460</v>
       </c>
       <c r="I104" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrSurnameAtBirthNew</v>
+        <f t="shared" si="24"/>
+        <v>_MgrNameNew</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrSurnameAtBirthNew;</v>
+        <f t="shared" si="25"/>
+        <v>private string _MgrNameNew;</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrSurnameAtBirthNew { get { return _MgrSurnameAtBirthNew; } set { _MgrSurnameAtBirthNew = value; OnPropertyChanged("MgrSurnameAtBirthNew"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public string MgrNameNew { get { return _MgrNameNew; } set { _MgrNameNew = value; OnPropertyChanged("MgrNameNew"); } }</v>
       </c>
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.25">
@@ -14161,19 +14383,19 @@
         <v>460</v>
       </c>
       <c r="I105" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrSurnameAtBirthOld</v>
+        <f t="shared" si="24"/>
+        <v>_MgrNameOld</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrSurnameAtBirthOld;</v>
+        <f t="shared" si="25"/>
+        <v>private string _MgrNameOld;</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrSurnameAtBirthOld { get { return _MgrSurnameAtBirthOld; } set { _MgrSurnameAtBirthOld = value; OnPropertyChanged("MgrSurnameAtBirthOld"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public string MgrNameOld { get { return _MgrNameOld; } set { _MgrNameOld = value; OnPropertyChanged("MgrNameOld"); } }</v>
       </c>
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.25">
@@ -14184,19 +14406,19 @@
         <v>566</v>
       </c>
       <c r="I106" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="30"/>
-        <v>_IsMgrTaxOrSocSecIDChanged</v>
+        <f t="shared" si="24"/>
+        <v>_IsMgrMiddleNameChanged</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="31"/>
-        <v>private bool _IsMgrTaxOrSocSecIDChanged;</v>
+        <f t="shared" si="25"/>
+        <v>private bool _IsMgrMiddleNameChanged;</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="32"/>
-        <v>public bool IsMgrTaxOrSocSecIDChanged { get { return _IsMgrTaxOrSocSecIDChanged; } set { _IsMgrTaxOrSocSecIDChanged = value; OnPropertyChanged("IsMgrTaxOrSocSecIDChanged"); } }</v>
+        <f t="shared" si="26"/>
+        <v>public bool IsMgrMiddleNameChanged { get { return _IsMgrMiddleNameChanged; } set { _IsMgrMiddleNameChanged = value; OnPropertyChanged("IsMgrMiddleNameChanged"); } }</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.25">
@@ -14207,19 +14429,19 @@
         <v>460</v>
       </c>
       <c r="I107" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrTaxOrSocSecIDNew</v>
+        <f t="shared" ref="J107:J120" si="36">"_"&amp;I107</f>
+        <v>_MgrMiddleNameNew</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrTaxOrSocSecIDNew;</v>
+        <f t="shared" ref="K107:K120" si="37">"private " &amp; H107 &amp; " " &amp; J107 &amp; ";"</f>
+        <v>private string _MgrMiddleNameNew;</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrTaxOrSocSecIDNew { get { return _MgrTaxOrSocSecIDNew; } set { _MgrTaxOrSocSecIDNew = value; OnPropertyChanged("MgrTaxOrSocSecIDNew"); } }</v>
+        <f t="shared" ref="L107:L120" si="38">G107&amp; " " &amp;H107&amp; " " &amp;I107 &amp; " { get { return " &amp; J107 &amp; "; } set { " &amp;J107 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I107 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public string MgrMiddleNameNew { get { return _MgrMiddleNameNew; } set { _MgrMiddleNameNew = value; OnPropertyChanged("MgrMiddleNameNew"); } }</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.25">
@@ -14230,19 +14452,19 @@
         <v>460</v>
       </c>
       <c r="I108" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrTaxOrSocSecIDOld</v>
+        <f t="shared" si="36"/>
+        <v>_MgrMiddleNameOld</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrTaxOrSocSecIDOld;</v>
+        <f t="shared" si="37"/>
+        <v>private string _MgrMiddleNameOld;</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrTaxOrSocSecIDOld { get { return _MgrTaxOrSocSecIDOld; } set { _MgrTaxOrSocSecIDOld = value; OnPropertyChanged("MgrTaxOrSocSecIDOld"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public string MgrMiddleNameOld { get { return _MgrMiddleNameOld; } set { _MgrMiddleNameOld = value; OnPropertyChanged("MgrMiddleNameOld"); } }</v>
       </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.25">
@@ -14253,19 +14475,19 @@
         <v>566</v>
       </c>
       <c r="I109" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="30"/>
-        <v>_IsMgrPassportIDChanged</v>
+        <f t="shared" si="36"/>
+        <v>_IsMgrSurnameAtBirthChanged</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="31"/>
-        <v>private bool _IsMgrPassportIDChanged;</v>
+        <f t="shared" si="37"/>
+        <v>private bool _IsMgrSurnameAtBirthChanged;</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="32"/>
-        <v>public bool IsMgrPassportIDChanged { get { return _IsMgrPassportIDChanged; } set { _IsMgrPassportIDChanged = value; OnPropertyChanged("IsMgrPassportIDChanged"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public bool IsMgrSurnameAtBirthChanged { get { return _IsMgrSurnameAtBirthChanged; } set { _IsMgrSurnameAtBirthChanged = value; OnPropertyChanged("IsMgrSurnameAtBirthChanged"); } }</v>
       </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.25">
@@ -14276,19 +14498,19 @@
         <v>460</v>
       </c>
       <c r="I110" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrPassportIDNew</v>
+        <f t="shared" si="36"/>
+        <v>_MgrSurnameAtBirthNew</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrPassportIDNew;</v>
+        <f t="shared" si="37"/>
+        <v>private string _MgrSurnameAtBirthNew;</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrPassportIDNew { get { return _MgrPassportIDNew; } set { _MgrPassportIDNew = value; OnPropertyChanged("MgrPassportIDNew"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public string MgrSurnameAtBirthNew { get { return _MgrSurnameAtBirthNew; } set { _MgrSurnameAtBirthNew = value; OnPropertyChanged("MgrSurnameAtBirthNew"); } }</v>
       </c>
     </row>
     <row r="111" spans="7:12" x14ac:dyDescent="0.25">
@@ -14299,19 +14521,19 @@
         <v>460</v>
       </c>
       <c r="I111" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrPassportIDOld</v>
+        <f t="shared" si="36"/>
+        <v>_MgrSurnameAtBirthOld</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="31"/>
-        <v>private string _MgrPassportIDOld;</v>
+        <f t="shared" si="37"/>
+        <v>private string _MgrSurnameAtBirthOld;</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="32"/>
-        <v>public string MgrPassportIDOld { get { return _MgrPassportIDOld; } set { _MgrPassportIDOld = value; OnPropertyChanged("MgrPassportIDOld"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public string MgrSurnameAtBirthOld { get { return _MgrSurnameAtBirthOld; } set { _MgrSurnameAtBirthOld = value; OnPropertyChanged("MgrSurnameAtBirthOld"); } }</v>
       </c>
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.25">
@@ -14322,19 +14544,19 @@
         <v>566</v>
       </c>
       <c r="I112" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="30"/>
-        <v>_IsMgrPassIssuedDateChanged</v>
+        <f t="shared" si="36"/>
+        <v>_IsMgrTaxOrSocSecIDChanged</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="31"/>
-        <v>private bool _IsMgrPassIssuedDateChanged;</v>
+        <f t="shared" si="37"/>
+        <v>private bool _IsMgrTaxOrSocSecIDChanged;</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="32"/>
-        <v>public bool IsMgrPassIssuedDateChanged { get { return _IsMgrPassIssuedDateChanged; } set { _IsMgrPassIssuedDateChanged = value; OnPropertyChanged("IsMgrPassIssuedDateChanged"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public bool IsMgrTaxOrSocSecIDChanged { get { return _IsMgrTaxOrSocSecIDChanged; } set { _IsMgrTaxOrSocSecIDChanged = value; OnPropertyChanged("IsMgrTaxOrSocSecIDChanged"); } }</v>
       </c>
     </row>
     <row r="113" spans="7:12" x14ac:dyDescent="0.25">
@@ -14342,22 +14564,22 @@
         <v>567</v>
       </c>
       <c r="H113" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="I113" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="30"/>
-        <v>_MgrPassIssuedDateNew</v>
+        <f t="shared" si="36"/>
+        <v>_MgrTaxOrSocSecIDNew</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="31"/>
-        <v>private DateTime? _MgrPassIssuedDateNew;</v>
+        <f t="shared" si="37"/>
+        <v>private string _MgrTaxOrSocSecIDNew;</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="32"/>
-        <v>public DateTime? MgrPassIssuedDateNew { get { return _MgrPassIssuedDateNew; } set { _MgrPassIssuedDateNew = value; OnPropertyChanged("MgrPassIssuedDateNew"); } }</v>
+        <f t="shared" si="38"/>
+        <v>public string MgrTaxOrSocSecIDNew { get { return _MgrTaxOrSocSecIDNew; } set { _MgrTaxOrSocSecIDNew = value; OnPropertyChanged("MgrTaxOrSocSecIDNew"); } }</v>
       </c>
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.25">
@@ -14365,22 +14587,298 @@
         <v>567</v>
       </c>
       <c r="H114" t="s">
+        <v>460</v>
+      </c>
+      <c r="I114" t="s">
+        <v>535</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="36"/>
+        <v>_MgrTaxOrSocSecIDOld</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="37"/>
+        <v>private string _MgrTaxOrSocSecIDOld;</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="38"/>
+        <v>public string MgrTaxOrSocSecIDOld { get { return _MgrTaxOrSocSecIDOld; } set { _MgrTaxOrSocSecIDOld = value; OnPropertyChanged("MgrTaxOrSocSecIDOld"); } }</v>
+      </c>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>567</v>
+      </c>
+      <c r="H115" t="s">
+        <v>566</v>
+      </c>
+      <c r="I115" t="s">
+        <v>536</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="36"/>
+        <v>_IsMgrPassportIDChanged</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="37"/>
+        <v>private bool _IsMgrPassportIDChanged;</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="38"/>
+        <v>public bool IsMgrPassportIDChanged { get { return _IsMgrPassportIDChanged; } set { _IsMgrPassportIDChanged = value; OnPropertyChanged("IsMgrPassportIDChanged"); } }</v>
+      </c>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>567</v>
+      </c>
+      <c r="H116" t="s">
+        <v>460</v>
+      </c>
+      <c r="I116" t="s">
+        <v>564</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="36"/>
+        <v>_MgrPassportIDNew</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="37"/>
+        <v>private string _MgrPassportIDNew;</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="38"/>
+        <v>public string MgrPassportIDNew { get { return _MgrPassportIDNew; } set { _MgrPassportIDNew = value; OnPropertyChanged("MgrPassportIDNew"); } }</v>
+      </c>
+    </row>
+    <row r="117" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>567</v>
+      </c>
+      <c r="H117" t="s">
+        <v>460</v>
+      </c>
+      <c r="I117" t="s">
+        <v>537</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="36"/>
+        <v>_MgrPassportIDOld</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="37"/>
+        <v>private string _MgrPassportIDOld;</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="38"/>
+        <v>public string MgrPassportIDOld { get { return _MgrPassportIDOld; } set { _MgrPassportIDOld = value; OnPropertyChanged("MgrPassportIDOld"); } }</v>
+      </c>
+    </row>
+    <row r="118" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>567</v>
+      </c>
+      <c r="H118" t="s">
+        <v>566</v>
+      </c>
+      <c r="I118" t="s">
+        <v>538</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="36"/>
+        <v>_IsMgrPassIssuedDateChanged</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="37"/>
+        <v>private bool _IsMgrPassIssuedDateChanged;</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="38"/>
+        <v>public bool IsMgrPassIssuedDateChanged { get { return _IsMgrPassIssuedDateChanged; } set { _IsMgrPassIssuedDateChanged = value; OnPropertyChanged("IsMgrPassIssuedDateChanged"); } }</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>567</v>
+      </c>
+      <c r="H119" t="s">
         <v>486</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I119" t="s">
+        <v>565</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="36"/>
+        <v>_MgrPassIssuedDateNew</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="37"/>
+        <v>private DateTime? _MgrPassIssuedDateNew;</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="38"/>
+        <v>public DateTime? MgrPassIssuedDateNew { get { return _MgrPassIssuedDateNew; } set { _MgrPassIssuedDateNew = value; OnPropertyChanged("MgrPassIssuedDateNew"); } }</v>
+      </c>
+    </row>
+    <row r="120" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>567</v>
+      </c>
+      <c r="H120" t="s">
+        <v>486</v>
+      </c>
+      <c r="I120" t="s">
         <v>539</v>
       </c>
-      <c r="J114" t="str">
-        <f t="shared" si="30"/>
+      <c r="J120" t="str">
+        <f t="shared" si="36"/>
         <v>_MgrPassIssuedDateOld</v>
       </c>
-      <c r="K114" t="str">
-        <f t="shared" si="31"/>
+      <c r="K120" t="str">
+        <f t="shared" si="37"/>
         <v>private DateTime? _MgrPassIssuedDateOld;</v>
       </c>
-      <c r="L114" t="str">
-        <f t="shared" si="32"/>
+      <c r="L120" t="str">
+        <f t="shared" si="38"/>
         <v>public DateTime? MgrPassIssuedDateOld { get { return _MgrPassIssuedDateOld; } set { _MgrPassIssuedDateOld = value; OnPropertyChanged("MgrPassIssuedDateOld"); } }</v>
+      </c>
+    </row>
+    <row r="121" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>567</v>
+      </c>
+      <c r="H121" t="s">
+        <v>566</v>
+      </c>
+      <c r="I121" t="s">
+        <v>603</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" ref="J121:J123" si="39">"_"&amp;I121</f>
+        <v>_IsOperationsListingChanged</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" ref="K121:K123" si="40">"private " &amp; H121 &amp; " " &amp; J121 &amp; ";"</f>
+        <v>private bool _IsOperationsListingChanged;</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" ref="L121:L123" si="41">G121&amp; " " &amp;H121&amp; " " &amp;I121 &amp; " { get { return " &amp; J121 &amp; "; } set { " &amp;J121 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I121 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsOperationsListingChanged { get { return _IsOperationsListingChanged; } set { _IsOperationsListingChanged = value; OnPropertyChanged("IsOperationsListingChanged"); } }</v>
+      </c>
+    </row>
+    <row r="122" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>567</v>
+      </c>
+      <c r="H122" t="s">
+        <v>460</v>
+      </c>
+      <c r="I122" t="s">
+        <v>604</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="39"/>
+        <v>_OperationsListingNew</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="40"/>
+        <v>private string _OperationsListingNew;</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="41"/>
+        <v>public string OperationsListingNew { get { return _OperationsListingNew; } set { _OperationsListingNew = value; OnPropertyChanged("OperationsListingNew"); } }</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>567</v>
+      </c>
+      <c r="H123" t="s">
+        <v>460</v>
+      </c>
+      <c r="I123" t="s">
+        <v>605</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="39"/>
+        <v>_OperationsListingOld</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="40"/>
+        <v>private string _OperationsListingOld;</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="41"/>
+        <v>public string OperationsListingOld { get { return _OperationsListingOld; } set { _OperationsListingOld = value; OnPropertyChanged("OperationsListingOld"); } }</v>
+      </c>
+    </row>
+    <row r="124" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>567</v>
+      </c>
+      <c r="H124" t="s">
+        <v>566</v>
+      </c>
+      <c r="I124" t="s">
+        <v>607</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" ref="J124:J126" si="42">"_"&amp;I124</f>
+        <v>_IsStatusChanged</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" ref="K124:K126" si="43">"private " &amp; H124 &amp; " " &amp; J124 &amp; ";"</f>
+        <v>private bool _IsStatusChanged;</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" ref="L124:L126" si="44">G124&amp; " " &amp;H124&amp; " " &amp;I124 &amp; " { get { return " &amp; J124 &amp; "; } set { " &amp;J124 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I124 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsStatusChanged { get { return _IsStatusChanged; } set { _IsStatusChanged = value; OnPropertyChanged("IsStatusChanged"); } }</v>
+      </c>
+    </row>
+    <row r="125" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>567</v>
+      </c>
+      <c r="H125" t="s">
+        <v>313</v>
+      </c>
+      <c r="I125" t="s">
+        <v>608</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="42"/>
+        <v>_StatusNew</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="43"/>
+        <v>private BankBranchStatusType _StatusNew;</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="44"/>
+        <v>public BankBranchStatusType StatusNew { get { return _StatusNew; } set { _StatusNew = value; OnPropertyChanged("StatusNew"); } }</v>
+      </c>
+    </row>
+    <row r="126" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>567</v>
+      </c>
+      <c r="H126" t="s">
+        <v>313</v>
+      </c>
+      <c r="I126" t="s">
+        <v>609</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="42"/>
+        <v>_StatusOld</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="43"/>
+        <v>private BankBranchStatusType _StatusOld;</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="44"/>
+        <v>public BankBranchStatusType StatusOld { get { return _StatusOld; } set { _StatusOld = value; OnPropertyChanged("StatusOld"); } }</v>
       </c>
     </row>
   </sheetData>
@@ -14394,7 +14892,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="620">
   <si>
     <t>ClassName</t>
   </si>
@@ -971,12 +971,6 @@
     <t>WorkingHoursDayType</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string NAMEF { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public DateTime D_OPEN { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public DateTime? D_CLOSE { get; set; }</t>
   </si>
   <si>
@@ -1217,15 +1211,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">        public string OccupNameUkr { get; set; }</t>
-  </si>
-  <si>
-    <t>public EmploymentBookInfo BookReqs { get; set; }</t>
-  </si>
-  <si>
-    <t>public List&lt;EmploymentRecordInfo&gt; Records { get; set; }</t>
-  </si>
-  <si>
     <t>EducationKindGros</t>
   </si>
   <si>
@@ -1403,9 +1388,6 @@
     <t>SMTSecuritiesMgmt</t>
   </si>
   <si>
-    <t>public EKDRBUVariableEntryPartV1 VariablePart { get; set; }</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -1854,6 +1836,54 @@
   </si>
   <si>
     <t>StatusOld</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>IsCoordinatesChanged</t>
+  </si>
+  <si>
+    <t>CoordinatesNew</t>
+  </si>
+  <si>
+    <t>CoordinatesOld</t>
+  </si>
+  <si>
+    <t>BankBranchType</t>
+  </si>
+  <si>
+    <t>BranchType</t>
+  </si>
+  <si>
+    <t>IsBranchTypeChanged</t>
+  </si>
+  <si>
+    <t>BranchTypeNew</t>
+  </si>
+  <si>
+    <t>BranchTypeOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;AttachmentInfo&gt; Attachments { get; set; } //todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public bool RequirementsKept { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public SignatoryInfo Signor { get; set; }</t>
+  </si>
+  <si>
+    <t>BankBranchChangeType</t>
+  </si>
+  <si>
+    <t>public BankBranchChangeType ChangeType { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -2686,18 +2716,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C2" t="str">
         <f>"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A2 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B2 &amp; CHAR(34) &amp; "},"</f>
@@ -2706,10 +2736,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C26" si="0">"new OblastInfo(){Code= " &amp; CHAR(34) &amp;A3 &amp; CHAR(34) &amp; ", Name = " &amp; CHAR(34) &amp; B3 &amp; CHAR(34) &amp; "},"</f>
@@ -2718,10 +2748,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2730,10 +2760,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2742,10 +2772,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2754,10 +2784,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2766,10 +2796,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2778,10 +2808,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2790,10 +2820,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2802,10 +2832,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2814,10 +2844,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2826,10 +2856,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2838,10 +2868,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2850,10 +2880,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2862,10 +2892,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -2874,10 +2904,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2886,10 +2916,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2898,10 +2928,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2910,10 +2940,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2922,10 +2952,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2934,10 +2964,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2946,10 +2976,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2958,10 +2988,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2970,10 +3000,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2982,10 +3012,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3000,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:E37"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,15 +3043,15 @@
         <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C2" t="str">
         <f>"Is" &amp; B2 &amp;"Changed"</f>
@@ -3038,10 +3068,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C35" si="0">"Is" &amp; B3 &amp;"Changed"</f>
@@ -3058,10 +3088,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3078,10 +3108,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3098,10 +3128,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3118,10 +3148,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
         <v>460</v>
-      </c>
-      <c r="B7" t="s">
-        <v>466</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3138,10 +3168,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3158,10 +3188,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3178,10 +3208,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3198,10 +3228,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3218,10 +3248,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3238,10 +3268,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3258,10 +3288,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3278,10 +3308,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3298,10 +3328,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3318,10 +3348,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3338,10 +3368,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3358,10 +3388,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3378,10 +3408,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3398,10 +3428,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3418,10 +3448,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -3438,10 +3468,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3458,10 +3488,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B24" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -3478,10 +3508,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3498,10 +3528,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B26" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3518,10 +3548,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -3538,10 +3568,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -3558,10 +3588,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B29" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -3578,10 +3608,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B30" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3598,10 +3628,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B31" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3618,10 +3648,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3638,10 +3668,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B33" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -3658,10 +3688,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -3678,10 +3708,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B35" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -3698,10 +3728,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="5">"Is" &amp; B36 &amp;"Changed"</f>
@@ -3721,7 +3751,7 @@
         <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="8">"Is" &amp; B37 &amp;"Changed"</f>
@@ -3734,6 +3764,46 @@
       <c r="E37" t="str">
         <f t="shared" ref="E37" si="10">B37&amp;"Old"</f>
         <v>StatusOld</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" t="s">
+        <v>604</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ref="C38:C39" si="11">"Is" &amp; B38 &amp;"Changed"</f>
+        <v>IsCoordinatesChanged</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D39" si="12">B38&amp;"New"</f>
+        <v>CoordinatesNew</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:E39" si="13">B38&amp;"Old"</f>
+        <v>CoordinatesOld</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="11"/>
+        <v>IsBranchTypeChanged</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="12"/>
+        <v>BranchTypeNew</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="13"/>
+        <v>BranchTypeOld</v>
       </c>
     </row>
   </sheetData>
@@ -8162,7 +8232,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L2" t="str">
         <f>C2</f>
@@ -8204,7 +8274,7 @@
         <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]PayDocsIssuance = 1,</v>
       </c>
       <c r="J3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L17" si="3">C3</f>
@@ -8246,7 +8316,7 @@
         <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]Trust = 2,</v>
       </c>
       <c r="J4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="3"/>
@@ -8288,7 +8358,7 @@
         <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]CurrencyExchange = 3,</v>
       </c>
       <c r="J5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
@@ -8330,7 +8400,7 @@
         <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]FinanceAssetsLiabilities = 4,</v>
       </c>
       <c r="J6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
@@ -8372,7 +8442,7 @@
         <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]FinancialLeasing = 5,</v>
       </c>
       <c r="J7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
@@ -8414,7 +8484,7 @@
         <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]Lending = 6,</v>
       </c>
       <c r="J8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
@@ -8456,7 +8526,7 @@
         <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]Guarantees = 7,</v>
       </c>
       <c r="J9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
@@ -8498,7 +8568,7 @@
         <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]FundsTransfer = 8,</v>
       </c>
       <c r="J10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="3"/>
@@ -8540,7 +8610,7 @@
         <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]InsuranceAndPensionSavings = 9,</v>
       </c>
       <c r="J11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="3"/>
@@ -8582,7 +8652,7 @@
         <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]StockExchangeActivities = 10,</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="3"/>
@@ -8624,7 +8694,7 @@
         <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]Factoring = 11,</v>
       </c>
       <c r="J13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="3"/>
@@ -8666,7 +8736,7 @@
         <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]FinAssetsAdministeringGroupsPurchase = 12,</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="3"/>
@@ -8708,7 +8778,7 @@
         <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]ConstructionAssetsManagement = 13,</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="3"/>
@@ -8750,7 +8820,7 @@
         <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]MortgageSecuritiesMngtIssue = 14,</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
@@ -8792,7 +8862,7 @@
         <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]OtherFinBankServices = 15,</v>
       </c>
       <c r="J17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="3"/>
@@ -8833,7 +8903,7 @@
         <v>[Description("Не вказано")]None = 0,</v>
       </c>
       <c r="J18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K18" t="str">
         <f>C18</f>
@@ -8875,7 +8945,7 @@
         <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
       </c>
       <c r="J19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K28" si="9">C19</f>
@@ -8917,7 +8987,7 @@
         <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
       </c>
       <c r="J20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="9"/>
@@ -8959,7 +9029,7 @@
         <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
       </c>
       <c r="J21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="9"/>
@@ -9001,7 +9071,7 @@
         <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
       </c>
       <c r="J22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="9"/>
@@ -9043,7 +9113,7 @@
         <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
       </c>
       <c r="J23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="9"/>
@@ -9085,7 +9155,7 @@
         <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
       </c>
       <c r="J24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="9"/>
@@ -9127,7 +9197,7 @@
         <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
       </c>
       <c r="J25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="9"/>
@@ -9169,7 +9239,7 @@
         <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
       </c>
       <c r="J26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="9"/>
@@ -9211,7 +9281,7 @@
         <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
       </c>
       <c r="J27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="9"/>
@@ -9253,7 +9323,7 @@
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
       <c r="J28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="9"/>
@@ -9504,7 +9574,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9530,13 +9600,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D39" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -9557,13 +9627,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -9584,13 +9654,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -9611,13 +9681,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D42" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -9638,13 +9708,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>415</v>
+      </c>
+      <c r="C43" t="s">
         <v>420</v>
       </c>
-      <c r="C43" t="s">
-        <v>425</v>
-      </c>
       <c r="D43" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -9665,13 +9735,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -9692,13 +9762,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -9719,13 +9789,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -9746,13 +9816,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -9773,13 +9843,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -9800,13 +9870,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -9827,13 +9897,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -9854,13 +9924,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -9881,13 +9951,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -9908,13 +9978,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D53" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -9935,13 +10005,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -9962,13 +10032,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D55" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -9989,13 +10059,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D56" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -10016,7 +10086,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10042,13 +10112,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -10069,13 +10139,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D59" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -10096,13 +10166,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C60" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D60" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -10123,13 +10193,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -10150,13 +10220,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>444</v>
+      </c>
+      <c r="D62" t="s">
         <v>439</v>
-      </c>
-      <c r="C62" t="s">
-        <v>449</v>
-      </c>
-      <c r="D62" t="s">
-        <v>444</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -10177,7 +10247,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10203,13 +10273,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>445</v>
+      </c>
+      <c r="C64" t="s">
         <v>450</v>
       </c>
-      <c r="C64" t="s">
-        <v>455</v>
-      </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -10226,13 +10296,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D65" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -10249,13 +10319,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C66" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D66" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -10272,13 +10342,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C67" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D67" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67" si="17">C67&amp; IF(LEN(B67)&gt;0," = " &amp;B67, "")</f>
@@ -10304,10 +10374,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11048,7 +11118,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ref="B36" si="9">"List"&amp;TRIM(A36)</f>
@@ -11069,7 +11139,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ref="B37:B41" si="13">"List"&amp;TRIM(A37)</f>
@@ -11090,7 +11160,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="13"/>
@@ -11111,7 +11181,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="13"/>
@@ -11132,7 +11202,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="13"/>
@@ -11153,7 +11223,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="13"/>
@@ -11170,6 +11240,48 @@
       <c r="E41" t="str">
         <f t="shared" si="16"/>
         <v>public static List&lt;EnumType&gt; FinActivitySvcInstrumentTypeList { get { return EnumType.GetEnumList(typeof(FinActivitySvcInstrumentType)); }}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:B43" si="17">"List"&amp;TRIM(A42)</f>
+        <v>ListBankBranchChangeType</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C43" si="18">"public List&lt;EnumType&gt; "&amp;B42 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A42&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListBankBranchChangeType() { return EnumType.GetEnumList(typeof(BankBranchChangeType)); }</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D43" si="19">A42&amp;"List"</f>
+        <v>BankBranchChangeTypeList</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ref="E42:E43" si="20">"public static List&lt;EnumType&gt; "&amp;D42 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A42&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; BankBranchChangeTypeList { get { return EnumType.GetEnumList(typeof(BankBranchChangeType)); }}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="17"/>
+        <v>ListBankBranchType</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="18"/>
+        <v>public List&lt;EnumType&gt; ListBankBranchType() { return EnumType.GetEnumList(typeof(BankBranchType)); }</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="19"/>
+        <v>BankBranchTypeList</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="20"/>
+        <v>public static List&lt;EnumType&gt; BankBranchTypeList { get { return EnumType.GetEnumList(typeof(BankBranchType)); }}</v>
       </c>
     </row>
   </sheetData>
@@ -11596,10 +11708,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124:L126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11631,11 +11743,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>619</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public EKDRBUVariableEntryPartV1 VariablePart { get; set; }</v>
+        <v>public BankBranchChangeType ChangeType { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11646,11 +11758,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -11658,32 +11770,32 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>EKDRBUVariableEntryPartV1</v>
+        <v>BankBranchChangeType</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>VariablePart</v>
+        <v>ChangeType</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_VariablePart</v>
+        <v>_ChangeType</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private EKDRBUVariableEntryPartV1 _VariablePart;</v>
+        <v>private BankBranchChangeType _ChangeType;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public EKDRBUVariableEntryPartV1 VariablePart { get { return _VariablePart; } set { _VariablePart = value; OnPropertyChanged("VariablePart"); } }</v>
+        <v>public BankBranchChangeType ChangeType { get { return _ChangeType; } set { _ChangeType = value; OnPropertyChanged("ChangeType"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>613</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public EmploymentBookInfo BookReqs { get; set; }</v>
+        <v>public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11694,11 +11806,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -11706,32 +11818,32 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>EmploymentBookInfo</v>
+        <v>List&lt;StateBankRegistrySingleBranchChangeRecV1&gt;</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>BookReqs</v>
+        <v>ChangingBranches</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
-        <v>_BookReqs</v>
+        <v>_ChangingBranches</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>private EmploymentBookInfo _BookReqs;</v>
+        <v>private List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; _ChangingBranches;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>public EmploymentBookInfo BookReqs { get { return _BookReqs; } set { _BookReqs = value; OnPropertyChanged("BookReqs"); } }</v>
+        <v>public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get { return _ChangingBranches; } set { _ChangingBranches = value; OnPropertyChanged("ChangingBranches"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;EmploymentRecordInfo&gt; Records { get; set; }</v>
+        <v>public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11742,11 +11854,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -11754,32 +11866,32 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;EmploymentRecordInfo&gt;</v>
+        <v>List&lt;BankBranchOpsSvcsSchemeInfo&gt;</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>Records</v>
+        <v>OperationsListingSchemes</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="6"/>
-        <v>_Records</v>
+        <v>_OperationsListingSchemes</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
-        <v>private List&lt;EmploymentRecordInfo&gt; _Records;</v>
+        <v>private List&lt;BankBranchOpsSvcsSchemeInfo&gt; _OperationsListingSchemes;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="4"/>
-        <v>public List&lt;EmploymentRecordInfo&gt; Records { get { return _Records; } set { _Records = value; OnPropertyChanged("Records"); } }</v>
+        <v>public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get { return _OperationsListingSchemes; } set { _OperationsListingSchemes = value; OnPropertyChanged("OperationsListingSchemes"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>615</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>public string OccupNameUkr { get; set; }</v>
+        <v>public List&lt;AttachmentInfo&gt; Attachments { get; set; } //todo</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11790,11 +11902,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -11802,32 +11914,32 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>List&lt;AttachmentInfo&gt;</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>OccupNameUkr</v>
+        <v>Attachments</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="6"/>
-        <v>_OccupNameUkr</v>
+        <v>_Attachments</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
-        <v>private string _OccupNameUkr;</v>
+        <v>private List&lt;AttachmentInfo&gt; _Attachments;</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
-        <v>public string OccupNameUkr { get { return _OccupNameUkr; } set { _OccupNameUkr = value; OnPropertyChanged("OccupNameUkr"); } }</v>
+        <v>public List&lt;AttachmentInfo&gt; Attachments { get { return _Attachments; } set { _Attachments = value; OnPropertyChanged("Attachments"); } }</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>616</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>public string NAMEF { get; set; }</v>
+        <v>public bool RequirementsKept { get; set; }</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11838,11 +11950,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -11850,32 +11962,32 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>bool</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>NAMEF</v>
+        <v>RequirementsKept</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="6"/>
-        <v>_NAMEF</v>
+        <v>_RequirementsKept</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="3"/>
-        <v>private string _NAMEF;</v>
+        <v>private bool _RequirementsKept;</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
-        <v>public string NAMEF { get { return _NAMEF; } set { _NAMEF = value; OnPropertyChanged("NAMEF"); } }</v>
+        <v>public bool RequirementsKept { get { return _RequirementsKept; } set { _RequirementsKept = value; OnPropertyChanged("RequirementsKept"); } }</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>617</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime D_OPEN { get; set; }</v>
+        <v>public SignatoryInfo Signor { get; set; }</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11886,11 +11998,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -11898,28 +12010,28 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime</v>
+        <v>SignatoryInfo</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>D_OPEN</v>
+        <v>Signor</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="6"/>
-        <v>_D_OPEN</v>
+        <v>_Signor</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
-        <v>private DateTime _D_OPEN;</v>
+        <v>private SignatoryInfo _Signor;</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="4"/>
-        <v>public DateTime D_OPEN { get { return _D_OPEN; } set { _D_OPEN = value; OnPropertyChanged("D_OPEN"); } }</v>
+        <v>public SignatoryInfo Signor { get { return _Signor; } set { _Signor = value; OnPropertyChanged("Signor"); } }</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:B15" si="7">TRIM(A8)</f>
@@ -11967,7 +12079,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="7"/>
@@ -12015,7 +12127,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="7"/>
@@ -12063,7 +12175,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="7"/>
@@ -12111,7 +12223,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="7"/>
@@ -12159,7 +12271,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="7"/>
@@ -12207,7 +12319,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="7"/>
@@ -12255,7 +12367,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="7"/>
@@ -12303,7 +12415,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B17" si="15">TRIM(A16)</f>
@@ -12351,7 +12463,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="15"/>
@@ -12399,13 +12511,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H19" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I19" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J106" si="24">"_"&amp;I19</f>
@@ -12422,13 +12534,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H20" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="24"/>
@@ -12445,13 +12557,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I21" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="24"/>
@@ -12468,13 +12580,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H22" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="24"/>
@@ -12491,13 +12603,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H23" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I23" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="24"/>
@@ -12514,13 +12626,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H24" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I24" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="24"/>
@@ -12537,13 +12649,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H25" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="24"/>
@@ -12560,13 +12672,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H26" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I26" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="24"/>
@@ -12583,13 +12695,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H27" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I27" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="24"/>
@@ -12606,13 +12718,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H28" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I28" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="24"/>
@@ -12629,13 +12741,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H29" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I29" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="24"/>
@@ -12652,13 +12764,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H30" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I30" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="24"/>
@@ -12675,13 +12787,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H31" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I31" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="24"/>
@@ -12698,13 +12810,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="24"/>
@@ -12721,13 +12833,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H33" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="24"/>
@@ -12744,13 +12856,13 @@
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H34" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I34" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="24"/>
@@ -12767,13 +12879,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H35" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I35" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="24"/>
@@ -12790,13 +12902,13 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H36" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I36" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="24"/>
@@ -12813,13 +12925,13 @@
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H37" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I37" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="24"/>
@@ -12836,13 +12948,13 @@
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H38" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I38" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="24"/>
@@ -12859,13 +12971,13 @@
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H39" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I39" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="24"/>
@@ -12882,13 +12994,13 @@
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H40" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I40" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="24"/>
@@ -12905,13 +13017,13 @@
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H41" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I41" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="24"/>
@@ -12928,13 +13040,13 @@
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H42" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I42" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="24"/>
@@ -12951,13 +13063,13 @@
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H43" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I43" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="24"/>
@@ -12974,13 +13086,13 @@
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H44" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I44" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="24"/>
@@ -12997,13 +13109,13 @@
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H45" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I45" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="24"/>
@@ -13020,13 +13132,13 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H46" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I46" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="24"/>
@@ -13043,13 +13155,13 @@
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H47" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I47" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="24"/>
@@ -13066,13 +13178,13 @@
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I48" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="24"/>
@@ -13089,13 +13201,13 @@
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H49" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I49" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="24"/>
@@ -13112,13 +13224,13 @@
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H50" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I50" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="24"/>
@@ -13135,13 +13247,13 @@
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H51" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I51" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="24"/>
@@ -13158,13 +13270,13 @@
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H52" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I52" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="24"/>
@@ -13181,13 +13293,13 @@
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H53" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I53" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="24"/>
@@ -13204,13 +13316,13 @@
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H54" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I54" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="24"/>
@@ -13227,13 +13339,13 @@
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H55" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I55" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" ref="J55:J57" si="27">"_"&amp;I55</f>
@@ -13250,13 +13362,13 @@
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H56" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I56" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="27"/>
@@ -13273,13 +13385,13 @@
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H57" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I57" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="27"/>
@@ -13296,13 +13408,13 @@
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H58" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I58" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" ref="J58:J75" si="30">"_"&amp;I58</f>
@@ -13319,13 +13431,13 @@
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H59" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I59" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="30"/>
@@ -13342,13 +13454,13 @@
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H60" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I60" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="30"/>
@@ -13365,13 +13477,13 @@
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H61" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I61" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="30"/>
@@ -13388,13 +13500,13 @@
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H62" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I62" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="30"/>
@@ -13411,13 +13523,13 @@
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H63" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I63" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="30"/>
@@ -13434,13 +13546,13 @@
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H64" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I64" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="30"/>
@@ -13457,13 +13569,13 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H65" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I65" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="30"/>
@@ -13480,13 +13592,13 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H66" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I66" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="30"/>
@@ -13503,13 +13615,13 @@
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H67" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I67" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="30"/>
@@ -13526,13 +13638,13 @@
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H68" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I68" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="30"/>
@@ -13549,13 +13661,13 @@
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H69" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I69" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="30"/>
@@ -13572,13 +13684,13 @@
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H70" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I70" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="30"/>
@@ -13595,13 +13707,13 @@
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H71" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I71" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="30"/>
@@ -13618,13 +13730,13 @@
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H72" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I72" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="30"/>
@@ -13641,13 +13753,13 @@
     </row>
     <row r="73" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H73" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I73" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="30"/>
@@ -13664,13 +13776,13 @@
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H74" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I74" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="30"/>
@@ -13687,13 +13799,13 @@
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H75" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I75" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="30"/>
@@ -13710,13 +13822,13 @@
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H76" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I76" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="24"/>
@@ -13733,13 +13845,13 @@
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H77" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I77" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="24"/>
@@ -13756,13 +13868,13 @@
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H78" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I78" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="24"/>
@@ -13779,13 +13891,13 @@
     </row>
     <row r="79" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H79" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I79" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" ref="J79:J81" si="33">"_"&amp;I79</f>
@@ -13802,13 +13914,13 @@
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H80" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I80" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="33"/>
@@ -13825,13 +13937,13 @@
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H81" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I81" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="33"/>
@@ -13848,13 +13960,13 @@
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H82" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I82" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="24"/>
@@ -13871,13 +13983,13 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H83" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I83" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="24"/>
@@ -13894,13 +14006,13 @@
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H84" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I84" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="24"/>
@@ -13917,13 +14029,13 @@
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H85" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I85" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="24"/>
@@ -13940,13 +14052,13 @@
     </row>
     <row r="86" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H86" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I86" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="24"/>
@@ -13963,13 +14075,13 @@
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H87" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I87" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="24"/>
@@ -13986,13 +14098,13 @@
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H88" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I88" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="24"/>
@@ -14009,13 +14121,13 @@
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H89" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I89" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="24"/>
@@ -14032,13 +14144,13 @@
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H90" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I90" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="24"/>
@@ -14055,13 +14167,13 @@
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H91" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I91" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="24"/>
@@ -14078,13 +14190,13 @@
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H92" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I92" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="24"/>
@@ -14101,13 +14213,13 @@
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H93" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I93" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="24"/>
@@ -14124,13 +14236,13 @@
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H94" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I94" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="24"/>
@@ -14147,13 +14259,13 @@
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H95" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I95" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="24"/>
@@ -14170,13 +14282,13 @@
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H96" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I96" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="24"/>
@@ -14193,13 +14305,13 @@
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H97" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I97" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="24"/>
@@ -14216,13 +14328,13 @@
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H98" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I98" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="24"/>
@@ -14239,13 +14351,13 @@
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H99" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I99" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="24"/>
@@ -14262,13 +14374,13 @@
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H100" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I100" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="24"/>
@@ -14285,13 +14397,13 @@
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H101" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I101" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="24"/>
@@ -14308,13 +14420,13 @@
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H102" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I102" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="24"/>
@@ -14331,13 +14443,13 @@
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H103" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I103" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="24"/>
@@ -14354,13 +14466,13 @@
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H104" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I104" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="24"/>
@@ -14377,13 +14489,13 @@
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H105" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I105" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="24"/>
@@ -14400,13 +14512,13 @@
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H106" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I106" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="24"/>
@@ -14423,13 +14535,13 @@
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H107" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" ref="J107:J120" si="36">"_"&amp;I107</f>
@@ -14446,13 +14558,13 @@
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H108" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I108" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="36"/>
@@ -14469,13 +14581,13 @@
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H109" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I109" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="36"/>
@@ -14492,13 +14604,13 @@
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H110" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I110" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="36"/>
@@ -14515,13 +14627,13 @@
     </row>
     <row r="111" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H111" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I111" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J111" t="str">
         <f t="shared" si="36"/>
@@ -14538,13 +14650,13 @@
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H112" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I112" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J112" t="str">
         <f t="shared" si="36"/>
@@ -14561,13 +14673,13 @@
     </row>
     <row r="113" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H113" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I113" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="J113" t="str">
         <f t="shared" si="36"/>
@@ -14584,13 +14696,13 @@
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H114" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I114" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J114" t="str">
         <f t="shared" si="36"/>
@@ -14607,13 +14719,13 @@
     </row>
     <row r="115" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H115" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I115" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="36"/>
@@ -14630,13 +14742,13 @@
     </row>
     <row r="116" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H116" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I116" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="J116" t="str">
         <f t="shared" si="36"/>
@@ -14653,13 +14765,13 @@
     </row>
     <row r="117" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H117" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I117" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="36"/>
@@ -14676,13 +14788,13 @@
     </row>
     <row r="118" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H118" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I118" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J118" t="str">
         <f t="shared" si="36"/>
@@ -14699,13 +14811,13 @@
     </row>
     <row r="119" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H119" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I119" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J119" t="str">
         <f t="shared" si="36"/>
@@ -14722,13 +14834,13 @@
     </row>
     <row r="120" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H120" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I120" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="36"/>
@@ -14745,13 +14857,13 @@
     </row>
     <row r="121" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H121" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I121" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" ref="J121:J123" si="39">"_"&amp;I121</f>
@@ -14768,13 +14880,13 @@
     </row>
     <row r="122" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H122" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I122" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="39"/>
@@ -14791,13 +14903,13 @@
     </row>
     <row r="123" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H123" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I123" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="39"/>
@@ -14814,13 +14926,13 @@
     </row>
     <row r="124" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H124" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I124" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" ref="J124:J126" si="42">"_"&amp;I124</f>
@@ -14837,13 +14949,13 @@
     </row>
     <row r="125" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H125" t="s">
         <v>313</v>
       </c>
       <c r="I125" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="42"/>
@@ -14860,13 +14972,13 @@
     </row>
     <row r="126" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H126" t="s">
         <v>313</v>
       </c>
       <c r="I126" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="42"/>
@@ -14879,6 +14991,144 @@
       <c r="L126" t="str">
         <f t="shared" si="44"/>
         <v>public BankBranchStatusType StatusOld { get { return _StatusOld; } set { _StatusOld = value; OnPropertyChanged("StatusOld"); } }</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>561</v>
+      </c>
+      <c r="H127" t="s">
+        <v>560</v>
+      </c>
+      <c r="I127" t="s">
+        <v>605</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" ref="J127:J129" si="45">"_"&amp;I127</f>
+        <v>_IsCoordinatesChanged</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" ref="K127:K129" si="46">"private " &amp; H127 &amp; " " &amp; J127 &amp; ";"</f>
+        <v>private bool _IsCoordinatesChanged;</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" ref="L127:L129" si="47">G127&amp; " " &amp;H127&amp; " " &amp;I127 &amp; " { get { return " &amp; J127 &amp; "; } set { " &amp;J127 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I127 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsCoordinatesChanged { get { return _IsCoordinatesChanged; } set { _IsCoordinatesChanged = value; OnPropertyChanged("IsCoordinatesChanged"); } }</v>
+      </c>
+    </row>
+    <row r="128" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>561</v>
+      </c>
+      <c r="H128" t="s">
+        <v>454</v>
+      </c>
+      <c r="I128" t="s">
+        <v>606</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="45"/>
+        <v>_CoordinatesNew</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="46"/>
+        <v>private string _CoordinatesNew;</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="47"/>
+        <v>public string CoordinatesNew { get { return _CoordinatesNew; } set { _CoordinatesNew = value; OnPropertyChanged("CoordinatesNew"); } }</v>
+      </c>
+    </row>
+    <row r="129" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>561</v>
+      </c>
+      <c r="H129" t="s">
+        <v>454</v>
+      </c>
+      <c r="I129" t="s">
+        <v>607</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="45"/>
+        <v>_CoordinatesOld</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="46"/>
+        <v>private string _CoordinatesOld;</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="47"/>
+        <v>public string CoordinatesOld { get { return _CoordinatesOld; } set { _CoordinatesOld = value; OnPropertyChanged("CoordinatesOld"); } }</v>
+      </c>
+    </row>
+    <row r="130" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>561</v>
+      </c>
+      <c r="H130" t="s">
+        <v>560</v>
+      </c>
+      <c r="I130" t="s">
+        <v>610</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" ref="J130:J132" si="48">"_"&amp;I130</f>
+        <v>_IsBranchTypeChanged</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" ref="K130:K132" si="49">"private " &amp; H130 &amp; " " &amp; J130 &amp; ";"</f>
+        <v>private bool _IsBranchTypeChanged;</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" ref="L130:L132" si="50">G130&amp; " " &amp;H130&amp; " " &amp;I130 &amp; " { get { return " &amp; J130 &amp; "; } set { " &amp;J130 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I130 &amp; CHAR(34) &amp; "); } }"</f>
+        <v>public bool IsBranchTypeChanged { get { return _IsBranchTypeChanged; } set { _IsBranchTypeChanged = value; OnPropertyChanged("IsBranchTypeChanged"); } }</v>
+      </c>
+    </row>
+    <row r="131" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>561</v>
+      </c>
+      <c r="H131" t="s">
+        <v>608</v>
+      </c>
+      <c r="I131" t="s">
+        <v>611</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="48"/>
+        <v>_BranchTypeNew</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="49"/>
+        <v>private BankBranchType _BranchTypeNew;</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" si="50"/>
+        <v>public BankBranchType BranchTypeNew { get { return _BranchTypeNew; } set { _BranchTypeNew = value; OnPropertyChanged("BranchTypeNew"); } }</v>
+      </c>
+    </row>
+    <row r="132" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>561</v>
+      </c>
+      <c r="H132" t="s">
+        <v>608</v>
+      </c>
+      <c r="I132" t="s">
+        <v>612</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="48"/>
+        <v>_BranchTypeOld</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="49"/>
+        <v>private BankBranchType _BranchTypeOld;</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="50"/>
+        <v>public BankBranchType BranchTypeOld { get { return _BranchTypeOld; } set { _BranchTypeOld = value; OnPropertyChanged("BranchTypeOld"); } }</v>
       </c>
     </row>
   </sheetData>
@@ -14899,15 +15149,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" t="str">
         <f>"rslt." &amp;A2 &amp; " = dr[" &amp; CHAR(34) &amp; A2 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -14916,7 +15166,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B15" si="0">"rslt." &amp;A3 &amp; " = dr[" &amp; CHAR(34) &amp; A3 &amp; CHAR(34) &amp; "] as string;"</f>
@@ -14925,7 +15175,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -14934,7 +15184,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -14943,7 +15193,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -14952,7 +15202,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -14961,7 +15211,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -14970,7 +15220,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -14979,7 +15229,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -14988,7 +15238,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -14997,7 +15247,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -15006,7 +15256,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -15015,7 +15265,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -15024,7 +15274,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1865,9 +1865,6 @@
     <t>BranchTypeOld</t>
   </si>
   <si>
-    <t xml:space="preserve">        public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get; set; }</t>
-  </si>
-  <si>
     <t xml:space="preserve">        public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get; set; }</t>
   </si>
   <si>
@@ -1883,7 +1880,10 @@
     <t>BankBranchChangeType</t>
   </si>
   <si>
-    <t>public BankBranchChangeType ChangeType { get; set; }</t>
+    <t xml:space="preserve">        public DateTime PackageDate { get; set; }</t>
+  </si>
+  <si>
+    <t>public string ID { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ref="B42:B43" si="17">"List"&amp;TRIM(A42)</f>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public BankBranchChangeType ChangeType { get; set; }</v>
+        <v>public string ID { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11758,11 +11758,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -11770,32 +11770,32 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>BankBranchChangeType</v>
+        <v>string</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>ChangeType</v>
+        <v>ID</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_ChangeType</v>
+        <v>_ID</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private BankBranchChangeType _ChangeType;</v>
+        <v>private string _ID;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public BankBranchChangeType ChangeType { get { return _ChangeType; } set { _ChangeType = value; OnPropertyChanged("ChangeType"); } }</v>
+        <v>public string ID { get { return _ID; } set { _ID = value; OnPropertyChanged("ID"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get; set; }</v>
+        <v>public DateTime PackageDate { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11806,11 +11806,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -11818,28 +11818,28 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;StateBankRegistrySingleBranchChangeRecV1&gt;</v>
+        <v>DateTime</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>ChangingBranches</v>
+        <v>PackageDate</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
-        <v>_ChangingBranches</v>
+        <v>_PackageDate</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>private List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; _ChangingBranches;</v>
+        <v>private DateTime _PackageDate;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>public List&lt;StateBankRegistrySingleBranchChangeRecV1&gt; ChangingBranches { get { return _ChangingBranches; } set { _ChangingBranches = value; OnPropertyChanged("ChangingBranches"); } }</v>
+        <v>public DateTime PackageDate { get { return _PackageDate; } set { _PackageDate = value; OnPropertyChanged("PackageDate"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1880,10 +1880,10 @@
     <t>BankBranchChangeType</t>
   </si>
   <si>
-    <t xml:space="preserve">        public DateTime PackageDate { get; set; }</t>
-  </si>
-  <si>
-    <t>public string ID { get; set; }</t>
+    <t xml:space="preserve">        public DateTime? Until { get; set; }</t>
+  </si>
+  <si>
+    <t>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public string ID { get; set; }</v>
+        <v>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11758,11 +11758,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -11770,23 +11770,23 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>string</v>
+        <v>List&lt;ContactInfoHistoryRec&gt;</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>ID</v>
+        <v>ContactsHistory</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_ID</v>
+        <v>_ContactsHistory</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private string _ID;</v>
+        <v>private List&lt;ContactInfoHistoryRec&gt; _ContactsHistory;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public string ID { get { return _ID; } set { _ID = value; OnPropertyChanged("ID"); } }</v>
+        <v>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get { return _ContactsHistory; } set { _ContactsHistory = value; OnPropertyChanged("ContactsHistory"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime PackageDate { get; set; }</v>
+        <v>public DateTime? Until { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11806,11 +11806,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -11818,23 +11818,23 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime</v>
+        <v>DateTime?</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>PackageDate</v>
+        <v>Until</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
-        <v>_PackageDate</v>
+        <v>_Until</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>private DateTime _PackageDate;</v>
+        <v>private DateTime? _Until;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>public DateTime PackageDate { get { return _PackageDate; } set { _PackageDate = value; OnPropertyChanged("PackageDate"); } }</v>
+        <v>public DateTime? Until { get { return _Until; } set { _Until = value; OnPropertyChanged("Until"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">

--- a/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
+++ b/SignOwn/CSharp/Codegen/BGU_xsd_outil16.xlsx
@@ -1865,25 +1865,25 @@
     <t>BranchTypeOld</t>
   </si>
   <si>
-    <t xml:space="preserve">        public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public List&lt;AttachmentInfo&gt; Attachments { get; set; } //todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public bool RequirementsKept { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public SignatoryInfo Signor { get; set; }</t>
-  </si>
-  <si>
     <t>BankBranchChangeType</t>
   </si>
   <si>
-    <t xml:space="preserve">        public DateTime? Until { get; set; }</t>
-  </si>
-  <si>
-    <t>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get; set; }</t>
+    <t xml:space="preserve">        public DateTime MessageDate { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string RelRef { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public DateTime RelDate { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public EKDRBUChangePackageResponseStatus ResponseStatus { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;StateBankRegistryProcessingErrorInfo&gt; Errors { get; set; }</t>
+  </si>
+  <si>
+    <t>public ContactInfoSimple CheckedBy { get; set; }</t>
   </si>
 </sst>
 </file>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ref="B42:B43" si="17">"List"&amp;TRIM(A42)</f>
@@ -11711,7 +11711,7 @@
   <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B7" si="0">TRIM(A2)</f>
-        <v>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get; set; }</v>
+        <v>public ContactInfoSimple CheckedBy { get; set; }</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11758,11 +11758,11 @@
       </c>
       <c r="E2">
         <f>FIND(" ",$B2,D2+1)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f>FIND(" ",$B2,E2+1)</f>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:I7" si="2">TRIM(MID($B2,C2,D2-C2))</f>
@@ -11770,32 +11770,32 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;ContactInfoHistoryRec&gt;</v>
+        <v>ContactInfoSimple</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($B2,E2,F2-E2))</f>
-        <v>ContactsHistory</v>
+        <v>CheckedBy</v>
       </c>
       <c r="J2" t="str">
         <f>"_"&amp;I2</f>
-        <v>_ContactsHistory</v>
+        <v>_CheckedBy</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="3">"private " &amp; H2 &amp; " " &amp; J2 &amp; ";"</f>
-        <v>private List&lt;ContactInfoHistoryRec&gt; _ContactsHistory;</v>
+        <v>private ContactInfoSimple _CheckedBy;</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L15" si="4">G2&amp; " " &amp;H2&amp; " " &amp;I2 &amp; " { get { return " &amp; J2 &amp; "; } set { " &amp;J2 &amp; " = value; OnPropertyChanged(" &amp; CHAR(34) &amp; I2 &amp; CHAR(34) &amp; "); } }"</f>
-        <v>public List&lt;ContactInfoHistoryRec&gt; ContactsHistory { get { return _ContactsHistory; } set { _ContactsHistory = value; OnPropertyChanged("ContactsHistory"); } }</v>
+        <v>public ContactInfoSimple CheckedBy { get { return _CheckedBy; } set { _CheckedBy = value; OnPropertyChanged("CheckedBy"); } }</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>public DateTime? Until { get; set; }</v>
+        <v>public DateTime MessageDate { get; set; }</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11806,11 +11806,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F7" si="5">FIND(" ",$B3,D3+1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
@@ -11818,32 +11818,32 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>DateTime?</v>
+        <v>DateTime</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>Until</v>
+        <v>MessageDate</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J7" si="6">"_"&amp;I3</f>
-        <v>_Until</v>
+        <v>_MessageDate</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
-        <v>private DateTime? _Until;</v>
+        <v>private DateTime _MessageDate;</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="4"/>
-        <v>public DateTime? Until { get { return _Until; } set { _Until = value; OnPropertyChanged("Until"); } }</v>
+        <v>public DateTime MessageDate { get { return _MessageDate; } set { _MessageDate = value; OnPropertyChanged("MessageDate"); } }</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get; set; }</v>
+        <v>public string RelRef { get; set; }</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11854,11 +11854,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -11866,32 +11866,32 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;BankBranchOpsSvcsSchemeInfo&gt;</v>
+        <v>string</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>OperationsListingSchemes</v>
+        <v>RelRef</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="6"/>
-        <v>_OperationsListingSchemes</v>
+        <v>_RelRef</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
-        <v>private List&lt;BankBranchOpsSvcsSchemeInfo&gt; _OperationsListingSchemes;</v>
+        <v>private string _RelRef;</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="4"/>
-        <v>public List&lt;BankBranchOpsSvcsSchemeInfo&gt; OperationsListingSchemes { get { return _OperationsListingSchemes; } set { _OperationsListingSchemes = value; OnPropertyChanged("OperationsListingSchemes"); } }</v>
+        <v>public string RelRef { get { return _RelRef; } set { _RelRef = value; OnPropertyChanged("RelRef"); } }</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>public List&lt;AttachmentInfo&gt; Attachments { get; set; } //todo</v>
+        <v>public DateTime RelDate { get; set; }</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -11914,32 +11914,32 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
-        <v>List&lt;AttachmentInfo&gt;</v>
+        <v>DateTime</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>Attachments</v>
+        <v>RelDate</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="6"/>
-        <v>_Attachments</v>
+        <v>_RelDate</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
-        <v>private List&lt;AttachmentInfo&gt; _Attachments;</v>
+        <v>private DateTime _RelDate;</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
-        <v>public List&lt;AttachmentInfo&gt; Attachments { get { return _Attachments; } set { _Attachments = value; OnPropertyChanged("Attachments"); } }</v>
+        <v>public DateTime RelDate { get { return _RelDate; } set { _RelDate = value; OnPropertyChanged("RelDate"); } }</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>public bool RequirementsKept { get; set; }</v>
+        <v>public EKDRBUChangePackageResponseStatus ResponseStatus { get; set; }</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11950,11 +11950,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -11962,32 +11962,32 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>bool</v>
+        <v>EKDRBUChangePackageResponseStatus</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>RequirementsKept</v>
+        <v>ResponseStatus</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="6"/>
-        <v>_RequirementsKept</v>
+        <v>_ResponseStatus</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="3"/>
-        <v>private bool _RequirementsKept;</v>
+        <v>private EKDRBUChangePackageResponseStatus _ResponseStatus;</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
-        <v>public bool RequirementsKept { get { return _RequirementsKept; } set { _RequirementsKept = value; OnPropertyChanged("RequirementsKept"); } }</v>
+        <v>public EKDRBUChangePackageResponseStatus ResponseStatus { get { return _ResponseStatus; } set { _ResponseStatus = value; OnPropertyChanged("ResponseStatus"); } }</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>public SignatoryInfo Signor { get; set; }</v>
+        <v>public List&lt;StateBankRegistryProcessingErrorInfo&gt; Errors { get; set; }</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11998,11 +11998,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -12010,23 +12010,23 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>SignatoryInfo</v>
+        <v>List&lt;StateBankRegistryProcessingErrorInfo&gt;</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>Signor</v>
+        <v>Errors</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="6"/>
-        <v>_Signor</v>
+        <v>_Errors</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
-        <v>private SignatoryInfo _Signor;</v>
+        <v>private List&lt;StateBankRegistryProcessingErrorInfo&gt; _Errors;</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="4"/>
-        <v>public SignatoryInfo Signor { get { return _Signor; } set { _Signor = value; OnPropertyChanged("Signor"); } }</v>
+        <v>public List&lt;StateBankRegistryProcessingErrorInfo&gt; Errors { get { return _Errors; } set { _Errors = value; OnPropertyChanged("Errors"); } }</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
